--- a/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
+++ b/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.CRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.CRM\1_Tai lieu phan tich_Yeu cau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trợ giúp" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TaskList!$A$5:$J$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TaskList!$A$5:$M$38</definedName>
     <definedName name="CNT" localSheetId="1">#REF!</definedName>
     <definedName name="CNT">#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">#REF!</definedName>
@@ -52,7 +52,7 @@
     <definedName name="NOTNULL" localSheetId="1">#REF!</definedName>
     <definedName name="NOTNULL">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Mô tả'!$A$1:$J$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">TaskList!$A$1:$J$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">TaskList!$A$1:$M$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Trợ giúp'!$A$1:$H$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Yêu cầu'!$A$1:$O$55</definedName>
     <definedName name="RB" localSheetId="1">#REF!</definedName>
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="240">
   <si>
     <t>STT</t>
   </si>
@@ -1079,6 +1079,43 @@
   </si>
   <si>
     <t>DEV1</t>
+  </si>
+  <si>
+    <t>Tỷ lệ hoàn thành</t>
+  </si>
+  <si>
+    <t>Chi tiết tiến độ công việc</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Vì chưa hỏi lại bên Care sẽ lấy mã phân tích đối tượng nào dưới ERP 8 để làm mã phân tích dự án</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Mới thêm Layout và Item.
+- Tài liệu liên quan:
+CRMF2082_Xem chi tiết yêu cầu.                                                                                                                                                                                                                                                                </t>
+  </si>
+  <si>
+    <t>Vẫn đang làm tiếp tục</t>
+  </si>
+  <si>
+    <t>-Mới thêm Layout và Item và Input.
+-Tài liệu liên quan:
+CRMF0011_Thiết lập mã phân tích dự án                                                                                                                                                                                                                                                                CRMF0011_Thiết lập mã phân tích</t>
+  </si>
+  <si>
+    <t>- Mới thêm Layout và Item.
+- Tài liệu liên quan:
+CRMF2082_Xem chi tiết yêu cầu.                                                                                                                                                                                                                                                                CRMF2080_Danh mục yêu cầu</t>
+  </si>
+  <si>
+    <t>- Đã làm hoàn chỉnh
+- Tài liệu liên quan:
+CRMF2082_Xem chi tiết yêu cầu.                                                                                                                                                                                                                                                                CRMF2080_Danh mục yêu cầu
+CRMF2081_Cập nhật yêu cầu
+Folder Script DB</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1571,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1685,12 +1722,6 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1703,6 +1734,27 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1745,27 +1797,6 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1843,6 +1874,39 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2641,7 +2705,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3026,15 +3090,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="2:8" ht="14.25">
       <c r="B2" s="15"/>
@@ -3231,10 +3295,10 @@
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75">
-      <c r="E26" s="71" t="s">
+      <c r="E26" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="69" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="13" t="s">
@@ -3245,16 +3309,16 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75">
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
       <c r="G27" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="2:8" ht="15.75">
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
       <c r="G28" s="13" t="s">
         <v>28</v>
       </c>
@@ -3339,23 +3403,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="79"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="84"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1">
       <c r="A2" s="23" t="s">
@@ -3446,7 +3510,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="80" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="27"/>
@@ -3474,7 +3538,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="84"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="27"/>
       <c r="I5" s="32" t="s">
         <v>130</v>
@@ -3500,7 +3564,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="75" t="s">
+      <c r="G6" s="80" t="s">
         <v>110</v>
       </c>
       <c r="H6" s="27"/>
@@ -3528,7 +3592,7 @@
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="83"/>
+      <c r="G7" s="88"/>
       <c r="H7" s="27"/>
       <c r="I7" s="32" t="s">
         <v>128</v>
@@ -3554,7 +3618,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="83"/>
+      <c r="G8" s="88"/>
       <c r="H8" s="27"/>
       <c r="I8" s="32" t="s">
         <v>128</v>
@@ -3580,7 +3644,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="83"/>
+      <c r="G9" s="88"/>
       <c r="H9" s="27"/>
       <c r="I9" s="32" t="s">
         <v>128</v>
@@ -3606,7 +3670,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="83"/>
+      <c r="G10" s="88"/>
       <c r="H10" s="27"/>
       <c r="I10" s="32" t="s">
         <v>131</v>
@@ -3632,7 +3696,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="83"/>
+      <c r="G11" s="88"/>
       <c r="H11" s="27"/>
       <c r="I11" s="32" t="s">
         <v>128</v>
@@ -3658,7 +3722,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="83"/>
+      <c r="G12" s="88"/>
       <c r="H12" s="27"/>
       <c r="I12" s="32" t="s">
         <v>128</v>
@@ -3684,7 +3748,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="83"/>
+      <c r="G13" s="88"/>
       <c r="H13" s="27"/>
       <c r="I13" s="32" t="s">
         <v>128</v>
@@ -3710,7 +3774,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="83"/>
+      <c r="G14" s="88"/>
       <c r="H14" s="27"/>
       <c r="I14" s="32" t="s">
         <v>128</v>
@@ -3736,7 +3800,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="84"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="27"/>
       <c r="I15" s="32" t="s">
         <v>132</v>
@@ -3762,7 +3826,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="75" t="s">
+      <c r="G16" s="80" t="s">
         <v>119</v>
       </c>
       <c r="H16" s="27"/>
@@ -3790,7 +3854,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="83"/>
+      <c r="G17" s="88"/>
       <c r="H17" s="27"/>
       <c r="I17" s="32" t="s">
         <v>134</v>
@@ -3816,7 +3880,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="84"/>
+      <c r="G18" s="89"/>
       <c r="H18" s="27"/>
       <c r="I18" s="32" t="s">
         <v>135</v>
@@ -3842,7 +3906,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="80" t="s">
+      <c r="G19" s="85" t="s">
         <v>111</v>
       </c>
       <c r="H19" s="27"/>
@@ -3870,7 +3934,7 @@
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="81"/>
+      <c r="G20" s="86"/>
       <c r="H20" s="27"/>
       <c r="I20" s="32" t="s">
         <v>128</v>
@@ -3896,7 +3960,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="81"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="27"/>
       <c r="I21" s="32" t="s">
         <v>136</v>
@@ -3922,7 +3986,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="82"/>
+      <c r="G22" s="87"/>
       <c r="H22" s="27"/>
       <c r="I22" s="32" t="s">
         <v>137</v>
@@ -3948,11 +4012,11 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="85" t="s">
+      <c r="G23" s="90" t="s">
         <v>72</v>
       </c>
       <c r="H23" s="27"/>
-      <c r="I23" s="87" t="s">
+      <c r="I23" s="92" t="s">
         <v>128</v>
       </c>
       <c r="J23" s="27"/>
@@ -3976,9 +4040,9 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="86"/>
+      <c r="G24" s="91"/>
       <c r="H24" s="27"/>
-      <c r="I24" s="77"/>
+      <c r="I24" s="82"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -4056,7 +4120,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="80" t="s">
+      <c r="G27" s="85" t="s">
         <v>121</v>
       </c>
       <c r="H27" s="27"/>
@@ -4084,7 +4148,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="81"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="27"/>
       <c r="I28" s="32" t="s">
         <v>128</v>
@@ -4110,7 +4174,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="82"/>
+      <c r="G29" s="87"/>
       <c r="H29" s="27"/>
       <c r="I29" s="32" t="s">
         <v>128</v>
@@ -4192,7 +4256,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="74" t="s">
+      <c r="G32" s="79" t="s">
         <v>88</v>
       </c>
       <c r="H32" s="27"/>
@@ -4220,7 +4284,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="74"/>
+      <c r="G33" s="79"/>
       <c r="H33" s="27"/>
       <c r="I33" s="32" t="s">
         <v>128</v>
@@ -4414,7 +4478,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="75" t="s">
+      <c r="G40" s="80" t="s">
         <v>97</v>
       </c>
       <c r="H40" s="27"/>
@@ -4442,7 +4506,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="76"/>
+      <c r="G41" s="81"/>
       <c r="H41" s="27"/>
       <c r="I41" s="32" t="s">
         <v>142</v>
@@ -4468,7 +4532,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="77"/>
+      <c r="G42" s="82"/>
       <c r="H42" s="27"/>
       <c r="I42" s="32" t="s">
         <v>128</v>
@@ -4494,7 +4558,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="88" t="s">
+      <c r="G43" s="72" t="s">
         <v>111</v>
       </c>
       <c r="H43" s="27"/>
@@ -4522,7 +4586,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="89"/>
+      <c r="G44" s="73"/>
       <c r="H44" s="27"/>
       <c r="I44" s="32" t="s">
         <v>143</v>
@@ -4548,7 +4612,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="89"/>
+      <c r="G45" s="73"/>
       <c r="H45" s="27"/>
       <c r="I45" s="32" t="s">
         <v>144</v>
@@ -4574,7 +4638,7 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="90"/>
+      <c r="G46" s="74"/>
       <c r="H46" s="27"/>
       <c r="I46" s="32" t="s">
         <v>145</v>
@@ -4600,7 +4664,7 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="91" t="s">
+      <c r="G47" s="75" t="s">
         <v>125</v>
       </c>
       <c r="H47" s="27"/>
@@ -4628,7 +4692,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="91"/>
+      <c r="G48" s="75"/>
       <c r="H48" s="27"/>
       <c r="I48" s="32" t="s">
         <v>146</v>
@@ -4654,7 +4718,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="91" t="s">
+      <c r="G49" s="75" t="s">
         <v>125</v>
       </c>
       <c r="H49" s="27"/>
@@ -4682,7 +4746,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="91"/>
+      <c r="G50" s="75"/>
       <c r="H50" s="27"/>
       <c r="I50" s="32" t="s">
         <v>146</v>
@@ -4708,7 +4772,7 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="92" t="s">
+      <c r="G51" s="76" t="s">
         <v>126</v>
       </c>
       <c r="H51" s="27"/>
@@ -4736,7 +4800,7 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="93"/>
+      <c r="G52" s="77"/>
       <c r="H52" s="27"/>
       <c r="I52" s="32" t="s">
         <v>147</v>
@@ -4762,7 +4826,7 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="94" t="s">
+      <c r="G53" s="78" t="s">
         <v>72</v>
       </c>
       <c r="H53" s="27"/>
@@ -4790,7 +4854,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="93"/>
+      <c r="G54" s="77"/>
       <c r="H54" s="27"/>
       <c r="I54" s="32" t="s">
         <v>148</v>
@@ -4824,11 +4888,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G40:G42"/>
     <mergeCell ref="A1:O1"/>
@@ -4839,6 +4898,11 @@
     <mergeCell ref="G6:G15"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
   </mergeCells>
   <conditionalFormatting sqref="C10">
     <cfRule type="expression" dxfId="49" priority="95" stopIfTrue="1">
@@ -5067,13 +5131,13 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:BD144"/>
+  <dimension ref="A1:BG144"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5081,36 +5145,39 @@
     <col min="1" max="1" width="5.140625" style="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="43" customWidth="1"/>
     <col min="3" max="3" width="42.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="43" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="43" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="23" style="43" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="43" customWidth="1"/>
-    <col min="10" max="10" width="28" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="8" customWidth="1"/>
-    <col min="12" max="56" width="9.140625" style="8"/>
-    <col min="57" max="16384" width="9.140625" style="43"/>
+    <col min="4" max="4" width="37.5703125" style="130" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="43" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="43" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="23" style="43" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="43" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="43" customWidth="1"/>
+    <col min="13" max="13" width="28" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="8" customWidth="1"/>
+    <col min="15" max="59" width="9.140625" style="8"/>
+    <col min="60" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="95"/>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="40" t="s">
+    <row r="1" spans="1:59" s="42" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
       <c r="N1" s="41"/>
       <c r="O1" s="41"/>
       <c r="P1" s="41"/>
@@ -5154,23 +5221,26 @@
       <c r="BB1" s="41"/>
       <c r="BC1" s="41"/>
       <c r="BD1" s="41"/>
-    </row>
-    <row r="2" spans="1:56" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="40" t="s">
+      <c r="BE1" s="41"/>
+      <c r="BF1" s="41"/>
+      <c r="BG1" s="41"/>
+    </row>
+    <row r="2" spans="1:59" s="42" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="41"/>
       <c r="O2" s="41"/>
       <c r="P2" s="41"/>
@@ -5214,23 +5284,26 @@
       <c r="BB2" s="41"/>
       <c r="BC2" s="41"/>
       <c r="BD2" s="41"/>
-    </row>
-    <row r="3" spans="1:56" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="40" t="s">
+      <c r="BE2" s="41"/>
+      <c r="BF2" s="41"/>
+      <c r="BG2" s="41"/>
+    </row>
+    <row r="3" spans="1:59" s="42" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="41"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
@@ -5274,18 +5347,24 @@
       <c r="BB3" s="41"/>
       <c r="BC3" s="41"/>
       <c r="BD3" s="41"/>
-    </row>
-    <row r="4" spans="1:56">
+      <c r="BE3" s="41"/>
+      <c r="BF3" s="41"/>
+      <c r="BG3" s="41"/>
+    </row>
+    <row r="4" spans="1:59">
       <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+      <c r="D4" s="125"/>
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
-    </row>
-    <row r="5" spans="1:56" ht="52.5" customHeight="1">
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+    </row>
+    <row r="5" spans="1:59" ht="52.5" customHeight="1">
       <c r="A5" s="45" t="s">
         <v>0</v>
       </c>
@@ -5295,879 +5374,1105 @@
       <c r="C5" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="126" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="H5" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="I5" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="J5" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="K5" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="L5" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="M5" s="45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:56" s="8" customFormat="1" ht="30">
+    <row r="6" spans="1:59" s="8" customFormat="1" ht="60">
       <c r="A6" s="63">
         <f>ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="127" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="131">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="131" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="H6" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F6" s="64">
-        <f>20/60</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G6" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="47"/>
-    </row>
-    <row r="7" spans="1:56" s="8" customFormat="1" ht="30">
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+    </row>
+    <row r="7" spans="1:59" s="8" customFormat="1" ht="45">
       <c r="A7" s="46">
         <f t="shared" ref="A7:A32" si="0">ROW()-5</f>
         <v>2</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="52" t="s">
+      <c r="B7" s="101"/>
+      <c r="C7" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="127" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="131">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="H7" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F7" s="64">
-        <f t="shared" ref="F7" si="1">20/60</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G7" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="47"/>
-    </row>
-    <row r="8" spans="1:56" s="8" customFormat="1" ht="30">
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+    </row>
+    <row r="8" spans="1:59" s="8" customFormat="1" ht="60">
       <c r="A8" s="63">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="69" t="s">
+      <c r="B8" s="101"/>
+      <c r="C8" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="127" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="131">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="131" t="s">
+        <v>234</v>
+      </c>
+      <c r="G8" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="H8" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F8" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="I8" s="64"/>
       <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:56" s="8" customFormat="1" ht="45">
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+    </row>
+    <row r="9" spans="1:59" s="8" customFormat="1" ht="90">
       <c r="A9" s="63">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="68" t="s">
+      <c r="B9" s="101"/>
+      <c r="C9" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="127" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="131">
+        <v>1</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="H9" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F9" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="47">
-        <v>2</v>
-      </c>
-      <c r="H9" s="47"/>
       <c r="I9" s="47"/>
       <c r="J9" s="47"/>
-    </row>
-    <row r="10" spans="1:56" s="8" customFormat="1" ht="15" hidden="1">
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+    </row>
+    <row r="10" spans="1:59" s="8" customFormat="1" ht="15" hidden="1">
       <c r="A10" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="103"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="H10" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
       <c r="I10" s="47"/>
       <c r="J10" s="47"/>
-    </row>
-    <row r="11" spans="1:56" s="8" customFormat="1" ht="15">
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+    </row>
+    <row r="11" spans="1:59" s="8" customFormat="1" ht="15">
       <c r="A11" s="46">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="127"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="H11" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F11" s="47">
-        <v>1</v>
-      </c>
-      <c r="G11" s="47">
-        <v>1.5</v>
-      </c>
-      <c r="H11" s="47"/>
       <c r="I11" s="47"/>
       <c r="J11" s="47"/>
-    </row>
-    <row r="12" spans="1:56" s="8" customFormat="1" ht="30">
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+    </row>
+    <row r="12" spans="1:59" s="8" customFormat="1" ht="30">
       <c r="A12" s="46">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="103"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="127"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="H12" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F12" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="47">
-        <v>1</v>
-      </c>
-      <c r="H12" s="47"/>
       <c r="I12" s="47"/>
       <c r="J12" s="47"/>
-    </row>
-    <row r="13" spans="1:56" s="8" customFormat="1" ht="45">
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+    </row>
+    <row r="13" spans="1:59" s="8" customFormat="1" ht="45">
       <c r="A13" s="63">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="101"/>
+      <c r="C13" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="127"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="H13" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F13" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="G13" s="47">
-        <v>1</v>
-      </c>
-      <c r="H13" s="47"/>
       <c r="I13" s="47"/>
-      <c r="J13" s="53" t="s">
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="53" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:56" s="8" customFormat="1" ht="45">
+    <row r="14" spans="1:59" s="8" customFormat="1" ht="45">
       <c r="A14" s="46">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="103"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="128"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="H14" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F14" s="47">
-        <v>1</v>
-      </c>
-      <c r="G14" s="47">
-        <v>1</v>
-      </c>
-      <c r="H14" s="47"/>
       <c r="I14" s="47"/>
       <c r="J14" s="47"/>
-    </row>
-    <row r="15" spans="1:56" s="8" customFormat="1" ht="15">
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+    </row>
+    <row r="15" spans="1:59" s="8" customFormat="1" ht="15">
       <c r="A15" s="63">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="104"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="128"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="H15" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F15" s="47">
-        <v>3</v>
-      </c>
-      <c r="G15" s="47">
-        <v>5</v>
-      </c>
-      <c r="H15" s="47"/>
       <c r="I15" s="47"/>
       <c r="J15" s="47"/>
-    </row>
-    <row r="16" spans="1:56" s="8" customFormat="1" ht="30">
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+    </row>
+    <row r="16" spans="1:59" s="8" customFormat="1" ht="30">
       <c r="A16" s="63">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="106" t="s">
         <v>175</v>
       </c>
       <c r="C16" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="128"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="H16" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F16" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="G16" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="47"/>
       <c r="I16" s="47"/>
       <c r="J16" s="47"/>
-    </row>
-    <row r="17" spans="1:10" s="8" customFormat="1" ht="75">
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+    </row>
+    <row r="17" spans="1:13" s="8" customFormat="1" ht="75">
       <c r="A17" s="46">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="108"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="128"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="H17" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F17" s="47">
-        <v>3</v>
-      </c>
-      <c r="G17" s="47">
-        <v>2</v>
-      </c>
-      <c r="H17" s="47"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="53" t="s">
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="53" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="8" customFormat="1" ht="15">
+    <row r="18" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A18" s="63">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="109"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="128"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="H18" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F18" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="G18" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="J18" s="47"/>
-    </row>
-    <row r="19" spans="1:10" s="8" customFormat="1" ht="15" hidden="1">
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+    </row>
+    <row r="19" spans="1:13" s="8" customFormat="1" ht="15" hidden="1">
       <c r="A19" s="46">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="108" t="s">
         <v>180</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="H19" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="J19" s="47"/>
-    </row>
-    <row r="20" spans="1:10" s="8" customFormat="1" ht="30">
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+    </row>
+    <row r="20" spans="1:13" s="8" customFormat="1" ht="30">
       <c r="A20" s="46">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="110"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="128"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="H20" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F20" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="G20" s="47">
-        <v>1</v>
-      </c>
-      <c r="H20" s="47"/>
       <c r="I20" s="47"/>
-      <c r="J20" s="53"/>
-    </row>
-    <row r="21" spans="1:10" s="8" customFormat="1" ht="30">
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="53"/>
+    </row>
+    <row r="21" spans="1:13" s="8" customFormat="1" ht="30">
       <c r="A21" s="46">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B21" s="110"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="128"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="H21" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F21" s="47">
-        <v>1</v>
-      </c>
-      <c r="G21" s="47">
-        <v>1</v>
-      </c>
-      <c r="H21" s="47"/>
       <c r="I21" s="47"/>
       <c r="J21" s="47"/>
-    </row>
-    <row r="22" spans="1:10" s="8" customFormat="1" ht="30">
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+    </row>
+    <row r="22" spans="1:13" s="8" customFormat="1" ht="30">
       <c r="A22" s="46">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B22" s="110"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="128"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="H22" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F22" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="47">
-        <v>1</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
+      <c r="I22" s="53"/>
       <c r="J22" s="47"/>
-    </row>
-    <row r="23" spans="1:10" s="8" customFormat="1" ht="31.5" customHeight="1">
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+    </row>
+    <row r="23" spans="1:13" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A23" s="46">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B23" s="110"/>
+      <c r="B23" s="108"/>
       <c r="C23" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="128"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="H23" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F23" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="G23" s="47">
-        <v>2</v>
-      </c>
-      <c r="H23" s="47"/>
       <c r="I23" s="47"/>
       <c r="J23" s="47"/>
-    </row>
-    <row r="24" spans="1:10" s="8" customFormat="1" ht="15">
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+    </row>
+    <row r="24" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A24" s="63">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B24" s="110"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="128"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="H24" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F24" s="47">
-        <v>1</v>
-      </c>
-      <c r="G24" s="47">
-        <v>2</v>
-      </c>
-      <c r="H24" s="47"/>
       <c r="I24" s="47"/>
       <c r="J24" s="47"/>
-    </row>
-    <row r="25" spans="1:10" s="8" customFormat="1" ht="30">
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+    </row>
+    <row r="25" spans="1:13" s="8" customFormat="1" ht="30">
       <c r="A25" s="46">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B25" s="110"/>
+      <c r="B25" s="108"/>
       <c r="C25" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="128"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="H25" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F25" s="47">
-        <v>2</v>
-      </c>
-      <c r="G25" s="47">
-        <v>3</v>
-      </c>
-      <c r="H25" s="47"/>
       <c r="I25" s="47"/>
       <c r="J25" s="47"/>
-    </row>
-    <row r="26" spans="1:10" s="8" customFormat="1" ht="30">
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+    </row>
+    <row r="26" spans="1:13" s="8" customFormat="1" ht="30">
       <c r="A26" s="46">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B26" s="111"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="128"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="H26" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47">
-        <v>2</v>
-      </c>
-      <c r="H26" s="47"/>
       <c r="I26" s="47"/>
       <c r="J26" s="47"/>
-    </row>
-    <row r="27" spans="1:10" s="8" customFormat="1" ht="60">
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+    </row>
+    <row r="27" spans="1:13" s="8" customFormat="1" ht="60">
       <c r="A27" s="46">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="103" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="128"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="H27" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F27" s="47">
-        <v>4</v>
-      </c>
-      <c r="G27" s="47">
-        <v>6</v>
-      </c>
-      <c r="H27" s="47"/>
       <c r="I27" s="47"/>
       <c r="J27" s="47"/>
-    </row>
-    <row r="28" spans="1:10" s="8" customFormat="1" ht="30">
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+    </row>
+    <row r="28" spans="1:13" s="8" customFormat="1" ht="30">
       <c r="A28" s="46">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B28" s="106"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="128"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="H28" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F28" s="47">
-        <v>4</v>
-      </c>
-      <c r="G28" s="47">
-        <v>6</v>
-      </c>
-      <c r="H28" s="47"/>
       <c r="I28" s="47"/>
-      <c r="J28" s="53"/>
-    </row>
-    <row r="29" spans="1:10" s="8" customFormat="1" ht="30">
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="53"/>
+    </row>
+    <row r="29" spans="1:13" s="8" customFormat="1" ht="30">
       <c r="A29" s="63">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B29" s="106"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="128"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="H29" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F29" s="47">
-        <v>4</v>
-      </c>
-      <c r="G29" s="47">
-        <v>6</v>
-      </c>
-      <c r="H29" s="47"/>
       <c r="I29" s="47"/>
-      <c r="J29" s="62" t="s">
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="62" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="8" customFormat="1" ht="30">
+    <row r="30" spans="1:13" s="8" customFormat="1" ht="30">
       <c r="A30" s="46">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B30" s="106"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="128"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="H30" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F30" s="47">
-        <v>4</v>
-      </c>
-      <c r="G30" s="47">
-        <v>6</v>
-      </c>
-      <c r="H30" s="47"/>
       <c r="I30" s="47"/>
-      <c r="J30" s="61" t="s">
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="61" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="8" customFormat="1" ht="45">
+    <row r="31" spans="1:13" s="8" customFormat="1" ht="45">
       <c r="A31" s="46">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B31" s="106"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="128"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="H31" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F31" s="47">
-        <v>4</v>
-      </c>
-      <c r="G31" s="47">
-        <v>6</v>
-      </c>
-      <c r="H31" s="47"/>
       <c r="I31" s="47"/>
-      <c r="J31" s="62"/>
-    </row>
-    <row r="32" spans="1:10" s="8" customFormat="1" ht="30">
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="62"/>
+    </row>
+    <row r="32" spans="1:13" s="8" customFormat="1" ht="30">
       <c r="A32" s="63">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B32" s="107"/>
+      <c r="B32" s="105"/>
       <c r="C32" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="128"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E32" s="47" t="s">
+      <c r="H32" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F32" s="47">
-        <v>4</v>
-      </c>
-      <c r="G32" s="47">
-        <v>6</v>
-      </c>
-      <c r="H32" s="47"/>
       <c r="I32" s="47"/>
-      <c r="J32" s="61"/>
-    </row>
-    <row r="33" spans="3:9" s="8" customFormat="1" hidden="1">
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="61"/>
+    </row>
+    <row r="33" spans="3:12" s="8" customFormat="1" hidden="1">
       <c r="C33" s="48"/>
-      <c r="G33" s="49">
-        <f>SUM(G6:G32)</f>
-        <v>64</v>
-      </c>
-      <c r="H33" s="49">
-        <f>SUM(H6:H32)</f>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="J33" s="49">
+        <f>SUM(J6:J32)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="49">
-        <f>SUM(I6:I32)</f>
+      <c r="K33" s="49">
+        <f>SUM(K6:K32)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="3:9" s="8" customFormat="1" hidden="1">
-      <c r="F34" s="50" t="s">
+      <c r="L33" s="49">
+        <f>SUM(L6:L32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" s="8" customFormat="1" hidden="1">
+      <c r="I34" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="49">
-        <f>G33+H33+I33</f>
-        <v>64</v>
-      </c>
-      <c r="H34" s="49" t="s">
+      <c r="J34" s="49">
+        <f>J33+K33+L33</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="I34" s="49"/>
-    </row>
-    <row r="35" spans="3:9" s="8" customFormat="1" hidden="1">
-      <c r="G35" s="51">
-        <f>G34/8/20</f>
-        <v>0.4</v>
-      </c>
-      <c r="H35" s="49" t="s">
+      <c r="L34" s="49"/>
+    </row>
+    <row r="35" spans="3:12" s="8" customFormat="1" hidden="1">
+      <c r="J35" s="51">
+        <f>J34/8/20</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="I35" s="49"/>
-    </row>
-    <row r="36" spans="3:9" s="8" customFormat="1" hidden="1">
-      <c r="G36" s="8">
-        <f>G35/3</f>
-        <v>0.13333333333333333</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" s="8" customFormat="1" hidden="1">
-      <c r="G37" s="8">
-        <f>G36*50%</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" s="8" customFormat="1" hidden="1">
-      <c r="G38" s="8">
-        <f>G36+G37</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" s="8" customFormat="1">
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-    </row>
-    <row r="40" spans="3:9" s="8" customFormat="1"/>
-    <row r="41" spans="3:9" s="8" customFormat="1"/>
-    <row r="42" spans="3:9" s="8" customFormat="1"/>
-    <row r="43" spans="3:9" s="8" customFormat="1"/>
-    <row r="44" spans="3:9" s="8" customFormat="1"/>
-    <row r="45" spans="3:9" s="8" customFormat="1"/>
-    <row r="46" spans="3:9" s="8" customFormat="1"/>
-    <row r="47" spans="3:9" s="8" customFormat="1"/>
-    <row r="48" spans="3:9" s="8" customFormat="1"/>
-    <row r="49" s="8" customFormat="1"/>
-    <row r="50" s="8" customFormat="1"/>
-    <row r="51" s="8" customFormat="1"/>
-    <row r="52" s="8" customFormat="1"/>
-    <row r="53" s="8" customFormat="1"/>
-    <row r="54" s="8" customFormat="1"/>
-    <row r="55" s="8" customFormat="1"/>
-    <row r="56" s="8" customFormat="1"/>
-    <row r="57" s="8" customFormat="1"/>
-    <row r="58" s="8" customFormat="1"/>
-    <row r="59" s="8" customFormat="1"/>
-    <row r="60" s="8" customFormat="1"/>
-    <row r="61" s="8" customFormat="1"/>
-    <row r="62" s="8" customFormat="1"/>
-    <row r="63" s="8" customFormat="1"/>
-    <row r="64" s="8" customFormat="1"/>
-    <row r="65" s="8" customFormat="1"/>
-    <row r="66" s="8" customFormat="1"/>
-    <row r="67" s="8" customFormat="1"/>
-    <row r="68" s="8" customFormat="1"/>
-    <row r="69" s="8" customFormat="1"/>
-    <row r="70" s="8" customFormat="1"/>
-    <row r="71" s="8" customFormat="1"/>
-    <row r="72" s="8" customFormat="1"/>
-    <row r="73" s="8" customFormat="1"/>
-    <row r="74" s="8" customFormat="1"/>
-    <row r="75" s="8" customFormat="1"/>
-    <row r="76" s="8" customFormat="1"/>
-    <row r="77" s="8" customFormat="1"/>
-    <row r="78" s="8" customFormat="1"/>
-    <row r="79" s="8" customFormat="1"/>
-    <row r="80" s="8" customFormat="1"/>
-    <row r="81" s="8" customFormat="1"/>
-    <row r="82" s="8" customFormat="1"/>
-    <row r="83" s="8" customFormat="1"/>
-    <row r="84" s="8" customFormat="1"/>
-    <row r="85" s="8" customFormat="1"/>
-    <row r="86" s="8" customFormat="1"/>
-    <row r="87" s="8" customFormat="1"/>
-    <row r="88" s="8" customFormat="1"/>
-    <row r="89" s="8" customFormat="1"/>
-    <row r="90" s="8" customFormat="1"/>
-    <row r="91" s="8" customFormat="1"/>
-    <row r="92" s="8" customFormat="1"/>
-    <row r="93" s="8" customFormat="1"/>
-    <row r="94" s="8" customFormat="1"/>
-    <row r="95" s="8" customFormat="1"/>
-    <row r="96" s="8" customFormat="1"/>
-    <row r="97" s="8" customFormat="1"/>
-    <row r="98" s="8" customFormat="1"/>
-    <row r="99" s="8" customFormat="1"/>
-    <row r="100" s="8" customFormat="1"/>
-    <row r="101" s="8" customFormat="1"/>
-    <row r="102" s="8" customFormat="1"/>
-    <row r="103" s="8" customFormat="1"/>
-    <row r="104" s="8" customFormat="1"/>
-    <row r="105" s="8" customFormat="1"/>
-    <row r="106" s="8" customFormat="1"/>
-    <row r="107" s="8" customFormat="1"/>
-    <row r="108" s="8" customFormat="1"/>
-    <row r="109" s="8" customFormat="1"/>
-    <row r="110" s="8" customFormat="1"/>
-    <row r="111" s="8" customFormat="1"/>
-    <row r="112" s="8" customFormat="1"/>
-    <row r="113" s="8" customFormat="1"/>
-    <row r="114" s="8" customFormat="1"/>
-    <row r="115" s="8" customFormat="1"/>
-    <row r="116" s="8" customFormat="1"/>
-    <row r="117" s="8" customFormat="1"/>
-    <row r="118" s="8" customFormat="1"/>
-    <row r="119" s="8" customFormat="1"/>
-    <row r="120" s="8" customFormat="1"/>
-    <row r="121" s="8" customFormat="1"/>
-    <row r="122" s="8" customFormat="1"/>
-    <row r="123" s="8" customFormat="1"/>
-    <row r="124" s="8" customFormat="1"/>
-    <row r="125" s="8" customFormat="1"/>
-    <row r="126" s="8" customFormat="1"/>
-    <row r="127" s="8" customFormat="1"/>
-    <row r="128" s="8" customFormat="1"/>
-    <row r="129" s="8" customFormat="1"/>
-    <row r="130" s="8" customFormat="1"/>
-    <row r="131" s="8" customFormat="1"/>
-    <row r="132" s="8" customFormat="1"/>
-    <row r="133" s="8" customFormat="1"/>
-    <row r="134" s="8" customFormat="1"/>
-    <row r="135" s="8" customFormat="1"/>
-    <row r="136" s="8" customFormat="1"/>
-    <row r="137" s="8" customFormat="1"/>
-    <row r="138" s="8" customFormat="1"/>
-    <row r="139" s="8" customFormat="1"/>
-    <row r="140" s="8" customFormat="1"/>
-    <row r="141" s="8" customFormat="1"/>
-    <row r="142" s="8" customFormat="1"/>
-    <row r="143" s="8" customFormat="1"/>
-    <row r="144" s="8" customFormat="1"/>
+      <c r="L35" s="49"/>
+    </row>
+    <row r="36" spans="3:12" s="8" customFormat="1" hidden="1">
+      <c r="J36" s="8">
+        <f>J35/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" s="8" customFormat="1" hidden="1">
+      <c r="J37" s="8">
+        <f>J36*50%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" s="8" customFormat="1" hidden="1">
+      <c r="J38" s="8">
+        <f>J36+J37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" s="8" customFormat="1">
+      <c r="D39" s="129"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+    </row>
+    <row r="40" spans="3:12" s="8" customFormat="1">
+      <c r="D40" s="129"/>
+    </row>
+    <row r="41" spans="3:12" s="8" customFormat="1">
+      <c r="D41" s="129"/>
+    </row>
+    <row r="42" spans="3:12" s="8" customFormat="1">
+      <c r="D42" s="129"/>
+    </row>
+    <row r="43" spans="3:12" s="8" customFormat="1">
+      <c r="D43" s="129"/>
+    </row>
+    <row r="44" spans="3:12" s="8" customFormat="1">
+      <c r="D44" s="129"/>
+    </row>
+    <row r="45" spans="3:12" s="8" customFormat="1">
+      <c r="D45" s="129"/>
+    </row>
+    <row r="46" spans="3:12" s="8" customFormat="1">
+      <c r="D46" s="129"/>
+    </row>
+    <row r="47" spans="3:12" s="8" customFormat="1">
+      <c r="D47" s="129"/>
+    </row>
+    <row r="48" spans="3:12" s="8" customFormat="1">
+      <c r="D48" s="129"/>
+    </row>
+    <row r="49" spans="4:4" s="8" customFormat="1">
+      <c r="D49" s="129"/>
+    </row>
+    <row r="50" spans="4:4" s="8" customFormat="1">
+      <c r="D50" s="129"/>
+    </row>
+    <row r="51" spans="4:4" s="8" customFormat="1">
+      <c r="D51" s="129"/>
+    </row>
+    <row r="52" spans="4:4" s="8" customFormat="1">
+      <c r="D52" s="129"/>
+    </row>
+    <row r="53" spans="4:4" s="8" customFormat="1">
+      <c r="D53" s="129"/>
+    </row>
+    <row r="54" spans="4:4" s="8" customFormat="1">
+      <c r="D54" s="129"/>
+    </row>
+    <row r="55" spans="4:4" s="8" customFormat="1">
+      <c r="D55" s="129"/>
+    </row>
+    <row r="56" spans="4:4" s="8" customFormat="1">
+      <c r="D56" s="129"/>
+    </row>
+    <row r="57" spans="4:4" s="8" customFormat="1">
+      <c r="D57" s="129"/>
+    </row>
+    <row r="58" spans="4:4" s="8" customFormat="1">
+      <c r="D58" s="129"/>
+    </row>
+    <row r="59" spans="4:4" s="8" customFormat="1">
+      <c r="D59" s="129"/>
+    </row>
+    <row r="60" spans="4:4" s="8" customFormat="1">
+      <c r="D60" s="129"/>
+    </row>
+    <row r="61" spans="4:4" s="8" customFormat="1">
+      <c r="D61" s="129"/>
+    </row>
+    <row r="62" spans="4:4" s="8" customFormat="1">
+      <c r="D62" s="129"/>
+    </row>
+    <row r="63" spans="4:4" s="8" customFormat="1">
+      <c r="D63" s="129"/>
+    </row>
+    <row r="64" spans="4:4" s="8" customFormat="1">
+      <c r="D64" s="129"/>
+    </row>
+    <row r="65" spans="4:4" s="8" customFormat="1">
+      <c r="D65" s="129"/>
+    </row>
+    <row r="66" spans="4:4" s="8" customFormat="1">
+      <c r="D66" s="129"/>
+    </row>
+    <row r="67" spans="4:4" s="8" customFormat="1">
+      <c r="D67" s="129"/>
+    </row>
+    <row r="68" spans="4:4" s="8" customFormat="1">
+      <c r="D68" s="129"/>
+    </row>
+    <row r="69" spans="4:4" s="8" customFormat="1">
+      <c r="D69" s="129"/>
+    </row>
+    <row r="70" spans="4:4" s="8" customFormat="1">
+      <c r="D70" s="129"/>
+    </row>
+    <row r="71" spans="4:4" s="8" customFormat="1">
+      <c r="D71" s="129"/>
+    </row>
+    <row r="72" spans="4:4" s="8" customFormat="1">
+      <c r="D72" s="129"/>
+    </row>
+    <row r="73" spans="4:4" s="8" customFormat="1">
+      <c r="D73" s="129"/>
+    </row>
+    <row r="74" spans="4:4" s="8" customFormat="1">
+      <c r="D74" s="129"/>
+    </row>
+    <row r="75" spans="4:4" s="8" customFormat="1">
+      <c r="D75" s="129"/>
+    </row>
+    <row r="76" spans="4:4" s="8" customFormat="1">
+      <c r="D76" s="129"/>
+    </row>
+    <row r="77" spans="4:4" s="8" customFormat="1">
+      <c r="D77" s="129"/>
+    </row>
+    <row r="78" spans="4:4" s="8" customFormat="1">
+      <c r="D78" s="129"/>
+    </row>
+    <row r="79" spans="4:4" s="8" customFormat="1">
+      <c r="D79" s="129"/>
+    </row>
+    <row r="80" spans="4:4" s="8" customFormat="1">
+      <c r="D80" s="129"/>
+    </row>
+    <row r="81" spans="4:4" s="8" customFormat="1">
+      <c r="D81" s="129"/>
+    </row>
+    <row r="82" spans="4:4" s="8" customFormat="1">
+      <c r="D82" s="129"/>
+    </row>
+    <row r="83" spans="4:4" s="8" customFormat="1">
+      <c r="D83" s="129"/>
+    </row>
+    <row r="84" spans="4:4" s="8" customFormat="1">
+      <c r="D84" s="129"/>
+    </row>
+    <row r="85" spans="4:4" s="8" customFormat="1">
+      <c r="D85" s="129"/>
+    </row>
+    <row r="86" spans="4:4" s="8" customFormat="1">
+      <c r="D86" s="129"/>
+    </row>
+    <row r="87" spans="4:4" s="8" customFormat="1">
+      <c r="D87" s="129"/>
+    </row>
+    <row r="88" spans="4:4" s="8" customFormat="1">
+      <c r="D88" s="129"/>
+    </row>
+    <row r="89" spans="4:4" s="8" customFormat="1">
+      <c r="D89" s="129"/>
+    </row>
+    <row r="90" spans="4:4" s="8" customFormat="1">
+      <c r="D90" s="129"/>
+    </row>
+    <row r="91" spans="4:4" s="8" customFormat="1">
+      <c r="D91" s="129"/>
+    </row>
+    <row r="92" spans="4:4" s="8" customFormat="1">
+      <c r="D92" s="129"/>
+    </row>
+    <row r="93" spans="4:4" s="8" customFormat="1">
+      <c r="D93" s="129"/>
+    </row>
+    <row r="94" spans="4:4" s="8" customFormat="1">
+      <c r="D94" s="129"/>
+    </row>
+    <row r="95" spans="4:4" s="8" customFormat="1">
+      <c r="D95" s="129"/>
+    </row>
+    <row r="96" spans="4:4" s="8" customFormat="1">
+      <c r="D96" s="129"/>
+    </row>
+    <row r="97" spans="4:4" s="8" customFormat="1">
+      <c r="D97" s="129"/>
+    </row>
+    <row r="98" spans="4:4" s="8" customFormat="1">
+      <c r="D98" s="129"/>
+    </row>
+    <row r="99" spans="4:4" s="8" customFormat="1">
+      <c r="D99" s="129"/>
+    </row>
+    <row r="100" spans="4:4" s="8" customFormat="1">
+      <c r="D100" s="129"/>
+    </row>
+    <row r="101" spans="4:4" s="8" customFormat="1">
+      <c r="D101" s="129"/>
+    </row>
+    <row r="102" spans="4:4" s="8" customFormat="1">
+      <c r="D102" s="129"/>
+    </row>
+    <row r="103" spans="4:4" s="8" customFormat="1">
+      <c r="D103" s="129"/>
+    </row>
+    <row r="104" spans="4:4" s="8" customFormat="1">
+      <c r="D104" s="129"/>
+    </row>
+    <row r="105" spans="4:4" s="8" customFormat="1">
+      <c r="D105" s="129"/>
+    </row>
+    <row r="106" spans="4:4" s="8" customFormat="1">
+      <c r="D106" s="129"/>
+    </row>
+    <row r="107" spans="4:4" s="8" customFormat="1">
+      <c r="D107" s="129"/>
+    </row>
+    <row r="108" spans="4:4" s="8" customFormat="1">
+      <c r="D108" s="129"/>
+    </row>
+    <row r="109" spans="4:4" s="8" customFormat="1">
+      <c r="D109" s="129"/>
+    </row>
+    <row r="110" spans="4:4" s="8" customFormat="1">
+      <c r="D110" s="129"/>
+    </row>
+    <row r="111" spans="4:4" s="8" customFormat="1">
+      <c r="D111" s="129"/>
+    </row>
+    <row r="112" spans="4:4" s="8" customFormat="1">
+      <c r="D112" s="129"/>
+    </row>
+    <row r="113" spans="4:4" s="8" customFormat="1">
+      <c r="D113" s="129"/>
+    </row>
+    <row r="114" spans="4:4" s="8" customFormat="1">
+      <c r="D114" s="129"/>
+    </row>
+    <row r="115" spans="4:4" s="8" customFormat="1">
+      <c r="D115" s="129"/>
+    </row>
+    <row r="116" spans="4:4" s="8" customFormat="1">
+      <c r="D116" s="129"/>
+    </row>
+    <row r="117" spans="4:4" s="8" customFormat="1">
+      <c r="D117" s="129"/>
+    </row>
+    <row r="118" spans="4:4" s="8" customFormat="1">
+      <c r="D118" s="129"/>
+    </row>
+    <row r="119" spans="4:4" s="8" customFormat="1">
+      <c r="D119" s="129"/>
+    </row>
+    <row r="120" spans="4:4" s="8" customFormat="1">
+      <c r="D120" s="129"/>
+    </row>
+    <row r="121" spans="4:4" s="8" customFormat="1">
+      <c r="D121" s="129"/>
+    </row>
+    <row r="122" spans="4:4" s="8" customFormat="1">
+      <c r="D122" s="129"/>
+    </row>
+    <row r="123" spans="4:4" s="8" customFormat="1">
+      <c r="D123" s="129"/>
+    </row>
+    <row r="124" spans="4:4" s="8" customFormat="1">
+      <c r="D124" s="129"/>
+    </row>
+    <row r="125" spans="4:4" s="8" customFormat="1">
+      <c r="D125" s="129"/>
+    </row>
+    <row r="126" spans="4:4" s="8" customFormat="1">
+      <c r="D126" s="129"/>
+    </row>
+    <row r="127" spans="4:4" s="8" customFormat="1">
+      <c r="D127" s="129"/>
+    </row>
+    <row r="128" spans="4:4" s="8" customFormat="1">
+      <c r="D128" s="129"/>
+    </row>
+    <row r="129" spans="4:4" s="8" customFormat="1">
+      <c r="D129" s="129"/>
+    </row>
+    <row r="130" spans="4:4" s="8" customFormat="1">
+      <c r="D130" s="129"/>
+    </row>
+    <row r="131" spans="4:4" s="8" customFormat="1">
+      <c r="D131" s="129"/>
+    </row>
+    <row r="132" spans="4:4" s="8" customFormat="1">
+      <c r="D132" s="129"/>
+    </row>
+    <row r="133" spans="4:4" s="8" customFormat="1">
+      <c r="D133" s="129"/>
+    </row>
+    <row r="134" spans="4:4" s="8" customFormat="1">
+      <c r="D134" s="129"/>
+    </row>
+    <row r="135" spans="4:4" s="8" customFormat="1">
+      <c r="D135" s="129"/>
+    </row>
+    <row r="136" spans="4:4" s="8" customFormat="1">
+      <c r="D136" s="129"/>
+    </row>
+    <row r="137" spans="4:4" s="8" customFormat="1">
+      <c r="D137" s="129"/>
+    </row>
+    <row r="138" spans="4:4" s="8" customFormat="1">
+      <c r="D138" s="129"/>
+    </row>
+    <row r="139" spans="4:4" s="8" customFormat="1">
+      <c r="D139" s="129"/>
+    </row>
+    <row r="140" spans="4:4" s="8" customFormat="1">
+      <c r="D140" s="129"/>
+    </row>
+    <row r="141" spans="4:4" s="8" customFormat="1">
+      <c r="D141" s="129"/>
+    </row>
+    <row r="142" spans="4:4" s="8" customFormat="1">
+      <c r="D142" s="129"/>
+    </row>
+    <row r="143" spans="4:4" s="8" customFormat="1">
+      <c r="D143" s="129"/>
+    </row>
+    <row r="144" spans="4:4" s="8" customFormat="1">
+      <c r="D144" s="129"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:J38">
-    <filterColumn colId="3">
+  <autoFilter ref="A5:M38">
+    <filterColumn colId="6">
       <filters>
         <filter val="Tấn Đạt"/>
       </filters>
@@ -6175,15 +6480,15 @@
   </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:H3"/>
+    <mergeCell ref="G1:K3"/>
     <mergeCell ref="B6:B15"/>
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J30" location="'Báo cáo chiến dịch'!A1" display="Báo cáo chiến dịch"/>
-    <hyperlink ref="J29" location="'So sánh cơ hội nhiều kỳ'!A1" display="'So sánh cơ hội nhiều kỳ'!A1"/>
+    <hyperlink ref="M30" location="'Báo cáo chiến dịch'!A1" display="Báo cáo chiến dịch"/>
+    <hyperlink ref="M29" location="'So sánh cơ hội nhiều kỳ'!A1" display="'So sánh cơ hội nhiều kỳ'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="22" orientation="portrait" r:id="rId1"/>
@@ -6448,31 +6753,31 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="55" customFormat="1" ht="14.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="110" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="110" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
     </row>
     <row r="5" spans="1:15" s="55" customFormat="1" ht="14.25">
-      <c r="A5" s="113"/>
-      <c r="B5" s="113"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="56" t="s">
         <v>191</v>
       </c>
@@ -6872,41 +7177,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="113" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
     </row>
     <row r="4" spans="1:7" s="55" customFormat="1" ht="14.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="110" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="110" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="112" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:7" s="55" customFormat="1" ht="14.25">
-      <c r="A5" s="113"/>
-      <c r="B5" s="113"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="56" t="s">
         <v>213</v>
       </c>
@@ -7143,16 +7448,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="113" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
     </row>
     <row r="2" spans="1:9">
       <c r="D2" s="54" t="s">
@@ -7163,31 +7468,31 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="110" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118" t="s">
+      <c r="D4" s="116"/>
+      <c r="E4" s="116" t="s">
         <v>222</v>
       </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118" t="s">
+      <c r="F4" s="116"/>
+      <c r="G4" s="116" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="119" t="s">
+      <c r="H4" s="116"/>
+      <c r="I4" s="117" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="55" customFormat="1" ht="14.25">
-      <c r="A5" s="113"/>
-      <c r="B5" s="113"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="56" t="s">
         <v>224</v>
       </c>
@@ -7206,7 +7511,7 @@
       <c r="H5" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="I5" s="120"/>
+      <c r="I5" s="118"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="60">

--- a/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
+++ b/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trợ giúp" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TaskList!$A$5:$M$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TaskList!$A$5:$M$42</definedName>
     <definedName name="CNT" localSheetId="1">#REF!</definedName>
     <definedName name="CNT">#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">#REF!</definedName>
@@ -52,7 +52,7 @@
     <definedName name="NOTNULL" localSheetId="1">#REF!</definedName>
     <definedName name="NOTNULL">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Mô tả'!$A$1:$J$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">TaskList!$A$1:$M$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">TaskList!$A$1:$M$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Trợ giúp'!$A$1:$H$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Yêu cầu'!$A$1:$O$55</definedName>
     <definedName name="RB" localSheetId="1">#REF!</definedName>
@@ -216,7 +216,7 @@
     <author>Lê Phát Danh</author>
   </authors>
   <commentList>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0" shapeId="0">
+    <comment ref="C26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="239">
   <si>
     <t>STT</t>
   </si>
@@ -1090,9 +1090,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Vì chưa hỏi lại bên Care sẽ lấy mã phân tích đối tượng nào dưới ERP 8 để làm mã phân tích dự án</t>
-  </si>
-  <si>
     <t xml:space="preserve">- Mới thêm Layout và Item.
 - Tài liệu liên quan:
 CRMF2082_Xem chi tiết yêu cầu.                                                                                                                                                                                                                                                                </t>
@@ -1126,7 +1123,7 @@
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1328,8 +1325,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1384,8 +1394,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1553,6 +1569,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1571,7 +1598,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1722,159 +1749,6 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1893,7 +1767,6 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="26" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1907,6 +1780,194 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3090,15 +3151,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="2" spans="2:8" ht="14.25">
       <c r="B2" s="15"/>
@@ -3295,10 +3356,10 @@
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75">
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="69" t="s">
+      <c r="F26" s="94" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="13" t="s">
@@ -3309,16 +3370,16 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75">
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
       <c r="G27" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="2:8" ht="15.75">
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
       <c r="G28" s="13" t="s">
         <v>28</v>
       </c>
@@ -3403,23 +3464,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="84"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="109"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1">
       <c r="A2" s="23" t="s">
@@ -3510,7 +3571,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="105" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="27"/>
@@ -3538,7 +3599,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="89"/>
+      <c r="G5" s="114"/>
       <c r="H5" s="27"/>
       <c r="I5" s="32" t="s">
         <v>130</v>
@@ -3564,7 +3625,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="105" t="s">
         <v>110</v>
       </c>
       <c r="H6" s="27"/>
@@ -3592,7 +3653,7 @@
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="88"/>
+      <c r="G7" s="113"/>
       <c r="H7" s="27"/>
       <c r="I7" s="32" t="s">
         <v>128</v>
@@ -3618,7 +3679,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="88"/>
+      <c r="G8" s="113"/>
       <c r="H8" s="27"/>
       <c r="I8" s="32" t="s">
         <v>128</v>
@@ -3644,7 +3705,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="88"/>
+      <c r="G9" s="113"/>
       <c r="H9" s="27"/>
       <c r="I9" s="32" t="s">
         <v>128</v>
@@ -3670,7 +3731,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="88"/>
+      <c r="G10" s="113"/>
       <c r="H10" s="27"/>
       <c r="I10" s="32" t="s">
         <v>131</v>
@@ -3696,7 +3757,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="88"/>
+      <c r="G11" s="113"/>
       <c r="H11" s="27"/>
       <c r="I11" s="32" t="s">
         <v>128</v>
@@ -3722,7 +3783,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="88"/>
+      <c r="G12" s="113"/>
       <c r="H12" s="27"/>
       <c r="I12" s="32" t="s">
         <v>128</v>
@@ -3748,7 +3809,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="88"/>
+      <c r="G13" s="113"/>
       <c r="H13" s="27"/>
       <c r="I13" s="32" t="s">
         <v>128</v>
@@ -3774,7 +3835,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="88"/>
+      <c r="G14" s="113"/>
       <c r="H14" s="27"/>
       <c r="I14" s="32" t="s">
         <v>128</v>
@@ -3800,7 +3861,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="89"/>
+      <c r="G15" s="114"/>
       <c r="H15" s="27"/>
       <c r="I15" s="32" t="s">
         <v>132</v>
@@ -3826,7 +3887,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="80" t="s">
+      <c r="G16" s="105" t="s">
         <v>119</v>
       </c>
       <c r="H16" s="27"/>
@@ -3854,7 +3915,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="88"/>
+      <c r="G17" s="113"/>
       <c r="H17" s="27"/>
       <c r="I17" s="32" t="s">
         <v>134</v>
@@ -3880,7 +3941,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="89"/>
+      <c r="G18" s="114"/>
       <c r="H18" s="27"/>
       <c r="I18" s="32" t="s">
         <v>135</v>
@@ -3906,7 +3967,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="85" t="s">
+      <c r="G19" s="110" t="s">
         <v>111</v>
       </c>
       <c r="H19" s="27"/>
@@ -3934,7 +3995,7 @@
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="86"/>
+      <c r="G20" s="111"/>
       <c r="H20" s="27"/>
       <c r="I20" s="32" t="s">
         <v>128</v>
@@ -3960,7 +4021,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="86"/>
+      <c r="G21" s="111"/>
       <c r="H21" s="27"/>
       <c r="I21" s="32" t="s">
         <v>136</v>
@@ -3986,7 +4047,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="87"/>
+      <c r="G22" s="112"/>
       <c r="H22" s="27"/>
       <c r="I22" s="32" t="s">
         <v>137</v>
@@ -4012,11 +4073,11 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="90" t="s">
+      <c r="G23" s="115" t="s">
         <v>72</v>
       </c>
       <c r="H23" s="27"/>
-      <c r="I23" s="92" t="s">
+      <c r="I23" s="117" t="s">
         <v>128</v>
       </c>
       <c r="J23" s="27"/>
@@ -4040,9 +4101,9 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="91"/>
+      <c r="G24" s="116"/>
       <c r="H24" s="27"/>
-      <c r="I24" s="82"/>
+      <c r="I24" s="107"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -4120,7 +4181,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="110" t="s">
         <v>121</v>
       </c>
       <c r="H27" s="27"/>
@@ -4148,7 +4209,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="86"/>
+      <c r="G28" s="111"/>
       <c r="H28" s="27"/>
       <c r="I28" s="32" t="s">
         <v>128</v>
@@ -4174,7 +4235,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="87"/>
+      <c r="G29" s="112"/>
       <c r="H29" s="27"/>
       <c r="I29" s="32" t="s">
         <v>128</v>
@@ -4256,7 +4317,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="79" t="s">
+      <c r="G32" s="104" t="s">
         <v>88</v>
       </c>
       <c r="H32" s="27"/>
@@ -4284,7 +4345,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="79"/>
+      <c r="G33" s="104"/>
       <c r="H33" s="27"/>
       <c r="I33" s="32" t="s">
         <v>128</v>
@@ -4478,7 +4539,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="80" t="s">
+      <c r="G40" s="105" t="s">
         <v>97</v>
       </c>
       <c r="H40" s="27"/>
@@ -4506,7 +4567,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="81"/>
+      <c r="G41" s="106"/>
       <c r="H41" s="27"/>
       <c r="I41" s="32" t="s">
         <v>142</v>
@@ -4532,7 +4593,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="82"/>
+      <c r="G42" s="107"/>
       <c r="H42" s="27"/>
       <c r="I42" s="32" t="s">
         <v>128</v>
@@ -4558,7 +4619,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="72" t="s">
+      <c r="G43" s="97" t="s">
         <v>111</v>
       </c>
       <c r="H43" s="27"/>
@@ -4586,7 +4647,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="73"/>
+      <c r="G44" s="98"/>
       <c r="H44" s="27"/>
       <c r="I44" s="32" t="s">
         <v>143</v>
@@ -4612,7 +4673,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="73"/>
+      <c r="G45" s="98"/>
       <c r="H45" s="27"/>
       <c r="I45" s="32" t="s">
         <v>144</v>
@@ -4638,7 +4699,7 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="74"/>
+      <c r="G46" s="99"/>
       <c r="H46" s="27"/>
       <c r="I46" s="32" t="s">
         <v>145</v>
@@ -4664,7 +4725,7 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="75" t="s">
+      <c r="G47" s="100" t="s">
         <v>125</v>
       </c>
       <c r="H47" s="27"/>
@@ -4692,7 +4753,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="75"/>
+      <c r="G48" s="100"/>
       <c r="H48" s="27"/>
       <c r="I48" s="32" t="s">
         <v>146</v>
@@ -4718,7 +4779,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="75" t="s">
+      <c r="G49" s="100" t="s">
         <v>125</v>
       </c>
       <c r="H49" s="27"/>
@@ -4746,7 +4807,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="75"/>
+      <c r="G50" s="100"/>
       <c r="H50" s="27"/>
       <c r="I50" s="32" t="s">
         <v>146</v>
@@ -4772,7 +4833,7 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="76" t="s">
+      <c r="G51" s="101" t="s">
         <v>126</v>
       </c>
       <c r="H51" s="27"/>
@@ -4800,7 +4861,7 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="77"/>
+      <c r="G52" s="102"/>
       <c r="H52" s="27"/>
       <c r="I52" s="32" t="s">
         <v>147</v>
@@ -4826,7 +4887,7 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="78" t="s">
+      <c r="G53" s="103" t="s">
         <v>72</v>
       </c>
       <c r="H53" s="27"/>
@@ -4854,7 +4915,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="77"/>
+      <c r="G54" s="102"/>
       <c r="H54" s="27"/>
       <c r="I54" s="32" t="s">
         <v>148</v>
@@ -5131,13 +5192,13 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:BG144"/>
+  <dimension ref="A1:BG148"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5145,33 +5206,33 @@
     <col min="1" max="1" width="5.140625" style="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="43" customWidth="1"/>
     <col min="3" max="3" width="42.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="130" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" style="78" customWidth="1"/>
     <col min="5" max="5" width="21.140625" style="43" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.5703125" style="43" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" style="43" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="43" customWidth="1"/>
-    <col min="10" max="10" width="23" style="43" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="43" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="43" customWidth="1"/>
-    <col min="13" max="13" width="28" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="43" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="43" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="43" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="43" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="43" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="28" style="43" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="8" customWidth="1"/>
     <col min="15" max="59" width="9.140625" style="8"/>
     <col min="60" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="A1" s="118"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="120"/>
       <c r="L1" s="40" t="s">
         <v>149</v>
       </c>
@@ -5226,17 +5287,17 @@
       <c r="BG1" s="41"/>
     </row>
     <row r="2" spans="1:59" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="122"/>
       <c r="L2" s="40" t="s">
         <v>151</v>
       </c>
@@ -5289,17 +5350,17 @@
       <c r="BG2" s="41"/>
     </row>
     <row r="3" spans="1:59" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="124"/>
       <c r="L3" s="40" t="s">
         <v>152</v>
       </c>
@@ -5351,10 +5412,15 @@
       <c r="BF3" s="41"/>
       <c r="BG3" s="41"/>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" ht="14.25">
       <c r="C4" s="44"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="44"/>
+      <c r="D4" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="87">
+        <f>AVERAGE(E6,E17,E22,E30)</f>
+        <v>3.888888888888889E-2</v>
+      </c>
       <c r="F4" s="44"/>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
@@ -5374,7 +5440,7 @@
       <c r="C5" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="74" t="s">
         <v>232</v>
       </c>
       <c r="E5" s="45" t="s">
@@ -5405,56 +5471,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:59" s="8" customFormat="1" ht="60">
-      <c r="A6" s="63">
+    <row r="6" spans="1:59" s="83" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="84"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87">
+        <f>AVERAGE($E$7:$E$16)</f>
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="F6" s="88"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+    </row>
+    <row r="7" spans="1:59" s="8" customFormat="1" ht="60">
+      <c r="A7" s="63">
         <f>ROW()-5</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="125" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C7" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="127" t="s">
-        <v>238</v>
-      </c>
-      <c r="E6" s="131">
+      <c r="D7" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="79">
         <v>0.1</v>
       </c>
-      <c r="F6" s="131" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-    </row>
-    <row r="7" spans="1:59" s="8" customFormat="1" ht="45">
-      <c r="A7" s="46">
-        <f t="shared" ref="A7:A32" si="0">ROW()-5</f>
-        <v>2</v>
-      </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="127" t="s">
-        <v>235</v>
-      </c>
-      <c r="E7" s="131">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>236</v>
-      </c>
+      <c r="F7" s="79"/>
       <c r="G7" s="47" t="s">
         <v>229</v>
       </c>
@@ -5467,23 +5519,23 @@
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
     </row>
-    <row r="8" spans="1:59" s="8" customFormat="1" ht="60">
-      <c r="A8" s="63">
-        <f t="shared" si="0"/>
+    <row r="8" spans="1:59" s="8" customFormat="1" ht="45">
+      <c r="A8" s="46">
+        <f t="shared" ref="A8:A36" si="0">ROW()-5</f>
         <v>3</v>
       </c>
-      <c r="B8" s="101"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="127" t="s">
-        <v>237</v>
-      </c>
-      <c r="E8" s="131">
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="75" t="s">
         <v>234</v>
+      </c>
+      <c r="E8" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>235</v>
       </c>
       <c r="G8" s="47" t="s">
         <v>229</v>
@@ -5497,48 +5549,52 @@
       <c r="L8" s="47"/>
       <c r="M8" s="47"/>
     </row>
-    <row r="9" spans="1:59" s="8" customFormat="1" ht="90">
+    <row r="9" spans="1:59" s="8" customFormat="1" ht="60">
       <c r="A9" s="63">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="101"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="127" t="s">
-        <v>239</v>
-      </c>
-      <c r="E9" s="131">
-        <v>1</v>
-      </c>
-      <c r="F9" s="53"/>
+        <v>130</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="79"/>
       <c r="G9" s="47" t="s">
         <v>229</v>
       </c>
       <c r="H9" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="I9" s="47"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="47"/>
       <c r="K9" s="47"/>
       <c r="L9" s="47"/>
       <c r="M9" s="47"/>
     </row>
-    <row r="10" spans="1:59" s="8" customFormat="1" ht="15" hidden="1">
-      <c r="A10" s="46">
+    <row r="10" spans="1:59" s="8" customFormat="1" ht="90">
+      <c r="A10" s="63">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="79">
+        <v>1</v>
+      </c>
+      <c r="F10" s="53"/>
       <c r="G10" s="47" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H10" s="47" t="s">
         <v>230</v>
@@ -5549,20 +5605,20 @@
       <c r="L10" s="47"/>
       <c r="M10" s="47"/>
     </row>
-    <row r="11" spans="1:59" s="8" customFormat="1" ht="15">
+    <row r="11" spans="1:59" s="8" customFormat="1" ht="15" hidden="1">
       <c r="A11" s="46">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="127"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H11" s="47" t="s">
         <v>230</v>
@@ -5573,17 +5629,19 @@
       <c r="L11" s="47"/>
       <c r="M11" s="47"/>
     </row>
-    <row r="12" spans="1:59" s="8" customFormat="1" ht="30">
+    <row r="12" spans="1:59" s="8" customFormat="1" ht="15">
       <c r="A12" s="46">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="101"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="127"/>
-      <c r="E12" s="53"/>
+        <v>167</v>
+      </c>
+      <c r="D12" s="75"/>
+      <c r="E12" s="79">
+        <v>0</v>
+      </c>
       <c r="F12" s="53"/>
       <c r="G12" s="47" t="s">
         <v>229</v>
@@ -5597,17 +5655,19 @@
       <c r="L12" s="47"/>
       <c r="M12" s="47"/>
     </row>
-    <row r="13" spans="1:59" s="8" customFormat="1" ht="45">
-      <c r="A13" s="63">
+    <row r="13" spans="1:59" s="8" customFormat="1" ht="30">
+      <c r="A13" s="46">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="101"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="127"/>
-      <c r="E13" s="53"/>
+        <v>168</v>
+      </c>
+      <c r="D13" s="75"/>
+      <c r="E13" s="79">
+        <v>0</v>
+      </c>
       <c r="F13" s="53"/>
       <c r="G13" s="47" t="s">
         <v>229</v>
@@ -5619,22 +5679,22 @@
       <c r="J13" s="47"/>
       <c r="K13" s="47"/>
       <c r="L13" s="47"/>
-      <c r="M13" s="53" t="s">
-        <v>171</v>
-      </c>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="1:59" s="8" customFormat="1" ht="45">
-      <c r="A14" s="46">
+      <c r="A14" s="63">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="128"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="75"/>
+      <c r="E14" s="79">
+        <v>0</v>
+      </c>
+      <c r="F14" s="53"/>
       <c r="G14" s="47" t="s">
         <v>229</v>
       </c>
@@ -5645,19 +5705,23 @@
       <c r="J14" s="47"/>
       <c r="K14" s="47"/>
       <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-    </row>
-    <row r="15" spans="1:59" s="8" customFormat="1" ht="15">
-      <c r="A15" s="63">
+      <c r="M14" s="53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" s="8" customFormat="1" ht="45">
+      <c r="A15" s="46">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="102"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="128"/>
-      <c r="E15" s="52"/>
+        <v>172</v>
+      </c>
+      <c r="D15" s="76"/>
+      <c r="E15" s="80">
+        <v>0</v>
+      </c>
       <c r="F15" s="52"/>
       <c r="G15" s="47" t="s">
         <v>229</v>
@@ -5671,19 +5735,19 @@
       <c r="L15" s="47"/>
       <c r="M15" s="47"/>
     </row>
-    <row r="16" spans="1:59" s="8" customFormat="1" ht="30">
+    <row r="16" spans="1:59" s="8" customFormat="1" ht="15">
       <c r="A16" s="63">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="106" t="s">
-        <v>175</v>
-      </c>
+      <c r="B16" s="127"/>
       <c r="C16" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="128"/>
-      <c r="E16" s="52"/>
+        <v>173</v>
+      </c>
+      <c r="D16" s="76"/>
+      <c r="E16" s="80">
+        <v>0</v>
+      </c>
       <c r="F16" s="52"/>
       <c r="G16" s="47" t="s">
         <v>229</v>
@@ -5697,43 +5761,39 @@
       <c r="L16" s="47"/>
       <c r="M16" s="47"/>
     </row>
-    <row r="17" spans="1:13" s="8" customFormat="1" ht="75">
-      <c r="A17" s="46">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="128"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="53" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="17" spans="1:13" s="83" customFormat="1" ht="15">
+      <c r="A17" s="89"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87">
+        <f>AVERAGE(E18:E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="81"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+    </row>
+    <row r="18" spans="1:13" s="8" customFormat="1" ht="30">
       <c r="A18" s="63">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="107"/>
+      <c r="B18" s="131" t="s">
+        <v>175</v>
+      </c>
       <c r="C18" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="52"/>
+        <v>176</v>
+      </c>
+      <c r="D18" s="76"/>
+      <c r="E18" s="80">
+        <v>0</v>
+      </c>
       <c r="F18" s="52"/>
       <c r="G18" s="47" t="s">
         <v>229</v>
@@ -5747,22 +5807,22 @@
       <c r="L18" s="47"/>
       <c r="M18" s="47"/>
     </row>
-    <row r="19" spans="1:13" s="8" customFormat="1" ht="15" hidden="1">
+    <row r="19" spans="1:13" s="8" customFormat="1" ht="75">
       <c r="A19" s="46">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="108" t="s">
-        <v>180</v>
-      </c>
+      <c r="B19" s="131"/>
       <c r="C19" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+        <v>177</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="80">
+        <v>0</v>
+      </c>
       <c r="F19" s="52"/>
       <c r="G19" s="47" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H19" s="47" t="s">
         <v>230</v>
@@ -5771,19 +5831,23 @@
       <c r="J19" s="47"/>
       <c r="K19" s="47"/>
       <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-    </row>
-    <row r="20" spans="1:13" s="8" customFormat="1" ht="30">
-      <c r="A20" s="46">
+      <c r="M19" s="53" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="8" customFormat="1" ht="15">
+      <c r="A20" s="63">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="108"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="128"/>
-      <c r="E20" s="52"/>
+        <v>178</v>
+      </c>
+      <c r="D20" s="76"/>
+      <c r="E20" s="80">
+        <v>0</v>
+      </c>
       <c r="F20" s="52"/>
       <c r="G20" s="47" t="s">
         <v>229</v>
@@ -5795,22 +5859,24 @@
       <c r="J20" s="47"/>
       <c r="K20" s="47"/>
       <c r="L20" s="47"/>
-      <c r="M20" s="53"/>
-    </row>
-    <row r="21" spans="1:13" s="8" customFormat="1" ht="30">
+      <c r="M20" s="47"/>
+    </row>
+    <row r="21" spans="1:13" s="8" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="46">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B21" s="108"/>
+      <c r="B21" s="90" t="s">
+        <v>180</v>
+      </c>
       <c r="C21" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="128"/>
+        <v>123</v>
+      </c>
+      <c r="D21" s="52"/>
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
       <c r="G21" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H21" s="47" t="s">
         <v>230</v>
@@ -5821,41 +5887,39 @@
       <c r="L21" s="47"/>
       <c r="M21" s="47"/>
     </row>
-    <row r="22" spans="1:13" s="8" customFormat="1" ht="30">
-      <c r="A22" s="46">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="128"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H22" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-    </row>
-    <row r="23" spans="1:13" s="8" customFormat="1" ht="31.5" customHeight="1">
+    <row r="22" spans="1:13" s="83" customFormat="1" ht="15">
+      <c r="A22" s="89"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87">
+        <f>AVERAGE(E23:E29)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+    </row>
+    <row r="23" spans="1:13" s="8" customFormat="1" ht="30">
       <c r="A23" s="46">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B23" s="108"/>
+      <c r="B23" s="133" t="s">
+        <v>180</v>
+      </c>
       <c r="C23" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="128"/>
-      <c r="E23" s="52"/>
+        <v>124</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="80">
+        <v>0</v>
+      </c>
       <c r="F23" s="52"/>
       <c r="G23" s="47" t="s">
         <v>229</v>
@@ -5867,19 +5931,21 @@
       <c r="J23" s="47"/>
       <c r="K23" s="47"/>
       <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-    </row>
-    <row r="24" spans="1:13" s="8" customFormat="1" ht="15">
-      <c r="A24" s="63">
+      <c r="M23" s="53"/>
+    </row>
+    <row r="24" spans="1:13" s="8" customFormat="1" ht="30">
+      <c r="A24" s="46">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B24" s="108"/>
+      <c r="B24" s="133"/>
       <c r="C24" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="52"/>
+        <v>115</v>
+      </c>
+      <c r="D24" s="76"/>
+      <c r="E24" s="80">
+        <v>0</v>
+      </c>
       <c r="F24" s="52"/>
       <c r="G24" s="47" t="s">
         <v>229</v>
@@ -5898,12 +5964,14 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B25" s="108"/>
+      <c r="B25" s="133"/>
       <c r="C25" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="52"/>
+        <v>127</v>
+      </c>
+      <c r="D25" s="76"/>
+      <c r="E25" s="80">
+        <v>0</v>
+      </c>
       <c r="F25" s="52"/>
       <c r="G25" s="47" t="s">
         <v>229</v>
@@ -5911,23 +5979,25 @@
       <c r="H25" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="I25" s="47"/>
+      <c r="I25" s="53"/>
       <c r="J25" s="47"/>
       <c r="K25" s="47"/>
       <c r="L25" s="47"/>
       <c r="M25" s="47"/>
     </row>
-    <row r="26" spans="1:13" s="8" customFormat="1" ht="30">
+    <row r="26" spans="1:13" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A26" s="46">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B26" s="109"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="52"/>
+        <v>116</v>
+      </c>
+      <c r="D26" s="76"/>
+      <c r="E26" s="80">
+        <v>0</v>
+      </c>
       <c r="F26" s="52"/>
       <c r="G26" s="47" t="s">
         <v>229</v>
@@ -5941,19 +6011,19 @@
       <c r="L26" s="47"/>
       <c r="M26" s="47"/>
     </row>
-    <row r="27" spans="1:13" s="8" customFormat="1" ht="60">
-      <c r="A27" s="46">
+    <row r="27" spans="1:13" s="8" customFormat="1" ht="15">
+      <c r="A27" s="63">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B27" s="103" t="s">
-        <v>31</v>
-      </c>
+      <c r="B27" s="133"/>
       <c r="C27" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="52"/>
+        <v>181</v>
+      </c>
+      <c r="D27" s="76"/>
+      <c r="E27" s="80">
+        <v>0</v>
+      </c>
       <c r="F27" s="52"/>
       <c r="G27" s="47" t="s">
         <v>229</v>
@@ -5972,12 +6042,14 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B28" s="104"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="52"/>
+        <v>142</v>
+      </c>
+      <c r="D28" s="76"/>
+      <c r="E28" s="80">
+        <v>0</v>
+      </c>
       <c r="F28" s="52"/>
       <c r="G28" s="47" t="s">
         <v>229</v>
@@ -5989,19 +6061,21 @@
       <c r="J28" s="47"/>
       <c r="K28" s="47"/>
       <c r="L28" s="47"/>
-      <c r="M28" s="53"/>
+      <c r="M28" s="47"/>
     </row>
     <row r="29" spans="1:13" s="8" customFormat="1" ht="30">
-      <c r="A29" s="63">
+      <c r="A29" s="46">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B29" s="104"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="52"/>
+        <v>182</v>
+      </c>
+      <c r="D29" s="76"/>
+      <c r="E29" s="80">
+        <v>0</v>
+      </c>
       <c r="F29" s="52"/>
       <c r="G29" s="47" t="s">
         <v>229</v>
@@ -6013,47 +6087,41 @@
       <c r="J29" s="47"/>
       <c r="K29" s="47"/>
       <c r="L29" s="47"/>
-      <c r="M29" s="62" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="8" customFormat="1" ht="30">
-      <c r="A30" s="46">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="61" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="8" customFormat="1" ht="45">
+      <c r="M29" s="47"/>
+    </row>
+    <row r="30" spans="1:13" s="83" customFormat="1" ht="15">
+      <c r="A30" s="89"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="87">
+        <f>AVERAGE(E31:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="81"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+    </row>
+    <row r="31" spans="1:13" s="8" customFormat="1" ht="60">
       <c r="A31" s="46">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B31" s="104"/>
+      <c r="B31" s="128" t="s">
+        <v>31</v>
+      </c>
       <c r="C31" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="128"/>
-      <c r="E31" s="52"/>
+        <v>183</v>
+      </c>
+      <c r="D31" s="76"/>
+      <c r="E31" s="80">
+        <v>0</v>
+      </c>
       <c r="F31" s="52"/>
       <c r="G31" s="47" t="s">
         <v>229</v>
@@ -6065,19 +6133,21 @@
       <c r="J31" s="47"/>
       <c r="K31" s="47"/>
       <c r="L31" s="47"/>
-      <c r="M31" s="62"/>
+      <c r="M31" s="47"/>
     </row>
     <row r="32" spans="1:13" s="8" customFormat="1" ht="30">
-      <c r="A32" s="63">
+      <c r="A32" s="46">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B32" s="105"/>
+      <c r="B32" s="129"/>
       <c r="C32" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="128"/>
-      <c r="E32" s="52"/>
+        <v>184</v>
+      </c>
+      <c r="D32" s="76"/>
+      <c r="E32" s="80">
+        <v>0</v>
+      </c>
       <c r="F32" s="52"/>
       <c r="G32" s="47" t="s">
         <v>229</v>
@@ -6089,389 +6159,497 @@
       <c r="J32" s="47"/>
       <c r="K32" s="47"/>
       <c r="L32" s="47"/>
-      <c r="M32" s="61"/>
-    </row>
-    <row r="33" spans="3:12" s="8" customFormat="1" hidden="1">
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="J33" s="49">
-        <f>SUM(J6:J32)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="49">
-        <f>SUM(K6:K32)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="49">
-        <f>SUM(L6:L32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" s="8" customFormat="1" hidden="1">
-      <c r="I34" s="50" t="s">
+      <c r="M32" s="53"/>
+    </row>
+    <row r="33" spans="1:13" s="8" customFormat="1" ht="30">
+      <c r="A33" s="63">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B33" s="129"/>
+      <c r="C33" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="76"/>
+      <c r="E33" s="80">
+        <v>0</v>
+      </c>
+      <c r="F33" s="52"/>
+      <c r="G33" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="H33" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="62" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="8" customFormat="1" ht="30">
+      <c r="A34" s="46">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B34" s="129"/>
+      <c r="C34" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="76"/>
+      <c r="E34" s="80">
+        <v>0</v>
+      </c>
+      <c r="F34" s="52"/>
+      <c r="G34" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="8" customFormat="1" ht="45">
+      <c r="A35" s="46">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B35" s="129"/>
+      <c r="C35" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="76"/>
+      <c r="E35" s="80">
+        <v>0</v>
+      </c>
+      <c r="F35" s="52"/>
+      <c r="G35" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="H35" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="62"/>
+    </row>
+    <row r="36" spans="1:13" s="8" customFormat="1" ht="30">
+      <c r="A36" s="63">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B36" s="130"/>
+      <c r="C36" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="76"/>
+      <c r="E36" s="80">
+        <v>0</v>
+      </c>
+      <c r="F36" s="52"/>
+      <c r="G36" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="H36" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="61"/>
+    </row>
+    <row r="37" spans="1:13" s="8" customFormat="1">
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="J37" s="49">
+        <f>SUM(J7:J36)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="49">
+        <f>SUM(K7:K36)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="49">
+        <f>SUM(L7:L36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="8" customFormat="1">
+      <c r="I38" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="J34" s="49">
-        <f>J33+K33+L33</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="49" t="s">
+      <c r="J38" s="49">
+        <f>J37+K37+L37</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="L34" s="49"/>
-    </row>
-    <row r="35" spans="3:12" s="8" customFormat="1" hidden="1">
-      <c r="J35" s="51">
-        <f>J34/8/20</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="49" t="s">
+      <c r="L38" s="49"/>
+    </row>
+    <row r="39" spans="1:13" s="8" customFormat="1">
+      <c r="J39" s="51">
+        <f>J38/8/20</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="L35" s="49"/>
-    </row>
-    <row r="36" spans="3:12" s="8" customFormat="1" hidden="1">
-      <c r="J36" s="8">
-        <f>J35/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:12" s="8" customFormat="1" hidden="1">
-      <c r="J37" s="8">
-        <f>J36*50%</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12" s="8" customFormat="1" hidden="1">
-      <c r="J38" s="8">
-        <f>J36+J37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12" s="8" customFormat="1">
-      <c r="D39" s="129"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-    </row>
-    <row r="40" spans="3:12" s="8" customFormat="1">
-      <c r="D40" s="129"/>
-    </row>
-    <row r="41" spans="3:12" s="8" customFormat="1">
-      <c r="D41" s="129"/>
-    </row>
-    <row r="42" spans="3:12" s="8" customFormat="1">
-      <c r="D42" s="129"/>
-    </row>
-    <row r="43" spans="3:12" s="8" customFormat="1">
-      <c r="D43" s="129"/>
-    </row>
-    <row r="44" spans="3:12" s="8" customFormat="1">
-      <c r="D44" s="129"/>
-    </row>
-    <row r="45" spans="3:12" s="8" customFormat="1">
-      <c r="D45" s="129"/>
-    </row>
-    <row r="46" spans="3:12" s="8" customFormat="1">
-      <c r="D46" s="129"/>
-    </row>
-    <row r="47" spans="3:12" s="8" customFormat="1">
-      <c r="D47" s="129"/>
-    </row>
-    <row r="48" spans="3:12" s="8" customFormat="1">
-      <c r="D48" s="129"/>
+      <c r="L39" s="49"/>
+    </row>
+    <row r="40" spans="1:13" s="8" customFormat="1">
+      <c r="J40" s="8">
+        <f>J39/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="8" customFormat="1">
+      <c r="J41" s="8">
+        <f>J40*50%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="8" customFormat="1">
+      <c r="J42" s="8">
+        <f>J40+J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="8" customFormat="1">
+      <c r="D43" s="77"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+    </row>
+    <row r="44" spans="1:13" s="8" customFormat="1">
+      <c r="D44" s="77"/>
+    </row>
+    <row r="45" spans="1:13" s="8" customFormat="1">
+      <c r="D45" s="77"/>
+    </row>
+    <row r="46" spans="1:13" s="8" customFormat="1">
+      <c r="D46" s="77"/>
+    </row>
+    <row r="47" spans="1:13" s="8" customFormat="1">
+      <c r="D47" s="77"/>
+    </row>
+    <row r="48" spans="1:13" s="8" customFormat="1">
+      <c r="D48" s="77"/>
     </row>
     <row r="49" spans="4:4" s="8" customFormat="1">
-      <c r="D49" s="129"/>
+      <c r="D49" s="77"/>
     </row>
     <row r="50" spans="4:4" s="8" customFormat="1">
-      <c r="D50" s="129"/>
+      <c r="D50" s="77"/>
     </row>
     <row r="51" spans="4:4" s="8" customFormat="1">
-      <c r="D51" s="129"/>
+      <c r="D51" s="77"/>
     </row>
     <row r="52" spans="4:4" s="8" customFormat="1">
-      <c r="D52" s="129"/>
+      <c r="D52" s="77"/>
     </row>
     <row r="53" spans="4:4" s="8" customFormat="1">
-      <c r="D53" s="129"/>
+      <c r="D53" s="77"/>
     </row>
     <row r="54" spans="4:4" s="8" customFormat="1">
-      <c r="D54" s="129"/>
+      <c r="D54" s="77"/>
     </row>
     <row r="55" spans="4:4" s="8" customFormat="1">
-      <c r="D55" s="129"/>
+      <c r="D55" s="77"/>
     </row>
     <row r="56" spans="4:4" s="8" customFormat="1">
-      <c r="D56" s="129"/>
+      <c r="D56" s="77"/>
     </row>
     <row r="57" spans="4:4" s="8" customFormat="1">
-      <c r="D57" s="129"/>
+      <c r="D57" s="77"/>
     </row>
     <row r="58" spans="4:4" s="8" customFormat="1">
-      <c r="D58" s="129"/>
+      <c r="D58" s="77"/>
     </row>
     <row r="59" spans="4:4" s="8" customFormat="1">
-      <c r="D59" s="129"/>
+      <c r="D59" s="77"/>
     </row>
     <row r="60" spans="4:4" s="8" customFormat="1">
-      <c r="D60" s="129"/>
+      <c r="D60" s="77"/>
     </row>
     <row r="61" spans="4:4" s="8" customFormat="1">
-      <c r="D61" s="129"/>
+      <c r="D61" s="77"/>
     </row>
     <row r="62" spans="4:4" s="8" customFormat="1">
-      <c r="D62" s="129"/>
+      <c r="D62" s="77"/>
     </row>
     <row r="63" spans="4:4" s="8" customFormat="1">
-      <c r="D63" s="129"/>
+      <c r="D63" s="77"/>
     </row>
     <row r="64" spans="4:4" s="8" customFormat="1">
-      <c r="D64" s="129"/>
+      <c r="D64" s="77"/>
     </row>
     <row r="65" spans="4:4" s="8" customFormat="1">
-      <c r="D65" s="129"/>
+      <c r="D65" s="77"/>
     </row>
     <row r="66" spans="4:4" s="8" customFormat="1">
-      <c r="D66" s="129"/>
+      <c r="D66" s="77"/>
     </row>
     <row r="67" spans="4:4" s="8" customFormat="1">
-      <c r="D67" s="129"/>
+      <c r="D67" s="77"/>
     </row>
     <row r="68" spans="4:4" s="8" customFormat="1">
-      <c r="D68" s="129"/>
+      <c r="D68" s="77"/>
     </row>
     <row r="69" spans="4:4" s="8" customFormat="1">
-      <c r="D69" s="129"/>
+      <c r="D69" s="77"/>
     </row>
     <row r="70" spans="4:4" s="8" customFormat="1">
-      <c r="D70" s="129"/>
+      <c r="D70" s="77"/>
     </row>
     <row r="71" spans="4:4" s="8" customFormat="1">
-      <c r="D71" s="129"/>
+      <c r="D71" s="77"/>
     </row>
     <row r="72" spans="4:4" s="8" customFormat="1">
-      <c r="D72" s="129"/>
+      <c r="D72" s="77"/>
     </row>
     <row r="73" spans="4:4" s="8" customFormat="1">
-      <c r="D73" s="129"/>
+      <c r="D73" s="77"/>
     </row>
     <row r="74" spans="4:4" s="8" customFormat="1">
-      <c r="D74" s="129"/>
+      <c r="D74" s="77"/>
     </row>
     <row r="75" spans="4:4" s="8" customFormat="1">
-      <c r="D75" s="129"/>
+      <c r="D75" s="77"/>
     </row>
     <row r="76" spans="4:4" s="8" customFormat="1">
-      <c r="D76" s="129"/>
+      <c r="D76" s="77"/>
     </row>
     <row r="77" spans="4:4" s="8" customFormat="1">
-      <c r="D77" s="129"/>
+      <c r="D77" s="77"/>
     </row>
     <row r="78" spans="4:4" s="8" customFormat="1">
-      <c r="D78" s="129"/>
+      <c r="D78" s="77"/>
     </row>
     <row r="79" spans="4:4" s="8" customFormat="1">
-      <c r="D79" s="129"/>
+      <c r="D79" s="77"/>
     </row>
     <row r="80" spans="4:4" s="8" customFormat="1">
-      <c r="D80" s="129"/>
+      <c r="D80" s="77"/>
     </row>
     <row r="81" spans="4:4" s="8" customFormat="1">
-      <c r="D81" s="129"/>
+      <c r="D81" s="77"/>
     </row>
     <row r="82" spans="4:4" s="8" customFormat="1">
-      <c r="D82" s="129"/>
+      <c r="D82" s="77"/>
     </row>
     <row r="83" spans="4:4" s="8" customFormat="1">
-      <c r="D83" s="129"/>
+      <c r="D83" s="77"/>
     </row>
     <row r="84" spans="4:4" s="8" customFormat="1">
-      <c r="D84" s="129"/>
+      <c r="D84" s="77"/>
     </row>
     <row r="85" spans="4:4" s="8" customFormat="1">
-      <c r="D85" s="129"/>
+      <c r="D85" s="77"/>
     </row>
     <row r="86" spans="4:4" s="8" customFormat="1">
-      <c r="D86" s="129"/>
+      <c r="D86" s="77"/>
     </row>
     <row r="87" spans="4:4" s="8" customFormat="1">
-      <c r="D87" s="129"/>
+      <c r="D87" s="77"/>
     </row>
     <row r="88" spans="4:4" s="8" customFormat="1">
-      <c r="D88" s="129"/>
+      <c r="D88" s="77"/>
     </row>
     <row r="89" spans="4:4" s="8" customFormat="1">
-      <c r="D89" s="129"/>
+      <c r="D89" s="77"/>
     </row>
     <row r="90" spans="4:4" s="8" customFormat="1">
-      <c r="D90" s="129"/>
+      <c r="D90" s="77"/>
     </row>
     <row r="91" spans="4:4" s="8" customFormat="1">
-      <c r="D91" s="129"/>
+      <c r="D91" s="77"/>
     </row>
     <row r="92" spans="4:4" s="8" customFormat="1">
-      <c r="D92" s="129"/>
+      <c r="D92" s="77"/>
     </row>
     <row r="93" spans="4:4" s="8" customFormat="1">
-      <c r="D93" s="129"/>
+      <c r="D93" s="77"/>
     </row>
     <row r="94" spans="4:4" s="8" customFormat="1">
-      <c r="D94" s="129"/>
+      <c r="D94" s="77"/>
     </row>
     <row r="95" spans="4:4" s="8" customFormat="1">
-      <c r="D95" s="129"/>
+      <c r="D95" s="77"/>
     </row>
     <row r="96" spans="4:4" s="8" customFormat="1">
-      <c r="D96" s="129"/>
+      <c r="D96" s="77"/>
     </row>
     <row r="97" spans="4:4" s="8" customFormat="1">
-      <c r="D97" s="129"/>
+      <c r="D97" s="77"/>
     </row>
     <row r="98" spans="4:4" s="8" customFormat="1">
-      <c r="D98" s="129"/>
+      <c r="D98" s="77"/>
     </row>
     <row r="99" spans="4:4" s="8" customFormat="1">
-      <c r="D99" s="129"/>
+      <c r="D99" s="77"/>
     </row>
     <row r="100" spans="4:4" s="8" customFormat="1">
-      <c r="D100" s="129"/>
+      <c r="D100" s="77"/>
     </row>
     <row r="101" spans="4:4" s="8" customFormat="1">
-      <c r="D101" s="129"/>
+      <c r="D101" s="77"/>
     </row>
     <row r="102" spans="4:4" s="8" customFormat="1">
-      <c r="D102" s="129"/>
+      <c r="D102" s="77"/>
     </row>
     <row r="103" spans="4:4" s="8" customFormat="1">
-      <c r="D103" s="129"/>
+      <c r="D103" s="77"/>
     </row>
     <row r="104" spans="4:4" s="8" customFormat="1">
-      <c r="D104" s="129"/>
+      <c r="D104" s="77"/>
     </row>
     <row r="105" spans="4:4" s="8" customFormat="1">
-      <c r="D105" s="129"/>
+      <c r="D105" s="77"/>
     </row>
     <row r="106" spans="4:4" s="8" customFormat="1">
-      <c r="D106" s="129"/>
+      <c r="D106" s="77"/>
     </row>
     <row r="107" spans="4:4" s="8" customFormat="1">
-      <c r="D107" s="129"/>
+      <c r="D107" s="77"/>
     </row>
     <row r="108" spans="4:4" s="8" customFormat="1">
-      <c r="D108" s="129"/>
+      <c r="D108" s="77"/>
     </row>
     <row r="109" spans="4:4" s="8" customFormat="1">
-      <c r="D109" s="129"/>
+      <c r="D109" s="77"/>
     </row>
     <row r="110" spans="4:4" s="8" customFormat="1">
-      <c r="D110" s="129"/>
+      <c r="D110" s="77"/>
     </row>
     <row r="111" spans="4:4" s="8" customFormat="1">
-      <c r="D111" s="129"/>
+      <c r="D111" s="77"/>
     </row>
     <row r="112" spans="4:4" s="8" customFormat="1">
-      <c r="D112" s="129"/>
+      <c r="D112" s="77"/>
     </row>
     <row r="113" spans="4:4" s="8" customFormat="1">
-      <c r="D113" s="129"/>
+      <c r="D113" s="77"/>
     </row>
     <row r="114" spans="4:4" s="8" customFormat="1">
-      <c r="D114" s="129"/>
+      <c r="D114" s="77"/>
     </row>
     <row r="115" spans="4:4" s="8" customFormat="1">
-      <c r="D115" s="129"/>
+      <c r="D115" s="77"/>
     </row>
     <row r="116" spans="4:4" s="8" customFormat="1">
-      <c r="D116" s="129"/>
+      <c r="D116" s="77"/>
     </row>
     <row r="117" spans="4:4" s="8" customFormat="1">
-      <c r="D117" s="129"/>
+      <c r="D117" s="77"/>
     </row>
     <row r="118" spans="4:4" s="8" customFormat="1">
-      <c r="D118" s="129"/>
+      <c r="D118" s="77"/>
     </row>
     <row r="119" spans="4:4" s="8" customFormat="1">
-      <c r="D119" s="129"/>
+      <c r="D119" s="77"/>
     </row>
     <row r="120" spans="4:4" s="8" customFormat="1">
-      <c r="D120" s="129"/>
+      <c r="D120" s="77"/>
     </row>
     <row r="121" spans="4:4" s="8" customFormat="1">
-      <c r="D121" s="129"/>
+      <c r="D121" s="77"/>
     </row>
     <row r="122" spans="4:4" s="8" customFormat="1">
-      <c r="D122" s="129"/>
+      <c r="D122" s="77"/>
     </row>
     <row r="123" spans="4:4" s="8" customFormat="1">
-      <c r="D123" s="129"/>
+      <c r="D123" s="77"/>
     </row>
     <row r="124" spans="4:4" s="8" customFormat="1">
-      <c r="D124" s="129"/>
+      <c r="D124" s="77"/>
     </row>
     <row r="125" spans="4:4" s="8" customFormat="1">
-      <c r="D125" s="129"/>
+      <c r="D125" s="77"/>
     </row>
     <row r="126" spans="4:4" s="8" customFormat="1">
-      <c r="D126" s="129"/>
+      <c r="D126" s="77"/>
     </row>
     <row r="127" spans="4:4" s="8" customFormat="1">
-      <c r="D127" s="129"/>
+      <c r="D127" s="77"/>
     </row>
     <row r="128" spans="4:4" s="8" customFormat="1">
-      <c r="D128" s="129"/>
+      <c r="D128" s="77"/>
     </row>
     <row r="129" spans="4:4" s="8" customFormat="1">
-      <c r="D129" s="129"/>
+      <c r="D129" s="77"/>
     </row>
     <row r="130" spans="4:4" s="8" customFormat="1">
-      <c r="D130" s="129"/>
+      <c r="D130" s="77"/>
     </row>
     <row r="131" spans="4:4" s="8" customFormat="1">
-      <c r="D131" s="129"/>
+      <c r="D131" s="77"/>
     </row>
     <row r="132" spans="4:4" s="8" customFormat="1">
-      <c r="D132" s="129"/>
+      <c r="D132" s="77"/>
     </row>
     <row r="133" spans="4:4" s="8" customFormat="1">
-      <c r="D133" s="129"/>
+      <c r="D133" s="77"/>
     </row>
     <row r="134" spans="4:4" s="8" customFormat="1">
-      <c r="D134" s="129"/>
+      <c r="D134" s="77"/>
     </row>
     <row r="135" spans="4:4" s="8" customFormat="1">
-      <c r="D135" s="129"/>
+      <c r="D135" s="77"/>
     </row>
     <row r="136" spans="4:4" s="8" customFormat="1">
-      <c r="D136" s="129"/>
+      <c r="D136" s="77"/>
     </row>
     <row r="137" spans="4:4" s="8" customFormat="1">
-      <c r="D137" s="129"/>
+      <c r="D137" s="77"/>
     </row>
     <row r="138" spans="4:4" s="8" customFormat="1">
-      <c r="D138" s="129"/>
+      <c r="D138" s="77"/>
     </row>
     <row r="139" spans="4:4" s="8" customFormat="1">
-      <c r="D139" s="129"/>
+      <c r="D139" s="77"/>
     </row>
     <row r="140" spans="4:4" s="8" customFormat="1">
-      <c r="D140" s="129"/>
+      <c r="D140" s="77"/>
     </row>
     <row r="141" spans="4:4" s="8" customFormat="1">
-      <c r="D141" s="129"/>
+      <c r="D141" s="77"/>
     </row>
     <row r="142" spans="4:4" s="8" customFormat="1">
-      <c r="D142" s="129"/>
+      <c r="D142" s="77"/>
     </row>
     <row r="143" spans="4:4" s="8" customFormat="1">
-      <c r="D143" s="129"/>
+      <c r="D143" s="77"/>
     </row>
     <row r="144" spans="4:4" s="8" customFormat="1">
-      <c r="D144" s="129"/>
+      <c r="D144" s="77"/>
+    </row>
+    <row r="145" spans="4:4" s="8" customFormat="1">
+      <c r="D145" s="77"/>
+    </row>
+    <row r="146" spans="4:4" s="8" customFormat="1">
+      <c r="D146" s="77"/>
+    </row>
+    <row r="147" spans="4:4" s="8" customFormat="1">
+      <c r="D147" s="77"/>
+    </row>
+    <row r="148" spans="4:4" s="8" customFormat="1">
+      <c r="D148" s="77"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:M38">
+  <autoFilter ref="A5:M42">
     <filterColumn colId="6">
       <filters>
         <filter val="Tấn Đạt"/>
@@ -6481,14 +6659,14 @@
   <mergeCells count="6">
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="G1:K3"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B23:B29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M30" location="'Báo cáo chiến dịch'!A1" display="Báo cáo chiến dịch"/>
-    <hyperlink ref="M29" location="'So sánh cơ hội nhiều kỳ'!A1" display="'So sánh cơ hội nhiều kỳ'!A1"/>
+    <hyperlink ref="M34" location="'Báo cáo chiến dịch'!A1" display="Báo cáo chiến dịch"/>
+    <hyperlink ref="M33" location="'So sánh cơ hội nhiều kỳ'!A1" display="'So sánh cơ hội nhiều kỳ'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="22" orientation="portrait" r:id="rId1"/>
@@ -6753,31 +6931,31 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="55" customFormat="1" ht="14.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="137" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
     </row>
     <row r="5" spans="1:15" s="55" customFormat="1" ht="14.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="111"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="56" t="s">
         <v>191</v>
       </c>
@@ -7177,41 +7355,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="138" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="139" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
     </row>
     <row r="4" spans="1:7" s="55" customFormat="1" ht="14.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="137" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
     </row>
     <row r="5" spans="1:7" s="55" customFormat="1" ht="14.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="111"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="56" t="s">
         <v>213</v>
       </c>
@@ -7448,16 +7626,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="138" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
     </row>
     <row r="2" spans="1:9">
       <c r="D2" s="54" t="s">
@@ -7468,31 +7646,31 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="135" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="140" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116" t="s">
+      <c r="D4" s="141"/>
+      <c r="E4" s="141" t="s">
         <v>222</v>
       </c>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116" t="s">
+      <c r="F4" s="141"/>
+      <c r="G4" s="141" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="116"/>
-      <c r="I4" s="117" t="s">
+      <c r="H4" s="141"/>
+      <c r="I4" s="142" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="55" customFormat="1" ht="14.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="111"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="56" t="s">
         <v>224</v>
       </c>
@@ -7511,7 +7689,7 @@
       <c r="H5" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="I5" s="118"/>
+      <c r="I5" s="143"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="60">

--- a/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
+++ b/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
@@ -24,7 +24,7 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TaskList!$A$5:$M$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TaskList!$A$5:$N$38</definedName>
     <definedName name="CNT" localSheetId="1">#REF!</definedName>
     <definedName name="CNT">#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">#REF!</definedName>
@@ -52,7 +52,7 @@
     <definedName name="NOTNULL" localSheetId="1">#REF!</definedName>
     <definedName name="NOTNULL">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Mô tả'!$A$1:$J$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">TaskList!$A$1:$M$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">TaskList!$A$1:$N$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Trợ giúp'!$A$1:$H$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Yêu cầu'!$A$1:$O$55</definedName>
     <definedName name="RB" localSheetId="1">#REF!</definedName>
@@ -156,7 +156,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>admin:</t>
         </r>
@@ -165,7 +165,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Bước trong tài liệu khảo sát</t>
@@ -190,7 +190,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>admin:</t>
         </r>
@@ -199,7 +199,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Bước trong tài liệu khảo sát</t>
@@ -216,7 +216,7 @@
     <author>Lê Phát Danh</author>
   </authors>
   <commentList>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0">
+    <comment ref="C15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0">
+    <comment ref="C23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="241">
   <si>
     <t>STT</t>
   </si>
@@ -1090,11 +1090,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t xml:space="preserve">- Mới thêm Layout và Item.
-- Tài liệu liên quan:
-CRMF2082_Xem chi tiết yêu cầu.                                                                                                                                                                                                                                                                </t>
-  </si>
-  <si>
     <t>Vẫn đang làm tiếp tục</t>
   </si>
   <si>
@@ -1103,16 +1098,27 @@
 CRMF0011_Thiết lập mã phân tích dự án                                                                                                                                                                                                                                                                CRMF0011_Thiết lập mã phân tích</t>
   </si>
   <si>
+    <t>Bước tương ứng bên file Yêu cầu</t>
+  </si>
+  <si>
+    <t>4;5;9;10</t>
+  </si>
+  <si>
+    <t>- Đã làm hoàn chỉnh
+- Tài liệu liên quan:
+CRMF2082_Xem chi tiết yêu cầu.[Version 5]                                                                                                                                                                                                                                                           CRMF2080_Danh mục yêu cầu [Version 3]
+CRMF2081_Cập nhật yêu cầu [Version 4]
+Folder Script DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Mới thêm Layout và Item.
+- Tài liệu liên quan:
+CRMF2082_Xem chi tiết yêu cầu. [Version 6]                                                                                                                                                                                                                                                           </t>
+  </si>
+  <si>
     <t>- Mới thêm Layout và Item.
 - Tài liệu liên quan:
-CRMF2082_Xem chi tiết yêu cầu.                                                                                                                                                                                                                                                                CRMF2080_Danh mục yêu cầu</t>
-  </si>
-  <si>
-    <t>- Đã làm hoàn chỉnh
-- Tài liệu liên quan:
-CRMF2082_Xem chi tiết yêu cầu.                                                                                                                                                                                                                                                                CRMF2080_Danh mục yêu cầu
-CRMF2081_Cập nhật yêu cầu
-Folder Script DB</t>
+CRMF2082_Xem chi tiết yêu cầu.</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1129,7 @@
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1218,14 +1224,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1306,40 +1312,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1394,14 +1374,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1569,17 +1543,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1598,7 +1561,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1701,7 +1664,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1725,8 +1687,8 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1784,37 +1746,17 @@
     <xf numFmtId="9" fontId="18" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1828,6 +1770,48 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1848,48 +1832,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2766,7 +2708,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3151,15 +3093,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25">
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="2:8" ht="14.25">
       <c r="B2" s="15"/>
@@ -3356,10 +3298,10 @@
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75">
-      <c r="E26" s="94" t="s">
+      <c r="E26" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="94" t="s">
+      <c r="F26" s="85" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="13" t="s">
@@ -3370,16 +3312,16 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75">
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
       <c r="G27" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="2:8" ht="15.75">
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
       <c r="G28" s="13" t="s">
         <v>28</v>
       </c>
@@ -3444,8 +3386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -3464,23 +3406,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="93"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1">
       <c r="A2" s="23" t="s">
@@ -3571,7 +3513,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="105" t="s">
+      <c r="G4" s="89" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="27"/>
@@ -3593,13 +3535,13 @@
       <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="65" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="114"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="27"/>
       <c r="I5" s="32" t="s">
         <v>130</v>
@@ -3619,13 +3561,13 @@
       <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="65" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="105" t="s">
+      <c r="G6" s="89" t="s">
         <v>110</v>
       </c>
       <c r="H6" s="27"/>
@@ -3647,13 +3589,13 @@
       <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="65" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="113"/>
+      <c r="G7" s="97"/>
       <c r="H7" s="27"/>
       <c r="I7" s="32" t="s">
         <v>128</v>
@@ -3679,7 +3621,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="113"/>
+      <c r="G8" s="97"/>
       <c r="H8" s="27"/>
       <c r="I8" s="32" t="s">
         <v>128</v>
@@ -3699,13 +3641,13 @@
       <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="65" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="113"/>
+      <c r="G9" s="97"/>
       <c r="H9" s="27"/>
       <c r="I9" s="32" t="s">
         <v>128</v>
@@ -3731,7 +3673,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="113"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="27"/>
       <c r="I10" s="32" t="s">
         <v>131</v>
@@ -3751,13 +3693,13 @@
       <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="66" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="113"/>
+      <c r="G11" s="97"/>
       <c r="H11" s="27"/>
       <c r="I11" s="32" t="s">
         <v>128</v>
@@ -3777,13 +3719,13 @@
       <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="66" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="113"/>
+      <c r="G12" s="97"/>
       <c r="H12" s="27"/>
       <c r="I12" s="32" t="s">
         <v>128</v>
@@ -3809,7 +3751,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="113"/>
+      <c r="G13" s="97"/>
       <c r="H13" s="27"/>
       <c r="I13" s="32" t="s">
         <v>128</v>
@@ -3835,7 +3777,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="113"/>
+      <c r="G14" s="97"/>
       <c r="H14" s="27"/>
       <c r="I14" s="32" t="s">
         <v>128</v>
@@ -3861,7 +3803,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="114"/>
+      <c r="G15" s="98"/>
       <c r="H15" s="27"/>
       <c r="I15" s="32" t="s">
         <v>132</v>
@@ -3887,7 +3829,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="105" t="s">
+      <c r="G16" s="89" t="s">
         <v>119</v>
       </c>
       <c r="H16" s="27"/>
@@ -3915,7 +3857,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="113"/>
+      <c r="G17" s="97"/>
       <c r="H17" s="27"/>
       <c r="I17" s="32" t="s">
         <v>134</v>
@@ -3941,7 +3883,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="114"/>
+      <c r="G18" s="98"/>
       <c r="H18" s="27"/>
       <c r="I18" s="32" t="s">
         <v>135</v>
@@ -3967,7 +3909,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="110" t="s">
+      <c r="G19" s="94" t="s">
         <v>111</v>
       </c>
       <c r="H19" s="27"/>
@@ -3995,7 +3937,7 @@
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="111"/>
+      <c r="G20" s="95"/>
       <c r="H20" s="27"/>
       <c r="I20" s="32" t="s">
         <v>128</v>
@@ -4021,7 +3963,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="111"/>
+      <c r="G21" s="95"/>
       <c r="H21" s="27"/>
       <c r="I21" s="32" t="s">
         <v>136</v>
@@ -4047,7 +3989,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="112"/>
+      <c r="G22" s="96"/>
       <c r="H22" s="27"/>
       <c r="I22" s="32" t="s">
         <v>137</v>
@@ -4073,11 +4015,11 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="115" t="s">
+      <c r="G23" s="99" t="s">
         <v>72</v>
       </c>
       <c r="H23" s="27"/>
-      <c r="I23" s="117" t="s">
+      <c r="I23" s="101" t="s">
         <v>128</v>
       </c>
       <c r="J23" s="27"/>
@@ -4101,9 +4043,9 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="116"/>
+      <c r="G24" s="100"/>
       <c r="H24" s="27"/>
-      <c r="I24" s="107"/>
+      <c r="I24" s="91"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -4181,7 +4123,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="110" t="s">
+      <c r="G27" s="94" t="s">
         <v>121</v>
       </c>
       <c r="H27" s="27"/>
@@ -4209,7 +4151,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="111"/>
+      <c r="G28" s="95"/>
       <c r="H28" s="27"/>
       <c r="I28" s="32" t="s">
         <v>128</v>
@@ -4235,7 +4177,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="112"/>
+      <c r="G29" s="96"/>
       <c r="H29" s="27"/>
       <c r="I29" s="32" t="s">
         <v>128</v>
@@ -4317,7 +4259,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="104" t="s">
+      <c r="G32" s="88" t="s">
         <v>88</v>
       </c>
       <c r="H32" s="27"/>
@@ -4345,7 +4287,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="104"/>
+      <c r="G33" s="88"/>
       <c r="H33" s="27"/>
       <c r="I33" s="32" t="s">
         <v>128</v>
@@ -4539,7 +4481,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="105" t="s">
+      <c r="G40" s="89" t="s">
         <v>97</v>
       </c>
       <c r="H40" s="27"/>
@@ -4567,7 +4509,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="106"/>
+      <c r="G41" s="90"/>
       <c r="H41" s="27"/>
       <c r="I41" s="32" t="s">
         <v>142</v>
@@ -4593,7 +4535,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="107"/>
+      <c r="G42" s="91"/>
       <c r="H42" s="27"/>
       <c r="I42" s="32" t="s">
         <v>128</v>
@@ -4619,7 +4561,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="97" t="s">
+      <c r="G43" s="102" t="s">
         <v>111</v>
       </c>
       <c r="H43" s="27"/>
@@ -4647,7 +4589,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="98"/>
+      <c r="G44" s="103"/>
       <c r="H44" s="27"/>
       <c r="I44" s="32" t="s">
         <v>143</v>
@@ -4673,7 +4615,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="98"/>
+      <c r="G45" s="103"/>
       <c r="H45" s="27"/>
       <c r="I45" s="32" t="s">
         <v>144</v>
@@ -4699,7 +4641,7 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="99"/>
+      <c r="G46" s="104"/>
       <c r="H46" s="27"/>
       <c r="I46" s="32" t="s">
         <v>145</v>
@@ -4725,7 +4667,7 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="100" t="s">
+      <c r="G47" s="105" t="s">
         <v>125</v>
       </c>
       <c r="H47" s="27"/>
@@ -4753,7 +4695,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="100"/>
+      <c r="G48" s="105"/>
       <c r="H48" s="27"/>
       <c r="I48" s="32" t="s">
         <v>146</v>
@@ -4779,7 +4721,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="100" t="s">
+      <c r="G49" s="105" t="s">
         <v>125</v>
       </c>
       <c r="H49" s="27"/>
@@ -4807,7 +4749,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="100"/>
+      <c r="G50" s="105"/>
       <c r="H50" s="27"/>
       <c r="I50" s="32" t="s">
         <v>146</v>
@@ -4833,7 +4775,7 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="101" t="s">
+      <c r="G51" s="106" t="s">
         <v>126</v>
       </c>
       <c r="H51" s="27"/>
@@ -4861,7 +4803,7 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="102"/>
+      <c r="G52" s="107"/>
       <c r="H52" s="27"/>
       <c r="I52" s="32" t="s">
         <v>147</v>
@@ -4887,7 +4829,7 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="103" t="s">
+      <c r="G53" s="108" t="s">
         <v>72</v>
       </c>
       <c r="H53" s="27"/>
@@ -4915,7 +4857,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="102"/>
+      <c r="G54" s="107"/>
       <c r="H54" s="27"/>
       <c r="I54" s="32" t="s">
         <v>148</v>
@@ -4949,6 +4891,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G40:G42"/>
     <mergeCell ref="A1:O1"/>
@@ -4959,11 +4906,6 @@
     <mergeCell ref="G6:G15"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
   </mergeCells>
   <conditionalFormatting sqref="C10">
     <cfRule type="expression" dxfId="49" priority="95" stopIfTrue="1">
@@ -5192,13 +5134,13 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:BG148"/>
+  <dimension ref="A1:BH144"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5206,40 +5148,41 @@
     <col min="1" max="1" width="5.140625" style="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="43" customWidth="1"/>
     <col min="3" max="3" width="42.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="78" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" style="43" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="43" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="43" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="43" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="23" style="43" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="43" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="43" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="28" style="43" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" style="8" customWidth="1"/>
-    <col min="15" max="59" width="9.140625" style="8"/>
-    <col min="60" max="16384" width="9.140625" style="43"/>
+    <col min="4" max="4" width="17.140625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="77" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="43" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="43" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="43" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="23" style="43" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="43" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="43" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="28" style="43" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="8" customWidth="1"/>
+    <col min="16" max="60" width="9.140625" style="8"/>
+    <col min="61" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="118"/>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="40" t="s">
+    <row r="1" spans="1:60" s="42" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="109"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="N1" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="N1" s="41"/>
       <c r="O1" s="41"/>
       <c r="P1" s="41"/>
       <c r="Q1" s="41"/>
@@ -5285,24 +5228,25 @@
       <c r="BE1" s="41"/>
       <c r="BF1" s="41"/>
       <c r="BG1" s="41"/>
-    </row>
-    <row r="2" spans="1:59" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="40" t="s">
+      <c r="BH1" s="41"/>
+    </row>
+    <row r="2" spans="1:60" s="42" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="N2" s="40"/>
       <c r="O2" s="41"/>
       <c r="P2" s="41"/>
       <c r="Q2" s="41"/>
@@ -5348,24 +5292,25 @@
       <c r="BE2" s="41"/>
       <c r="BF2" s="41"/>
       <c r="BG2" s="41"/>
-    </row>
-    <row r="3" spans="1:59" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="118"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="40" t="s">
+      <c r="BH2" s="41"/>
+    </row>
+    <row r="3" spans="1:60" s="42" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
+      <c r="N3" s="40"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -5411,1246 +5356,1252 @@
       <c r="BE3" s="41"/>
       <c r="BF3" s="41"/>
       <c r="BG3" s="41"/>
-    </row>
-    <row r="4" spans="1:59" ht="14.25">
-      <c r="C4" s="44"/>
-      <c r="D4" s="86" t="s">
+      <c r="BH3" s="41"/>
+    </row>
+    <row r="4" spans="1:60" s="42" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
+    </row>
+    <row r="5" spans="1:60" ht="52.5" customHeight="1">
+      <c r="A5" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="N5" s="44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" s="8" customFormat="1" ht="45">
+      <c r="A6" s="62">
+        <f>ROW()-5</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="116" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="74" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="78"/>
+      <c r="H6" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J6" s="63"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+    </row>
+    <row r="7" spans="1:60" s="8" customFormat="1" ht="60">
+      <c r="A7" s="45">
+        <f t="shared" ref="A7:A32" si="0">ROW()-5</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="117"/>
+      <c r="C7" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J7" s="63"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+    </row>
+    <row r="8" spans="1:60" s="8" customFormat="1" ht="60">
+      <c r="A8" s="62">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="117"/>
+      <c r="C8" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="78"/>
+      <c r="H8" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J8" s="63"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+    </row>
+    <row r="9" spans="1:60" s="8" customFormat="1" ht="90">
+      <c r="A9" s="62">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="117"/>
+      <c r="C9" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="78">
+        <v>1</v>
+      </c>
+      <c r="G9" s="52"/>
+      <c r="H9" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="1:60" s="8" customFormat="1" ht="15" hidden="1">
+      <c r="A10" s="45">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="117"/>
+      <c r="C10" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+    </row>
+    <row r="11" spans="1:60" s="8" customFormat="1" ht="15">
+      <c r="A11" s="45">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="117"/>
+      <c r="C11" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="52"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="78">
+        <v>0</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="H11" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+    </row>
+    <row r="12" spans="1:60" s="8" customFormat="1" ht="30">
+      <c r="A12" s="45">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="117"/>
+      <c r="C12" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="52"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="78">
+        <v>0</v>
+      </c>
+      <c r="G12" s="52"/>
+      <c r="H12" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+    </row>
+    <row r="13" spans="1:60" s="8" customFormat="1" ht="45">
+      <c r="A13" s="62">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="117"/>
+      <c r="C13" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="78">
+        <v>0</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" s="8" customFormat="1" ht="45">
+      <c r="A14" s="45">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="117"/>
+      <c r="C14" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="79">
+        <v>0</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+    </row>
+    <row r="15" spans="1:60" s="8" customFormat="1" ht="15">
+      <c r="A15" s="62">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="118"/>
+      <c r="C15" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="79">
+        <v>0</v>
+      </c>
+      <c r="G15" s="51"/>
+      <c r="H15" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+    </row>
+    <row r="16" spans="1:60" s="8" customFormat="1" ht="30">
+      <c r="A16" s="62">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="122" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="79">
+        <v>0</v>
+      </c>
+      <c r="G16" s="51"/>
+      <c r="H16" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+    </row>
+    <row r="17" spans="1:14" s="8" customFormat="1" ht="75">
+      <c r="A17" s="45">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="122"/>
+      <c r="C17" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="79">
+        <v>0</v>
+      </c>
+      <c r="G17" s="51"/>
+      <c r="H17" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="52" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="8" customFormat="1" ht="15">
+      <c r="A18" s="62">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="123"/>
+      <c r="C18" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="79">
+        <v>0</v>
+      </c>
+      <c r="G18" s="51"/>
+      <c r="H18" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+    </row>
+    <row r="19" spans="1:14" s="8" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A19" s="45">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+    </row>
+    <row r="20" spans="1:14" s="8" customFormat="1" ht="30">
+      <c r="A20" s="45">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="51"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="79">
+        <v>0</v>
+      </c>
+      <c r="G20" s="51"/>
+      <c r="H20" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="52"/>
+    </row>
+    <row r="21" spans="1:14" s="8" customFormat="1" ht="30">
+      <c r="A21" s="45">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B21" s="124"/>
+      <c r="C21" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="79">
+        <v>0</v>
+      </c>
+      <c r="G21" s="51"/>
+      <c r="H21" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+    </row>
+    <row r="22" spans="1:14" s="8" customFormat="1" ht="30">
+      <c r="A22" s="45">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B22" s="124"/>
+      <c r="C22" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="51"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="79">
+        <v>0</v>
+      </c>
+      <c r="G22" s="51"/>
+      <c r="H22" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J22" s="52"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+    </row>
+    <row r="23" spans="1:14" s="8" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A23" s="45">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B23" s="124"/>
+      <c r="C23" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="51"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="79">
+        <v>0</v>
+      </c>
+      <c r="G23" s="51"/>
+      <c r="H23" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+    </row>
+    <row r="24" spans="1:14" s="8" customFormat="1" ht="15">
+      <c r="A24" s="62">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="124"/>
+      <c r="C24" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="79">
+        <v>0</v>
+      </c>
+      <c r="G24" s="51"/>
+      <c r="H24" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+    </row>
+    <row r="25" spans="1:14" s="8" customFormat="1" ht="30">
+      <c r="A25" s="45">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B25" s="124"/>
+      <c r="C25" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="51"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="79">
+        <v>0</v>
+      </c>
+      <c r="G25" s="51"/>
+      <c r="H25" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+    </row>
+    <row r="26" spans="1:14" s="8" customFormat="1" ht="30">
+      <c r="A26" s="45">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B26" s="125"/>
+      <c r="C26" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="79">
+        <v>0</v>
+      </c>
+      <c r="G26" s="51"/>
+      <c r="H26" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+    </row>
+    <row r="27" spans="1:14" s="8" customFormat="1" ht="60">
+      <c r="A27" s="45">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B27" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="51"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="79">
+        <v>0</v>
+      </c>
+      <c r="G27" s="51"/>
+      <c r="H27" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+    </row>
+    <row r="28" spans="1:14" s="8" customFormat="1" ht="30">
+      <c r="A28" s="45">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B28" s="120"/>
+      <c r="C28" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="51"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="79">
+        <v>0</v>
+      </c>
+      <c r="G28" s="51"/>
+      <c r="H28" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="52"/>
+    </row>
+    <row r="29" spans="1:14" s="8" customFormat="1" ht="30">
+      <c r="A29" s="62">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B29" s="120"/>
+      <c r="C29" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="79">
+        <v>0</v>
+      </c>
+      <c r="G29" s="51"/>
+      <c r="H29" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="8" customFormat="1" ht="30">
+      <c r="A30" s="45">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B30" s="120"/>
+      <c r="C30" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="51"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="79">
+        <v>0</v>
+      </c>
+      <c r="G30" s="51"/>
+      <c r="H30" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I30" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="60" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="8" customFormat="1" ht="45">
+      <c r="A31" s="45">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B31" s="120"/>
+      <c r="C31" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="79">
+        <v>0</v>
+      </c>
+      <c r="G31" s="51"/>
+      <c r="H31" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="61"/>
+    </row>
+    <row r="32" spans="1:14" s="8" customFormat="1" ht="30">
+      <c r="A32" s="62">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B32" s="121"/>
+      <c r="C32" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="51"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="79">
+        <v>0</v>
+      </c>
+      <c r="G32" s="51"/>
+      <c r="H32" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="60"/>
+    </row>
+    <row r="33" spans="3:13" s="8" customFormat="1">
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="K33" s="48">
+        <f>SUM(K6:K32)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="48">
+        <f>SUM(L6:L32)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="48">
+        <f>SUM(M6:M32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" s="8" customFormat="1">
+      <c r="J34" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="87">
-        <f>AVERAGE(E6,E17,E22,E30)</f>
-        <v>3.888888888888889E-2</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-    </row>
-    <row r="5" spans="1:59" ht="52.5" customHeight="1">
-      <c r="A5" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>232</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="J5" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="K5" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="M5" s="45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59" s="83" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87">
-        <f>AVERAGE($E$7:$E$16)</f>
-        <v>0.15555555555555556</v>
-      </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-    </row>
-    <row r="7" spans="1:59" s="8" customFormat="1" ht="60">
-      <c r="A7" s="63">
-        <f>ROW()-5</f>
-        <v>2</v>
-      </c>
-      <c r="B7" s="125" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>237</v>
-      </c>
-      <c r="E7" s="79">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-    </row>
-    <row r="8" spans="1:59" s="8" customFormat="1" ht="45">
-      <c r="A8" s="46">
-        <f t="shared" ref="A8:A36" si="0">ROW()-5</f>
-        <v>3</v>
-      </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="79">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-    </row>
-    <row r="9" spans="1:59" s="8" customFormat="1" ht="60">
-      <c r="A9" s="63">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="75" t="s">
-        <v>236</v>
-      </c>
-      <c r="E9" s="79">
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-    </row>
-    <row r="10" spans="1:59" s="8" customFormat="1" ht="90">
-      <c r="A10" s="63">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="75" t="s">
-        <v>238</v>
-      </c>
-      <c r="E10" s="79">
-        <v>1</v>
-      </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-    </row>
-    <row r="11" spans="1:59" s="8" customFormat="1" ht="15" hidden="1">
-      <c r="A11" s="46">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-    </row>
-    <row r="12" spans="1:59" s="8" customFormat="1" ht="15">
-      <c r="A12" s="46">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="79">
-        <v>0</v>
-      </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-    </row>
-    <row r="13" spans="1:59" s="8" customFormat="1" ht="30">
-      <c r="A13" s="46">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="79">
-        <v>0</v>
-      </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-    </row>
-    <row r="14" spans="1:59" s="8" customFormat="1" ht="45">
-      <c r="A14" s="63">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="79">
-        <v>0</v>
-      </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="53" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59" s="8" customFormat="1" ht="45">
-      <c r="A15" s="46">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="76"/>
-      <c r="E15" s="80">
-        <v>0</v>
-      </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-    </row>
-    <row r="16" spans="1:59" s="8" customFormat="1" ht="15">
-      <c r="A16" s="63">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="80">
-        <v>0</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-    </row>
-    <row r="17" spans="1:13" s="83" customFormat="1" ht="15">
-      <c r="A17" s="89"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87">
-        <f>AVERAGE(E18:E20)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="81"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-    </row>
-    <row r="18" spans="1:13" s="8" customFormat="1" ht="30">
-      <c r="A18" s="63">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B18" s="131" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="80">
-        <v>0</v>
-      </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-    </row>
-    <row r="19" spans="1:13" s="8" customFormat="1" ht="75">
-      <c r="A19" s="46">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="80">
-        <v>0</v>
-      </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="53" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="8" customFormat="1" ht="15">
-      <c r="A20" s="63">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="80">
-        <v>0</v>
-      </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-    </row>
-    <row r="21" spans="1:13" s="8" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A21" s="46">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B21" s="90" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-    </row>
-    <row r="22" spans="1:13" s="83" customFormat="1" ht="15">
-      <c r="A22" s="89"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87">
-        <f>AVERAGE(E23:E29)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-    </row>
-    <row r="23" spans="1:13" s="8" customFormat="1" ht="30">
-      <c r="A23" s="46">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B23" s="133" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="80">
-        <v>0</v>
-      </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H23" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="53"/>
-    </row>
-    <row r="24" spans="1:13" s="8" customFormat="1" ht="30">
-      <c r="A24" s="46">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B24" s="133"/>
-      <c r="C24" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="80">
-        <v>0</v>
-      </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H24" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-    </row>
-    <row r="25" spans="1:13" s="8" customFormat="1" ht="30">
-      <c r="A25" s="46">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B25" s="133"/>
-      <c r="C25" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="80">
-        <v>0</v>
-      </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H25" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I25" s="53"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-    </row>
-    <row r="26" spans="1:13" s="8" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A26" s="46">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B26" s="133"/>
-      <c r="C26" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="80">
-        <v>0</v>
-      </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H26" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-    </row>
-    <row r="27" spans="1:13" s="8" customFormat="1" ht="15">
-      <c r="A27" s="63">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B27" s="133"/>
-      <c r="C27" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="76"/>
-      <c r="E27" s="80">
-        <v>0</v>
-      </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H27" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-    </row>
-    <row r="28" spans="1:13" s="8" customFormat="1" ht="30">
-      <c r="A28" s="46">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B28" s="133"/>
-      <c r="C28" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="80">
-        <v>0</v>
-      </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-    </row>
-    <row r="29" spans="1:13" s="8" customFormat="1" ht="30">
-      <c r="A29" s="46">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B29" s="134"/>
-      <c r="C29" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="80">
-        <v>0</v>
-      </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-    </row>
-    <row r="30" spans="1:13" s="83" customFormat="1" ht="15">
-      <c r="A30" s="89"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87">
-        <f>AVERAGE(E31:E36)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="81"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-    </row>
-    <row r="31" spans="1:13" s="8" customFormat="1" ht="60">
-      <c r="A31" s="46">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B31" s="128" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="76"/>
-      <c r="E31" s="80">
-        <v>0</v>
-      </c>
-      <c r="F31" s="52"/>
-      <c r="G31" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H31" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-    </row>
-    <row r="32" spans="1:13" s="8" customFormat="1" ht="30">
-      <c r="A32" s="46">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B32" s="129"/>
-      <c r="C32" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="80">
-        <v>0</v>
-      </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H32" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="53"/>
-    </row>
-    <row r="33" spans="1:13" s="8" customFormat="1" ht="30">
-      <c r="A33" s="63">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B33" s="129"/>
-      <c r="C33" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="80">
-        <v>0</v>
-      </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H33" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="62" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="8" customFormat="1" ht="30">
-      <c r="A34" s="46">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B34" s="129"/>
-      <c r="C34" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="80">
-        <v>0</v>
-      </c>
-      <c r="F34" s="52"/>
-      <c r="G34" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H34" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="61" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="8" customFormat="1" ht="45">
-      <c r="A35" s="46">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B35" s="129"/>
-      <c r="C35" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="76"/>
-      <c r="E35" s="80">
-        <v>0</v>
-      </c>
-      <c r="F35" s="52"/>
-      <c r="G35" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H35" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="62"/>
-    </row>
-    <row r="36" spans="1:13" s="8" customFormat="1" ht="30">
-      <c r="A36" s="63">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B36" s="130"/>
-      <c r="C36" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="76"/>
-      <c r="E36" s="80">
-        <v>0</v>
-      </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H36" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="61"/>
-    </row>
-    <row r="37" spans="1:13" s="8" customFormat="1">
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="J37" s="49">
-        <f>SUM(J7:J36)</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="49">
-        <f>SUM(K7:K36)</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="49">
-        <f>SUM(L7:L36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="8" customFormat="1">
-      <c r="I38" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="J38" s="49">
-        <f>J37+K37+L37</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="49" t="s">
+      <c r="K34" s="48">
+        <f>K33+L33+M33</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="L38" s="49"/>
-    </row>
-    <row r="39" spans="1:13" s="8" customFormat="1">
-      <c r="J39" s="51">
-        <f>J38/8/20</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="49" t="s">
+      <c r="M34" s="48"/>
+    </row>
+    <row r="35" spans="3:13" s="8" customFormat="1">
+      <c r="K35" s="50">
+        <f>K34/8/20</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="L39" s="49"/>
-    </row>
-    <row r="40" spans="1:13" s="8" customFormat="1">
-      <c r="J40" s="8">
-        <f>J39/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="8" customFormat="1">
-      <c r="J41" s="8">
-        <f>J40*50%</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="8" customFormat="1">
-      <c r="J42" s="8">
-        <f>J40+J41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="8" customFormat="1">
-      <c r="D43" s="77"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-    </row>
-    <row r="44" spans="1:13" s="8" customFormat="1">
-      <c r="D44" s="77"/>
-    </row>
-    <row r="45" spans="1:13" s="8" customFormat="1">
-      <c r="D45" s="77"/>
-    </row>
-    <row r="46" spans="1:13" s="8" customFormat="1">
-      <c r="D46" s="77"/>
-    </row>
-    <row r="47" spans="1:13" s="8" customFormat="1">
-      <c r="D47" s="77"/>
-    </row>
-    <row r="48" spans="1:13" s="8" customFormat="1">
-      <c r="D48" s="77"/>
-    </row>
-    <row r="49" spans="4:4" s="8" customFormat="1">
-      <c r="D49" s="77"/>
-    </row>
-    <row r="50" spans="4:4" s="8" customFormat="1">
-      <c r="D50" s="77"/>
-    </row>
-    <row r="51" spans="4:4" s="8" customFormat="1">
-      <c r="D51" s="77"/>
-    </row>
-    <row r="52" spans="4:4" s="8" customFormat="1">
-      <c r="D52" s="77"/>
-    </row>
-    <row r="53" spans="4:4" s="8" customFormat="1">
-      <c r="D53" s="77"/>
-    </row>
-    <row r="54" spans="4:4" s="8" customFormat="1">
-      <c r="D54" s="77"/>
-    </row>
-    <row r="55" spans="4:4" s="8" customFormat="1">
-      <c r="D55" s="77"/>
-    </row>
-    <row r="56" spans="4:4" s="8" customFormat="1">
-      <c r="D56" s="77"/>
-    </row>
-    <row r="57" spans="4:4" s="8" customFormat="1">
-      <c r="D57" s="77"/>
-    </row>
-    <row r="58" spans="4:4" s="8" customFormat="1">
-      <c r="D58" s="77"/>
-    </row>
-    <row r="59" spans="4:4" s="8" customFormat="1">
-      <c r="D59" s="77"/>
-    </row>
-    <row r="60" spans="4:4" s="8" customFormat="1">
-      <c r="D60" s="77"/>
-    </row>
-    <row r="61" spans="4:4" s="8" customFormat="1">
-      <c r="D61" s="77"/>
-    </row>
-    <row r="62" spans="4:4" s="8" customFormat="1">
-      <c r="D62" s="77"/>
-    </row>
-    <row r="63" spans="4:4" s="8" customFormat="1">
-      <c r="D63" s="77"/>
-    </row>
-    <row r="64" spans="4:4" s="8" customFormat="1">
-      <c r="D64" s="77"/>
-    </row>
-    <row r="65" spans="4:4" s="8" customFormat="1">
-      <c r="D65" s="77"/>
-    </row>
-    <row r="66" spans="4:4" s="8" customFormat="1">
-      <c r="D66" s="77"/>
-    </row>
-    <row r="67" spans="4:4" s="8" customFormat="1">
-      <c r="D67" s="77"/>
-    </row>
-    <row r="68" spans="4:4" s="8" customFormat="1">
-      <c r="D68" s="77"/>
-    </row>
-    <row r="69" spans="4:4" s="8" customFormat="1">
-      <c r="D69" s="77"/>
-    </row>
-    <row r="70" spans="4:4" s="8" customFormat="1">
-      <c r="D70" s="77"/>
-    </row>
-    <row r="71" spans="4:4" s="8" customFormat="1">
-      <c r="D71" s="77"/>
-    </row>
-    <row r="72" spans="4:4" s="8" customFormat="1">
-      <c r="D72" s="77"/>
-    </row>
-    <row r="73" spans="4:4" s="8" customFormat="1">
-      <c r="D73" s="77"/>
-    </row>
-    <row r="74" spans="4:4" s="8" customFormat="1">
-      <c r="D74" s="77"/>
-    </row>
-    <row r="75" spans="4:4" s="8" customFormat="1">
-      <c r="D75" s="77"/>
-    </row>
-    <row r="76" spans="4:4" s="8" customFormat="1">
-      <c r="D76" s="77"/>
-    </row>
-    <row r="77" spans="4:4" s="8" customFormat="1">
-      <c r="D77" s="77"/>
-    </row>
-    <row r="78" spans="4:4" s="8" customFormat="1">
-      <c r="D78" s="77"/>
-    </row>
-    <row r="79" spans="4:4" s="8" customFormat="1">
-      <c r="D79" s="77"/>
-    </row>
-    <row r="80" spans="4:4" s="8" customFormat="1">
-      <c r="D80" s="77"/>
-    </row>
-    <row r="81" spans="4:4" s="8" customFormat="1">
-      <c r="D81" s="77"/>
-    </row>
-    <row r="82" spans="4:4" s="8" customFormat="1">
-      <c r="D82" s="77"/>
-    </row>
-    <row r="83" spans="4:4" s="8" customFormat="1">
-      <c r="D83" s="77"/>
-    </row>
-    <row r="84" spans="4:4" s="8" customFormat="1">
-      <c r="D84" s="77"/>
-    </row>
-    <row r="85" spans="4:4" s="8" customFormat="1">
-      <c r="D85" s="77"/>
-    </row>
-    <row r="86" spans="4:4" s="8" customFormat="1">
-      <c r="D86" s="77"/>
-    </row>
-    <row r="87" spans="4:4" s="8" customFormat="1">
-      <c r="D87" s="77"/>
-    </row>
-    <row r="88" spans="4:4" s="8" customFormat="1">
-      <c r="D88" s="77"/>
-    </row>
-    <row r="89" spans="4:4" s="8" customFormat="1">
-      <c r="D89" s="77"/>
-    </row>
-    <row r="90" spans="4:4" s="8" customFormat="1">
-      <c r="D90" s="77"/>
-    </row>
-    <row r="91" spans="4:4" s="8" customFormat="1">
-      <c r="D91" s="77"/>
-    </row>
-    <row r="92" spans="4:4" s="8" customFormat="1">
-      <c r="D92" s="77"/>
-    </row>
-    <row r="93" spans="4:4" s="8" customFormat="1">
-      <c r="D93" s="77"/>
-    </row>
-    <row r="94" spans="4:4" s="8" customFormat="1">
-      <c r="D94" s="77"/>
-    </row>
-    <row r="95" spans="4:4" s="8" customFormat="1">
-      <c r="D95" s="77"/>
-    </row>
-    <row r="96" spans="4:4" s="8" customFormat="1">
-      <c r="D96" s="77"/>
-    </row>
-    <row r="97" spans="4:4" s="8" customFormat="1">
-      <c r="D97" s="77"/>
-    </row>
-    <row r="98" spans="4:4" s="8" customFormat="1">
-      <c r="D98" s="77"/>
-    </row>
-    <row r="99" spans="4:4" s="8" customFormat="1">
-      <c r="D99" s="77"/>
-    </row>
-    <row r="100" spans="4:4" s="8" customFormat="1">
-      <c r="D100" s="77"/>
-    </row>
-    <row r="101" spans="4:4" s="8" customFormat="1">
-      <c r="D101" s="77"/>
-    </row>
-    <row r="102" spans="4:4" s="8" customFormat="1">
-      <c r="D102" s="77"/>
-    </row>
-    <row r="103" spans="4:4" s="8" customFormat="1">
-      <c r="D103" s="77"/>
-    </row>
-    <row r="104" spans="4:4" s="8" customFormat="1">
-      <c r="D104" s="77"/>
-    </row>
-    <row r="105" spans="4:4" s="8" customFormat="1">
-      <c r="D105" s="77"/>
-    </row>
-    <row r="106" spans="4:4" s="8" customFormat="1">
-      <c r="D106" s="77"/>
-    </row>
-    <row r="107" spans="4:4" s="8" customFormat="1">
-      <c r="D107" s="77"/>
-    </row>
-    <row r="108" spans="4:4" s="8" customFormat="1">
-      <c r="D108" s="77"/>
-    </row>
-    <row r="109" spans="4:4" s="8" customFormat="1">
-      <c r="D109" s="77"/>
-    </row>
-    <row r="110" spans="4:4" s="8" customFormat="1">
-      <c r="D110" s="77"/>
-    </row>
-    <row r="111" spans="4:4" s="8" customFormat="1">
-      <c r="D111" s="77"/>
-    </row>
-    <row r="112" spans="4:4" s="8" customFormat="1">
-      <c r="D112" s="77"/>
-    </row>
-    <row r="113" spans="4:4" s="8" customFormat="1">
-      <c r="D113" s="77"/>
-    </row>
-    <row r="114" spans="4:4" s="8" customFormat="1">
-      <c r="D114" s="77"/>
-    </row>
-    <row r="115" spans="4:4" s="8" customFormat="1">
-      <c r="D115" s="77"/>
-    </row>
-    <row r="116" spans="4:4" s="8" customFormat="1">
-      <c r="D116" s="77"/>
-    </row>
-    <row r="117" spans="4:4" s="8" customFormat="1">
-      <c r="D117" s="77"/>
-    </row>
-    <row r="118" spans="4:4" s="8" customFormat="1">
-      <c r="D118" s="77"/>
-    </row>
-    <row r="119" spans="4:4" s="8" customFormat="1">
-      <c r="D119" s="77"/>
-    </row>
-    <row r="120" spans="4:4" s="8" customFormat="1">
-      <c r="D120" s="77"/>
-    </row>
-    <row r="121" spans="4:4" s="8" customFormat="1">
-      <c r="D121" s="77"/>
-    </row>
-    <row r="122" spans="4:4" s="8" customFormat="1">
-      <c r="D122" s="77"/>
-    </row>
-    <row r="123" spans="4:4" s="8" customFormat="1">
-      <c r="D123" s="77"/>
-    </row>
-    <row r="124" spans="4:4" s="8" customFormat="1">
-      <c r="D124" s="77"/>
-    </row>
-    <row r="125" spans="4:4" s="8" customFormat="1">
-      <c r="D125" s="77"/>
-    </row>
-    <row r="126" spans="4:4" s="8" customFormat="1">
-      <c r="D126" s="77"/>
-    </row>
-    <row r="127" spans="4:4" s="8" customFormat="1">
-      <c r="D127" s="77"/>
-    </row>
-    <row r="128" spans="4:4" s="8" customFormat="1">
-      <c r="D128" s="77"/>
-    </row>
-    <row r="129" spans="4:4" s="8" customFormat="1">
-      <c r="D129" s="77"/>
-    </row>
-    <row r="130" spans="4:4" s="8" customFormat="1">
-      <c r="D130" s="77"/>
-    </row>
-    <row r="131" spans="4:4" s="8" customFormat="1">
-      <c r="D131" s="77"/>
-    </row>
-    <row r="132" spans="4:4" s="8" customFormat="1">
-      <c r="D132" s="77"/>
-    </row>
-    <row r="133" spans="4:4" s="8" customFormat="1">
-      <c r="D133" s="77"/>
-    </row>
-    <row r="134" spans="4:4" s="8" customFormat="1">
-      <c r="D134" s="77"/>
-    </row>
-    <row r="135" spans="4:4" s="8" customFormat="1">
-      <c r="D135" s="77"/>
-    </row>
-    <row r="136" spans="4:4" s="8" customFormat="1">
-      <c r="D136" s="77"/>
-    </row>
-    <row r="137" spans="4:4" s="8" customFormat="1">
-      <c r="D137" s="77"/>
-    </row>
-    <row r="138" spans="4:4" s="8" customFormat="1">
-      <c r="D138" s="77"/>
-    </row>
-    <row r="139" spans="4:4" s="8" customFormat="1">
-      <c r="D139" s="77"/>
-    </row>
-    <row r="140" spans="4:4" s="8" customFormat="1">
-      <c r="D140" s="77"/>
-    </row>
-    <row r="141" spans="4:4" s="8" customFormat="1">
-      <c r="D141" s="77"/>
-    </row>
-    <row r="142" spans="4:4" s="8" customFormat="1">
-      <c r="D142" s="77"/>
-    </row>
-    <row r="143" spans="4:4" s="8" customFormat="1">
-      <c r="D143" s="77"/>
-    </row>
-    <row r="144" spans="4:4" s="8" customFormat="1">
-      <c r="D144" s="77"/>
-    </row>
-    <row r="145" spans="4:4" s="8" customFormat="1">
-      <c r="D145" s="77"/>
-    </row>
-    <row r="146" spans="4:4" s="8" customFormat="1">
-      <c r="D146" s="77"/>
-    </row>
-    <row r="147" spans="4:4" s="8" customFormat="1">
-      <c r="D147" s="77"/>
-    </row>
-    <row r="148" spans="4:4" s="8" customFormat="1">
-      <c r="D148" s="77"/>
+      <c r="M35" s="48"/>
+    </row>
+    <row r="36" spans="3:13" s="8" customFormat="1">
+      <c r="K36" s="8">
+        <f>K35/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" s="8" customFormat="1">
+      <c r="K37" s="8">
+        <f>K36*50%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" s="8" customFormat="1">
+      <c r="K38" s="8">
+        <f>K36+K37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" s="8" customFormat="1">
+      <c r="E39" s="76"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+    </row>
+    <row r="40" spans="3:13" s="8" customFormat="1">
+      <c r="E40" s="76"/>
+    </row>
+    <row r="41" spans="3:13" s="8" customFormat="1">
+      <c r="E41" s="76"/>
+    </row>
+    <row r="42" spans="3:13" s="8" customFormat="1">
+      <c r="E42" s="76"/>
+    </row>
+    <row r="43" spans="3:13" s="8" customFormat="1">
+      <c r="E43" s="76"/>
+    </row>
+    <row r="44" spans="3:13" s="8" customFormat="1">
+      <c r="E44" s="76"/>
+    </row>
+    <row r="45" spans="3:13" s="8" customFormat="1">
+      <c r="E45" s="76"/>
+    </row>
+    <row r="46" spans="3:13" s="8" customFormat="1">
+      <c r="E46" s="76"/>
+    </row>
+    <row r="47" spans="3:13" s="8" customFormat="1">
+      <c r="E47" s="76"/>
+    </row>
+    <row r="48" spans="3:13" s="8" customFormat="1">
+      <c r="E48" s="76"/>
+    </row>
+    <row r="49" spans="5:5" s="8" customFormat="1">
+      <c r="E49" s="76"/>
+    </row>
+    <row r="50" spans="5:5" s="8" customFormat="1">
+      <c r="E50" s="76"/>
+    </row>
+    <row r="51" spans="5:5" s="8" customFormat="1">
+      <c r="E51" s="76"/>
+    </row>
+    <row r="52" spans="5:5" s="8" customFormat="1">
+      <c r="E52" s="76"/>
+    </row>
+    <row r="53" spans="5:5" s="8" customFormat="1">
+      <c r="E53" s="76"/>
+    </row>
+    <row r="54" spans="5:5" s="8" customFormat="1">
+      <c r="E54" s="76"/>
+    </row>
+    <row r="55" spans="5:5" s="8" customFormat="1">
+      <c r="E55" s="76"/>
+    </row>
+    <row r="56" spans="5:5" s="8" customFormat="1">
+      <c r="E56" s="76"/>
+    </row>
+    <row r="57" spans="5:5" s="8" customFormat="1">
+      <c r="E57" s="76"/>
+    </row>
+    <row r="58" spans="5:5" s="8" customFormat="1">
+      <c r="E58" s="76"/>
+    </row>
+    <row r="59" spans="5:5" s="8" customFormat="1">
+      <c r="E59" s="76"/>
+    </row>
+    <row r="60" spans="5:5" s="8" customFormat="1">
+      <c r="E60" s="76"/>
+    </row>
+    <row r="61" spans="5:5" s="8" customFormat="1">
+      <c r="E61" s="76"/>
+    </row>
+    <row r="62" spans="5:5" s="8" customFormat="1">
+      <c r="E62" s="76"/>
+    </row>
+    <row r="63" spans="5:5" s="8" customFormat="1">
+      <c r="E63" s="76"/>
+    </row>
+    <row r="64" spans="5:5" s="8" customFormat="1">
+      <c r="E64" s="76"/>
+    </row>
+    <row r="65" spans="5:5" s="8" customFormat="1">
+      <c r="E65" s="76"/>
+    </row>
+    <row r="66" spans="5:5" s="8" customFormat="1">
+      <c r="E66" s="76"/>
+    </row>
+    <row r="67" spans="5:5" s="8" customFormat="1">
+      <c r="E67" s="76"/>
+    </row>
+    <row r="68" spans="5:5" s="8" customFormat="1">
+      <c r="E68" s="76"/>
+    </row>
+    <row r="69" spans="5:5" s="8" customFormat="1">
+      <c r="E69" s="76"/>
+    </row>
+    <row r="70" spans="5:5" s="8" customFormat="1">
+      <c r="E70" s="76"/>
+    </row>
+    <row r="71" spans="5:5" s="8" customFormat="1">
+      <c r="E71" s="76"/>
+    </row>
+    <row r="72" spans="5:5" s="8" customFormat="1">
+      <c r="E72" s="76"/>
+    </row>
+    <row r="73" spans="5:5" s="8" customFormat="1">
+      <c r="E73" s="76"/>
+    </row>
+    <row r="74" spans="5:5" s="8" customFormat="1">
+      <c r="E74" s="76"/>
+    </row>
+    <row r="75" spans="5:5" s="8" customFormat="1">
+      <c r="E75" s="76"/>
+    </row>
+    <row r="76" spans="5:5" s="8" customFormat="1">
+      <c r="E76" s="76"/>
+    </row>
+    <row r="77" spans="5:5" s="8" customFormat="1">
+      <c r="E77" s="76"/>
+    </row>
+    <row r="78" spans="5:5" s="8" customFormat="1">
+      <c r="E78" s="76"/>
+    </row>
+    <row r="79" spans="5:5" s="8" customFormat="1">
+      <c r="E79" s="76"/>
+    </row>
+    <row r="80" spans="5:5" s="8" customFormat="1">
+      <c r="E80" s="76"/>
+    </row>
+    <row r="81" spans="5:5" s="8" customFormat="1">
+      <c r="E81" s="76"/>
+    </row>
+    <row r="82" spans="5:5" s="8" customFormat="1">
+      <c r="E82" s="76"/>
+    </row>
+    <row r="83" spans="5:5" s="8" customFormat="1">
+      <c r="E83" s="76"/>
+    </row>
+    <row r="84" spans="5:5" s="8" customFormat="1">
+      <c r="E84" s="76"/>
+    </row>
+    <row r="85" spans="5:5" s="8" customFormat="1">
+      <c r="E85" s="76"/>
+    </row>
+    <row r="86" spans="5:5" s="8" customFormat="1">
+      <c r="E86" s="76"/>
+    </row>
+    <row r="87" spans="5:5" s="8" customFormat="1">
+      <c r="E87" s="76"/>
+    </row>
+    <row r="88" spans="5:5" s="8" customFormat="1">
+      <c r="E88" s="76"/>
+    </row>
+    <row r="89" spans="5:5" s="8" customFormat="1">
+      <c r="E89" s="76"/>
+    </row>
+    <row r="90" spans="5:5" s="8" customFormat="1">
+      <c r="E90" s="76"/>
+    </row>
+    <row r="91" spans="5:5" s="8" customFormat="1">
+      <c r="E91" s="76"/>
+    </row>
+    <row r="92" spans="5:5" s="8" customFormat="1">
+      <c r="E92" s="76"/>
+    </row>
+    <row r="93" spans="5:5" s="8" customFormat="1">
+      <c r="E93" s="76"/>
+    </row>
+    <row r="94" spans="5:5" s="8" customFormat="1">
+      <c r="E94" s="76"/>
+    </row>
+    <row r="95" spans="5:5" s="8" customFormat="1">
+      <c r="E95" s="76"/>
+    </row>
+    <row r="96" spans="5:5" s="8" customFormat="1">
+      <c r="E96" s="76"/>
+    </row>
+    <row r="97" spans="5:5" s="8" customFormat="1">
+      <c r="E97" s="76"/>
+    </row>
+    <row r="98" spans="5:5" s="8" customFormat="1">
+      <c r="E98" s="76"/>
+    </row>
+    <row r="99" spans="5:5" s="8" customFormat="1">
+      <c r="E99" s="76"/>
+    </row>
+    <row r="100" spans="5:5" s="8" customFormat="1">
+      <c r="E100" s="76"/>
+    </row>
+    <row r="101" spans="5:5" s="8" customFormat="1">
+      <c r="E101" s="76"/>
+    </row>
+    <row r="102" spans="5:5" s="8" customFormat="1">
+      <c r="E102" s="76"/>
+    </row>
+    <row r="103" spans="5:5" s="8" customFormat="1">
+      <c r="E103" s="76"/>
+    </row>
+    <row r="104" spans="5:5" s="8" customFormat="1">
+      <c r="E104" s="76"/>
+    </row>
+    <row r="105" spans="5:5" s="8" customFormat="1">
+      <c r="E105" s="76"/>
+    </row>
+    <row r="106" spans="5:5" s="8" customFormat="1">
+      <c r="E106" s="76"/>
+    </row>
+    <row r="107" spans="5:5" s="8" customFormat="1">
+      <c r="E107" s="76"/>
+    </row>
+    <row r="108" spans="5:5" s="8" customFormat="1">
+      <c r="E108" s="76"/>
+    </row>
+    <row r="109" spans="5:5" s="8" customFormat="1">
+      <c r="E109" s="76"/>
+    </row>
+    <row r="110" spans="5:5" s="8" customFormat="1">
+      <c r="E110" s="76"/>
+    </row>
+    <row r="111" spans="5:5" s="8" customFormat="1">
+      <c r="E111" s="76"/>
+    </row>
+    <row r="112" spans="5:5" s="8" customFormat="1">
+      <c r="E112" s="76"/>
+    </row>
+    <row r="113" spans="5:5" s="8" customFormat="1">
+      <c r="E113" s="76"/>
+    </row>
+    <row r="114" spans="5:5" s="8" customFormat="1">
+      <c r="E114" s="76"/>
+    </row>
+    <row r="115" spans="5:5" s="8" customFormat="1">
+      <c r="E115" s="76"/>
+    </row>
+    <row r="116" spans="5:5" s="8" customFormat="1">
+      <c r="E116" s="76"/>
+    </row>
+    <row r="117" spans="5:5" s="8" customFormat="1">
+      <c r="E117" s="76"/>
+    </row>
+    <row r="118" spans="5:5" s="8" customFormat="1">
+      <c r="E118" s="76"/>
+    </row>
+    <row r="119" spans="5:5" s="8" customFormat="1">
+      <c r="E119" s="76"/>
+    </row>
+    <row r="120" spans="5:5" s="8" customFormat="1">
+      <c r="E120" s="76"/>
+    </row>
+    <row r="121" spans="5:5" s="8" customFormat="1">
+      <c r="E121" s="76"/>
+    </row>
+    <row r="122" spans="5:5" s="8" customFormat="1">
+      <c r="E122" s="76"/>
+    </row>
+    <row r="123" spans="5:5" s="8" customFormat="1">
+      <c r="E123" s="76"/>
+    </row>
+    <row r="124" spans="5:5" s="8" customFormat="1">
+      <c r="E124" s="76"/>
+    </row>
+    <row r="125" spans="5:5" s="8" customFormat="1">
+      <c r="E125" s="76"/>
+    </row>
+    <row r="126" spans="5:5" s="8" customFormat="1">
+      <c r="E126" s="76"/>
+    </row>
+    <row r="127" spans="5:5" s="8" customFormat="1">
+      <c r="E127" s="76"/>
+    </row>
+    <row r="128" spans="5:5" s="8" customFormat="1">
+      <c r="E128" s="76"/>
+    </row>
+    <row r="129" spans="5:5" s="8" customFormat="1">
+      <c r="E129" s="76"/>
+    </row>
+    <row r="130" spans="5:5" s="8" customFormat="1">
+      <c r="E130" s="76"/>
+    </row>
+    <row r="131" spans="5:5" s="8" customFormat="1">
+      <c r="E131" s="76"/>
+    </row>
+    <row r="132" spans="5:5" s="8" customFormat="1">
+      <c r="E132" s="76"/>
+    </row>
+    <row r="133" spans="5:5" s="8" customFormat="1">
+      <c r="E133" s="76"/>
+    </row>
+    <row r="134" spans="5:5" s="8" customFormat="1">
+      <c r="E134" s="76"/>
+    </row>
+    <row r="135" spans="5:5" s="8" customFormat="1">
+      <c r="E135" s="76"/>
+    </row>
+    <row r="136" spans="5:5" s="8" customFormat="1">
+      <c r="E136" s="76"/>
+    </row>
+    <row r="137" spans="5:5" s="8" customFormat="1">
+      <c r="E137" s="76"/>
+    </row>
+    <row r="138" spans="5:5" s="8" customFormat="1">
+      <c r="E138" s="76"/>
+    </row>
+    <row r="139" spans="5:5" s="8" customFormat="1">
+      <c r="E139" s="76"/>
+    </row>
+    <row r="140" spans="5:5" s="8" customFormat="1">
+      <c r="E140" s="76"/>
+    </row>
+    <row r="141" spans="5:5" s="8" customFormat="1">
+      <c r="E141" s="76"/>
+    </row>
+    <row r="142" spans="5:5" s="8" customFormat="1">
+      <c r="E142" s="76"/>
+    </row>
+    <row r="143" spans="5:5" s="8" customFormat="1">
+      <c r="E143" s="76"/>
+    </row>
+    <row r="144" spans="5:5" s="8" customFormat="1">
+      <c r="E144" s="76"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:M42">
-    <filterColumn colId="6">
+  <autoFilter ref="A5:N38">
+    <filterColumn colId="7">
       <filters>
         <filter val="Tấn Đạt"/>
       </filters>
@@ -6658,15 +6609,15 @@
   </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="A1:C3"/>
-    <mergeCell ref="G1:K3"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="H1:L3"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B20:B26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M34" location="'Báo cáo chiến dịch'!A1" display="Báo cáo chiến dịch"/>
-    <hyperlink ref="M33" location="'So sánh cơ hội nhiều kỳ'!A1" display="'So sánh cơ hội nhiều kỳ'!A1"/>
+    <hyperlink ref="N30" location="'Báo cáo chiến dịch'!A1" display="Báo cáo chiến dịch"/>
+    <hyperlink ref="N29" location="'So sánh cơ hội nhiều kỳ'!A1" display="'So sánh cơ hội nhiều kỳ'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="22" orientation="portrait" r:id="rId1"/>
@@ -6910,418 +6861,418 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="54" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="54" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="54"/>
-    <col min="15" max="15" width="13.28515625" style="54" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="54"/>
+    <col min="1" max="1" width="5.42578125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="53" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="53"/>
+    <col min="15" max="15" width="13.28515625" style="53" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="54" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="53" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="55" customFormat="1" ht="14.25">
-      <c r="A4" s="135" t="s">
+    <row r="4" spans="1:15" s="54" customFormat="1" ht="14.25">
+      <c r="A4" s="126" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="128" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
-    </row>
-    <row r="5" spans="1:15" s="55" customFormat="1" ht="14.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="56" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+    </row>
+    <row r="5" spans="1:15" s="54" customFormat="1" ht="14.25">
+      <c r="A5" s="127"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="M5" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="N5" s="56" t="s">
+      <c r="N5" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="O5" s="56" t="s">
+      <c r="O5" s="55" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="57">
+      <c r="A6" s="56">
         <v>1</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57">
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56">
         <f t="shared" ref="O7:O14" si="0">SUM(C7:N7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="57">
+      <c r="A9" s="56">
         <v>2</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57">
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57">
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="57">
+      <c r="A12" s="56">
         <v>3</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57" t="s">
+      <c r="A14" s="56"/>
+      <c r="B14" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="59" customFormat="1">
-      <c r="A15" s="57"/>
-      <c r="B15" s="58" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="58" customFormat="1">
+      <c r="A15" s="56"/>
+      <c r="B15" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="56"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57" t="s">
+      <c r="A16" s="56"/>
+      <c r="B16" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="56">
         <f>SUM(C7,C10,C13)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="56">
         <f t="shared" ref="D16:O17" si="1">SUM(D7,D10,D13)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="57">
+      <c r="I16" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="57">
+      <c r="J16" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="57">
+      <c r="K16" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="57">
+      <c r="L16" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="57">
+      <c r="M16" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="57">
+      <c r="N16" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="57">
+      <c r="O16" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57" t="s">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="56">
         <f>SUM(C8,C11,C14)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="57">
+      <c r="G17" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="57">
+      <c r="J17" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="57">
+      <c r="K17" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="57">
+      <c r="L17" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17" s="57">
+      <c r="M17" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N17" s="57">
+      <c r="N17" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="57">
+      <c r="O17" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7347,247 +7298,247 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="54" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="54" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="54"/>
-    <col min="7" max="7" width="28.85546875" style="54" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="54"/>
+    <col min="1" max="1" width="5.42578125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="53" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="53"/>
+    <col min="7" max="7" width="28.85546875" style="53" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="129" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-    </row>
-    <row r="4" spans="1:7" s="55" customFormat="1" ht="14.25">
-      <c r="A4" s="135" t="s">
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+    </row>
+    <row r="4" spans="1:7" s="54" customFormat="1" ht="14.25">
+      <c r="A4" s="126" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-    </row>
-    <row r="5" spans="1:7" s="55" customFormat="1" ht="14.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="56" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+    </row>
+    <row r="5" spans="1:7" s="54" customFormat="1" ht="14.25">
+      <c r="A5" s="127"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="55" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="57">
+      <c r="A6" s="56">
         <v>1</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57">
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56">
         <f>SUM(C7:F7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56">
         <f>SUM(C8:F8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="57">
+      <c r="A9" s="56">
         <v>2</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57">
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56">
         <f>SUM(C10:F10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57">
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56">
         <f>SUM(C11:F11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="57">
+      <c r="A12" s="56">
         <v>3</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56">
         <f>SUM(C13:F13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57" t="s">
+      <c r="A14" s="56"/>
+      <c r="B14" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57">
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56">
         <f>SUM(C14:F14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="59" customFormat="1">
-      <c r="A15" s="57"/>
-      <c r="B15" s="58" t="s">
+    <row r="15" spans="1:7" s="58" customFormat="1">
+      <c r="A15" s="56"/>
+      <c r="B15" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="56"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57" t="s">
+      <c r="A16" s="56"/>
+      <c r="B16" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="56">
         <f>SUM(C7,C10,C13)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="56">
         <f t="shared" ref="D16:G17" si="0">SUM(D7,D10,D13)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="57">
+      <c r="E16" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57" t="s">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="56">
         <f>SUM(C8,C11,C14)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="57">
+      <c r="D17" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7613,159 +7564,159 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="54" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="54" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="54"/>
-    <col min="5" max="5" width="10.5703125" style="54" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="54"/>
-    <col min="7" max="7" width="11.5703125" style="54" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="54"/>
-    <col min="9" max="9" width="13.28515625" style="54" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="54"/>
+    <col min="1" max="1" width="5.42578125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="53" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="53"/>
+    <col min="5" max="5" width="10.5703125" style="53" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="53"/>
+    <col min="7" max="7" width="11.5703125" style="53" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="53"/>
+    <col min="9" max="9" width="13.28515625" style="53" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="129" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="135" t="s">
+    <row r="4" spans="1:9" s="54" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="126" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="126" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="131" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141" t="s">
+      <c r="D4" s="132"/>
+      <c r="E4" s="132" t="s">
         <v>222</v>
       </c>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141" t="s">
+      <c r="F4" s="132"/>
+      <c r="G4" s="132" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="141"/>
-      <c r="I4" s="142" t="s">
+      <c r="H4" s="132"/>
+      <c r="I4" s="133" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="55" customFormat="1" ht="14.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="56" t="s">
+    <row r="5" spans="1:9" s="54" customFormat="1" ht="14.25">
+      <c r="A5" s="127"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="I5" s="143"/>
+      <c r="I5" s="134"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="60">
+      <c r="A6" s="59">
         <v>1</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="60">
+      <c r="A7" s="59">
         <v>2</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="60">
+      <c r="A8" s="59">
         <v>3</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-    </row>
-    <row r="9" spans="1:9" s="59" customFormat="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+    </row>
+    <row r="9" spans="1:9" s="58" customFormat="1">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="57">
         <f>SUM(C6:C8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="57">
         <f t="shared" ref="D9:H9" si="0">SUM(D6:D8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="57"/>
+      <c r="E9" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
+++ b/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
@@ -1118,7 +1118,8 @@
   <si>
     <t>- Mới thêm Layout và Item.
 - Tài liệu liên quan:
-CRMF2082_Xem chi tiết yêu cầu.</t>
+CRMF2082_Xem chi tiết yêu cầu.[Version 7.0]
+CRMF2081_Cập nhật yêu cầu [Version 5.0]</t>
   </si>
 </sst>
 </file>
@@ -1770,6 +1771,27 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1811,27 +1833,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2708,7 +2709,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3406,23 +3407,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="93"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="100"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1">
       <c r="A2" s="23" t="s">
@@ -3513,7 +3514,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="96" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="27"/>
@@ -3541,7 +3542,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="98"/>
+      <c r="G5" s="105"/>
       <c r="H5" s="27"/>
       <c r="I5" s="32" t="s">
         <v>130</v>
@@ -3567,7 +3568,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="96" t="s">
         <v>110</v>
       </c>
       <c r="H6" s="27"/>
@@ -3595,7 +3596,7 @@
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="97"/>
+      <c r="G7" s="104"/>
       <c r="H7" s="27"/>
       <c r="I7" s="32" t="s">
         <v>128</v>
@@ -3621,7 +3622,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="97"/>
+      <c r="G8" s="104"/>
       <c r="H8" s="27"/>
       <c r="I8" s="32" t="s">
         <v>128</v>
@@ -3647,7 +3648,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="97"/>
+      <c r="G9" s="104"/>
       <c r="H9" s="27"/>
       <c r="I9" s="32" t="s">
         <v>128</v>
@@ -3673,7 +3674,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="97"/>
+      <c r="G10" s="104"/>
       <c r="H10" s="27"/>
       <c r="I10" s="32" t="s">
         <v>131</v>
@@ -3699,7 +3700,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="97"/>
+      <c r="G11" s="104"/>
       <c r="H11" s="27"/>
       <c r="I11" s="32" t="s">
         <v>128</v>
@@ -3725,7 +3726,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="97"/>
+      <c r="G12" s="104"/>
       <c r="H12" s="27"/>
       <c r="I12" s="32" t="s">
         <v>128</v>
@@ -3751,7 +3752,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="97"/>
+      <c r="G13" s="104"/>
       <c r="H13" s="27"/>
       <c r="I13" s="32" t="s">
         <v>128</v>
@@ -3777,7 +3778,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="97"/>
+      <c r="G14" s="104"/>
       <c r="H14" s="27"/>
       <c r="I14" s="32" t="s">
         <v>128</v>
@@ -3803,7 +3804,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="98"/>
+      <c r="G15" s="105"/>
       <c r="H15" s="27"/>
       <c r="I15" s="32" t="s">
         <v>132</v>
@@ -3829,7 +3830,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="89" t="s">
+      <c r="G16" s="96" t="s">
         <v>119</v>
       </c>
       <c r="H16" s="27"/>
@@ -3857,7 +3858,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="97"/>
+      <c r="G17" s="104"/>
       <c r="H17" s="27"/>
       <c r="I17" s="32" t="s">
         <v>134</v>
@@ -3883,7 +3884,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="98"/>
+      <c r="G18" s="105"/>
       <c r="H18" s="27"/>
       <c r="I18" s="32" t="s">
         <v>135</v>
@@ -3909,7 +3910,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="94" t="s">
+      <c r="G19" s="101" t="s">
         <v>111</v>
       </c>
       <c r="H19" s="27"/>
@@ -3937,7 +3938,7 @@
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="95"/>
+      <c r="G20" s="102"/>
       <c r="H20" s="27"/>
       <c r="I20" s="32" t="s">
         <v>128</v>
@@ -3963,7 +3964,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="95"/>
+      <c r="G21" s="102"/>
       <c r="H21" s="27"/>
       <c r="I21" s="32" t="s">
         <v>136</v>
@@ -3989,7 +3990,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="96"/>
+      <c r="G22" s="103"/>
       <c r="H22" s="27"/>
       <c r="I22" s="32" t="s">
         <v>137</v>
@@ -4015,11 +4016,11 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="99" t="s">
+      <c r="G23" s="106" t="s">
         <v>72</v>
       </c>
       <c r="H23" s="27"/>
-      <c r="I23" s="101" t="s">
+      <c r="I23" s="108" t="s">
         <v>128</v>
       </c>
       <c r="J23" s="27"/>
@@ -4043,9 +4044,9 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="100"/>
+      <c r="G24" s="107"/>
       <c r="H24" s="27"/>
-      <c r="I24" s="91"/>
+      <c r="I24" s="98"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -4123,7 +4124,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="94" t="s">
+      <c r="G27" s="101" t="s">
         <v>121</v>
       </c>
       <c r="H27" s="27"/>
@@ -4151,7 +4152,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="95"/>
+      <c r="G28" s="102"/>
       <c r="H28" s="27"/>
       <c r="I28" s="32" t="s">
         <v>128</v>
@@ -4177,7 +4178,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="96"/>
+      <c r="G29" s="103"/>
       <c r="H29" s="27"/>
       <c r="I29" s="32" t="s">
         <v>128</v>
@@ -4259,7 +4260,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="88" t="s">
+      <c r="G32" s="95" t="s">
         <v>88</v>
       </c>
       <c r="H32" s="27"/>
@@ -4287,7 +4288,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="88"/>
+      <c r="G33" s="95"/>
       <c r="H33" s="27"/>
       <c r="I33" s="32" t="s">
         <v>128</v>
@@ -4481,7 +4482,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="89" t="s">
+      <c r="G40" s="96" t="s">
         <v>97</v>
       </c>
       <c r="H40" s="27"/>
@@ -4509,7 +4510,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="90"/>
+      <c r="G41" s="97"/>
       <c r="H41" s="27"/>
       <c r="I41" s="32" t="s">
         <v>142</v>
@@ -4535,7 +4536,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="91"/>
+      <c r="G42" s="98"/>
       <c r="H42" s="27"/>
       <c r="I42" s="32" t="s">
         <v>128</v>
@@ -4561,7 +4562,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="102" t="s">
+      <c r="G43" s="88" t="s">
         <v>111</v>
       </c>
       <c r="H43" s="27"/>
@@ -4589,7 +4590,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="103"/>
+      <c r="G44" s="89"/>
       <c r="H44" s="27"/>
       <c r="I44" s="32" t="s">
         <v>143</v>
@@ -4615,7 +4616,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="103"/>
+      <c r="G45" s="89"/>
       <c r="H45" s="27"/>
       <c r="I45" s="32" t="s">
         <v>144</v>
@@ -4641,7 +4642,7 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="104"/>
+      <c r="G46" s="90"/>
       <c r="H46" s="27"/>
       <c r="I46" s="32" t="s">
         <v>145</v>
@@ -4667,7 +4668,7 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="105" t="s">
+      <c r="G47" s="91" t="s">
         <v>125</v>
       </c>
       <c r="H47" s="27"/>
@@ -4695,7 +4696,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="105"/>
+      <c r="G48" s="91"/>
       <c r="H48" s="27"/>
       <c r="I48" s="32" t="s">
         <v>146</v>
@@ -4721,7 +4722,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="105" t="s">
+      <c r="G49" s="91" t="s">
         <v>125</v>
       </c>
       <c r="H49" s="27"/>
@@ -4749,7 +4750,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="105"/>
+      <c r="G50" s="91"/>
       <c r="H50" s="27"/>
       <c r="I50" s="32" t="s">
         <v>146</v>
@@ -4775,7 +4776,7 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="106" t="s">
+      <c r="G51" s="92" t="s">
         <v>126</v>
       </c>
       <c r="H51" s="27"/>
@@ -4803,7 +4804,7 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="107"/>
+      <c r="G52" s="93"/>
       <c r="H52" s="27"/>
       <c r="I52" s="32" t="s">
         <v>147</v>
@@ -4829,7 +4830,7 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="108" t="s">
+      <c r="G53" s="94" t="s">
         <v>72</v>
       </c>
       <c r="H53" s="27"/>
@@ -4857,7 +4858,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="107"/>
+      <c r="G54" s="93"/>
       <c r="H54" s="27"/>
       <c r="I54" s="32" t="s">
         <v>148</v>
@@ -4891,11 +4892,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G40:G42"/>
     <mergeCell ref="A1:O1"/>
@@ -4906,6 +4902,11 @@
     <mergeCell ref="G6:G15"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
   </mergeCells>
   <conditionalFormatting sqref="C10">
     <cfRule type="expression" dxfId="49" priority="95" stopIfTrue="1">
@@ -5140,7 +5141,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5464,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:60" s="8" customFormat="1" ht="45">
+    <row r="6" spans="1:60" s="8" customFormat="1" ht="75">
       <c r="A6" s="62">
         <f>ROW()-5</f>
         <v>1</v>

--- a/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
+++ b/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
@@ -1093,11 +1093,6 @@
     <t>Vẫn đang làm tiếp tục</t>
   </si>
   <si>
-    <t>-Mới thêm Layout và Item và Input.
--Tài liệu liên quan:
-CRMF0011_Thiết lập mã phân tích dự án                                                                                                                                                                                                                                                                CRMF0011_Thiết lập mã phân tích</t>
-  </si>
-  <si>
     <t>Bước tương ứng bên file Yêu cầu</t>
   </si>
   <si>
@@ -1120,6 +1115,11 @@
 - Tài liệu liên quan:
 CRMF2082_Xem chi tiết yêu cầu.[Version 7.0]
 CRMF2081_Cập nhật yêu cầu [Version 5.0]</t>
+  </si>
+  <si>
+    <t>-Mới thêm Layout và Item và Input.
+-Tài liệu liên quan:
+CRMF0011_Thiết lập mã phân tích dự án[Ver 1]                                                                                                                                                                                                                                                                CRMF0011_Thiết lập mã phân tích [Ver 1]</t>
   </si>
 </sst>
 </file>
@@ -3388,7 +3388,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C12"/>
+      <selection activeCell="G6" sqref="G6:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -5141,7 +5141,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5150,7 +5150,7 @@
     <col min="2" max="2" width="11.140625" style="43" customWidth="1"/>
     <col min="3" max="3" width="42.85546875" style="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" style="77" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" style="77" customWidth="1"/>
     <col min="6" max="6" width="21.140625" style="43" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.5703125" style="43" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" style="43" customWidth="1"/>
@@ -5432,7 +5432,7 @@
         <v>154</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5" s="73" t="s">
         <v>232</v>
@@ -5465,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:60" s="8" customFormat="1" ht="75">
+    <row r="6" spans="1:60" s="8" customFormat="1" ht="60">
       <c r="A6" s="62">
         <f>ROW()-5</f>
         <v>1</v>
@@ -5476,9 +5476,11 @@
       <c r="C6" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="52">
+        <v>3</v>
+      </c>
       <c r="E6" s="74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F6" s="78">
         <v>0.1</v>
@@ -5496,7 +5498,7 @@
       <c r="M6" s="46"/>
       <c r="N6" s="46"/>
     </row>
-    <row r="7" spans="1:60" s="8" customFormat="1" ht="60">
+    <row r="7" spans="1:60" s="8" customFormat="1" ht="45">
       <c r="A7" s="45">
         <f t="shared" ref="A7:A32" si="0">ROW()-5</f>
         <v>2</v>
@@ -5505,9 +5507,11 @@
       <c r="C7" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="52">
+        <v>2</v>
+      </c>
       <c r="E7" s="74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F7" s="78">
         <v>0.1</v>
@@ -5536,9 +5540,11 @@
       <c r="C8" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="52">
+        <v>3</v>
+      </c>
       <c r="E8" s="74" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F8" s="78">
         <v>0.2</v>
@@ -5566,10 +5572,10 @@
         <v>165</v>
       </c>
       <c r="D9" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" s="74" t="s">
         <v>237</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>238</v>
       </c>
       <c r="F9" s="78">
         <v>1</v>

--- a/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
+++ b/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
@@ -1562,7 +1562,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1771,6 +1771,48 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1792,48 +1834,6 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1911,6 +1911,9 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2709,7 +2712,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3407,23 +3410,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="100"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="93"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1">
       <c r="A2" s="23" t="s">
@@ -3514,7 +3517,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="89" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="27"/>
@@ -3542,7 +3545,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="105"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="27"/>
       <c r="I5" s="32" t="s">
         <v>130</v>
@@ -3568,7 +3571,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="96" t="s">
+      <c r="G6" s="89" t="s">
         <v>110</v>
       </c>
       <c r="H6" s="27"/>
@@ -3596,7 +3599,7 @@
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="104"/>
+      <c r="G7" s="97"/>
       <c r="H7" s="27"/>
       <c r="I7" s="32" t="s">
         <v>128</v>
@@ -3622,7 +3625,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="104"/>
+      <c r="G8" s="97"/>
       <c r="H8" s="27"/>
       <c r="I8" s="32" t="s">
         <v>128</v>
@@ -3648,7 +3651,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="104"/>
+      <c r="G9" s="97"/>
       <c r="H9" s="27"/>
       <c r="I9" s="32" t="s">
         <v>128</v>
@@ -3674,7 +3677,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="104"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="27"/>
       <c r="I10" s="32" t="s">
         <v>131</v>
@@ -3700,7 +3703,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="104"/>
+      <c r="G11" s="97"/>
       <c r="H11" s="27"/>
       <c r="I11" s="32" t="s">
         <v>128</v>
@@ -3726,7 +3729,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="104"/>
+      <c r="G12" s="97"/>
       <c r="H12" s="27"/>
       <c r="I12" s="32" t="s">
         <v>128</v>
@@ -3752,7 +3755,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="104"/>
+      <c r="G13" s="97"/>
       <c r="H13" s="27"/>
       <c r="I13" s="32" t="s">
         <v>128</v>
@@ -3778,7 +3781,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="104"/>
+      <c r="G14" s="97"/>
       <c r="H14" s="27"/>
       <c r="I14" s="32" t="s">
         <v>128</v>
@@ -3804,7 +3807,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="105"/>
+      <c r="G15" s="98"/>
       <c r="H15" s="27"/>
       <c r="I15" s="32" t="s">
         <v>132</v>
@@ -3830,7 +3833,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="96" t="s">
+      <c r="G16" s="89" t="s">
         <v>119</v>
       </c>
       <c r="H16" s="27"/>
@@ -3858,7 +3861,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="104"/>
+      <c r="G17" s="97"/>
       <c r="H17" s="27"/>
       <c r="I17" s="32" t="s">
         <v>134</v>
@@ -3884,7 +3887,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="105"/>
+      <c r="G18" s="98"/>
       <c r="H18" s="27"/>
       <c r="I18" s="32" t="s">
         <v>135</v>
@@ -3910,7 +3913,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="101" t="s">
+      <c r="G19" s="94" t="s">
         <v>111</v>
       </c>
       <c r="H19" s="27"/>
@@ -3938,7 +3941,7 @@
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="102"/>
+      <c r="G20" s="95"/>
       <c r="H20" s="27"/>
       <c r="I20" s="32" t="s">
         <v>128</v>
@@ -3964,7 +3967,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="102"/>
+      <c r="G21" s="95"/>
       <c r="H21" s="27"/>
       <c r="I21" s="32" t="s">
         <v>136</v>
@@ -3990,7 +3993,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="103"/>
+      <c r="G22" s="96"/>
       <c r="H22" s="27"/>
       <c r="I22" s="32" t="s">
         <v>137</v>
@@ -4016,11 +4019,11 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="106" t="s">
+      <c r="G23" s="99" t="s">
         <v>72</v>
       </c>
       <c r="H23" s="27"/>
-      <c r="I23" s="108" t="s">
+      <c r="I23" s="101" t="s">
         <v>128</v>
       </c>
       <c r="J23" s="27"/>
@@ -4044,9 +4047,9 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="107"/>
+      <c r="G24" s="100"/>
       <c r="H24" s="27"/>
-      <c r="I24" s="98"/>
+      <c r="I24" s="91"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -4124,7 +4127,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="101" t="s">
+      <c r="G27" s="94" t="s">
         <v>121</v>
       </c>
       <c r="H27" s="27"/>
@@ -4152,7 +4155,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="102"/>
+      <c r="G28" s="95"/>
       <c r="H28" s="27"/>
       <c r="I28" s="32" t="s">
         <v>128</v>
@@ -4178,7 +4181,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="103"/>
+      <c r="G29" s="96"/>
       <c r="H29" s="27"/>
       <c r="I29" s="32" t="s">
         <v>128</v>
@@ -4260,7 +4263,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="95" t="s">
+      <c r="G32" s="88" t="s">
         <v>88</v>
       </c>
       <c r="H32" s="27"/>
@@ -4288,7 +4291,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="95"/>
+      <c r="G33" s="88"/>
       <c r="H33" s="27"/>
       <c r="I33" s="32" t="s">
         <v>128</v>
@@ -4482,7 +4485,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="96" t="s">
+      <c r="G40" s="89" t="s">
         <v>97</v>
       </c>
       <c r="H40" s="27"/>
@@ -4510,7 +4513,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="97"/>
+      <c r="G41" s="90"/>
       <c r="H41" s="27"/>
       <c r="I41" s="32" t="s">
         <v>142</v>
@@ -4536,7 +4539,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="98"/>
+      <c r="G42" s="91"/>
       <c r="H42" s="27"/>
       <c r="I42" s="32" t="s">
         <v>128</v>
@@ -4562,7 +4565,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="88" t="s">
+      <c r="G43" s="102" t="s">
         <v>111</v>
       </c>
       <c r="H43" s="27"/>
@@ -4590,7 +4593,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="89"/>
+      <c r="G44" s="103"/>
       <c r="H44" s="27"/>
       <c r="I44" s="32" t="s">
         <v>143</v>
@@ -4616,7 +4619,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="89"/>
+      <c r="G45" s="103"/>
       <c r="H45" s="27"/>
       <c r="I45" s="32" t="s">
         <v>144</v>
@@ -4642,7 +4645,7 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="90"/>
+      <c r="G46" s="104"/>
       <c r="H46" s="27"/>
       <c r="I46" s="32" t="s">
         <v>145</v>
@@ -4668,7 +4671,7 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="91" t="s">
+      <c r="G47" s="105" t="s">
         <v>125</v>
       </c>
       <c r="H47" s="27"/>
@@ -4696,7 +4699,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="91"/>
+      <c r="G48" s="105"/>
       <c r="H48" s="27"/>
       <c r="I48" s="32" t="s">
         <v>146</v>
@@ -4722,7 +4725,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="91" t="s">
+      <c r="G49" s="105" t="s">
         <v>125</v>
       </c>
       <c r="H49" s="27"/>
@@ -4750,7 +4753,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="91"/>
+      <c r="G50" s="105"/>
       <c r="H50" s="27"/>
       <c r="I50" s="32" t="s">
         <v>146</v>
@@ -4776,7 +4779,7 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="92" t="s">
+      <c r="G51" s="106" t="s">
         <v>126</v>
       </c>
       <c r="H51" s="27"/>
@@ -4804,7 +4807,7 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="93"/>
+      <c r="G52" s="107"/>
       <c r="H52" s="27"/>
       <c r="I52" s="32" t="s">
         <v>147</v>
@@ -4830,7 +4833,7 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="94" t="s">
+      <c r="G53" s="108" t="s">
         <v>72</v>
       </c>
       <c r="H53" s="27"/>
@@ -4858,7 +4861,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="93"/>
+      <c r="G54" s="107"/>
       <c r="H54" s="27"/>
       <c r="I54" s="32" t="s">
         <v>148</v>
@@ -4892,6 +4895,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G40:G42"/>
     <mergeCell ref="A1:O1"/>
@@ -4902,11 +4910,6 @@
     <mergeCell ref="G6:G15"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
   </mergeCells>
   <conditionalFormatting sqref="C10">
     <cfRule type="expression" dxfId="49" priority="95" stopIfTrue="1">
@@ -5141,7 +5144,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5476,7 +5479,7 @@
       <c r="C6" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="135">
         <v>3</v>
       </c>
       <c r="E6" s="74" t="s">
@@ -5507,7 +5510,7 @@
       <c r="C7" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="135">
         <v>2</v>
       </c>
       <c r="E7" s="74" t="s">
@@ -5540,7 +5543,7 @@
       <c r="C8" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="135">
         <v>3</v>
       </c>
       <c r="E8" s="74" t="s">
@@ -5571,7 +5574,7 @@
       <c r="C9" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="135" t="s">
         <v>236</v>
       </c>
       <c r="E9" s="74" t="s">

--- a/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
+++ b/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="240">
   <si>
     <t>STT</t>
   </si>
@@ -1090,13 +1090,7 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Vẫn đang làm tiếp tục</t>
-  </si>
-  <si>
     <t>Bước tương ứng bên file Yêu cầu</t>
-  </si>
-  <si>
-    <t>4;5;9;10</t>
   </si>
   <si>
     <t>- Đã làm hoàn chỉnh
@@ -1106,11 +1100,6 @@
 Folder Script DB</t>
   </si>
   <si>
-    <t xml:space="preserve">- Mới thêm Layout và Item.
-- Tài liệu liên quan:
-CRMF2082_Xem chi tiết yêu cầu. [Version 6]                                                                                                                                                                                                                                                           </t>
-  </si>
-  <si>
     <t>- Mới thêm Layout và Item.
 - Tài liệu liên quan:
 CRMF2082_Xem chi tiết yêu cầu.[Version 7.0]
@@ -1120,6 +1109,15 @@
     <t>-Mới thêm Layout và Item và Input.
 -Tài liệu liên quan:
 CRMF0011_Thiết lập mã phân tích dự án[Ver 1]                                                                                                                                                                                                                                                                CRMF0011_Thiết lập mã phân tích [Ver 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Đã làm hoàn chỉnh
+- Tài liệu liên quan:
+CRMF2082_Xem chi tiết yêu cầu. [Version 6]
+CRMF9002_Chọn liên hệ. [Version 5]                                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>4;5;7;9;10</t>
   </si>
 </sst>
 </file>
@@ -1759,6 +1757,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1771,6 +1772,27 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1813,27 +1835,6 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1911,9 +1912,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2712,7 +2710,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3097,15 +3095,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25">
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" spans="2:8" ht="14.25">
       <c r="B2" s="15"/>
@@ -3302,10 +3300,10 @@
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75">
-      <c r="E26" s="85" t="s">
+      <c r="E26" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="85" t="s">
+      <c r="F26" s="86" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="13" t="s">
@@ -3316,16 +3314,16 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75">
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
       <c r="G27" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="2:8" ht="15.75">
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
       <c r="G28" s="13" t="s">
         <v>28</v>
       </c>
@@ -3391,7 +3389,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G15"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -3410,23 +3408,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="93"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="101"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1">
       <c r="A2" s="23" t="s">
@@ -3517,7 +3515,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="97" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="27"/>
@@ -3545,7 +3543,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="98"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="27"/>
       <c r="I5" s="32" t="s">
         <v>130</v>
@@ -3571,7 +3569,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="97" t="s">
         <v>110</v>
       </c>
       <c r="H6" s="27"/>
@@ -3599,7 +3597,7 @@
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="97"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="27"/>
       <c r="I7" s="32" t="s">
         <v>128</v>
@@ -3625,7 +3623,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="97"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="27"/>
       <c r="I8" s="32" t="s">
         <v>128</v>
@@ -3651,7 +3649,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="97"/>
+      <c r="G9" s="105"/>
       <c r="H9" s="27"/>
       <c r="I9" s="32" t="s">
         <v>128</v>
@@ -3677,7 +3675,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="97"/>
+      <c r="G10" s="105"/>
       <c r="H10" s="27"/>
       <c r="I10" s="32" t="s">
         <v>131</v>
@@ -3703,7 +3701,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="97"/>
+      <c r="G11" s="105"/>
       <c r="H11" s="27"/>
       <c r="I11" s="32" t="s">
         <v>128</v>
@@ -3729,7 +3727,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="97"/>
+      <c r="G12" s="105"/>
       <c r="H12" s="27"/>
       <c r="I12" s="32" t="s">
         <v>128</v>
@@ -3755,7 +3753,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="97"/>
+      <c r="G13" s="105"/>
       <c r="H13" s="27"/>
       <c r="I13" s="32" t="s">
         <v>128</v>
@@ -3781,7 +3779,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="97"/>
+      <c r="G14" s="105"/>
       <c r="H14" s="27"/>
       <c r="I14" s="32" t="s">
         <v>128</v>
@@ -3807,7 +3805,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="98"/>
+      <c r="G15" s="106"/>
       <c r="H15" s="27"/>
       <c r="I15" s="32" t="s">
         <v>132</v>
@@ -3833,7 +3831,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="89" t="s">
+      <c r="G16" s="97" t="s">
         <v>119</v>
       </c>
       <c r="H16" s="27"/>
@@ -3861,7 +3859,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="97"/>
+      <c r="G17" s="105"/>
       <c r="H17" s="27"/>
       <c r="I17" s="32" t="s">
         <v>134</v>
@@ -3887,7 +3885,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="98"/>
+      <c r="G18" s="106"/>
       <c r="H18" s="27"/>
       <c r="I18" s="32" t="s">
         <v>135</v>
@@ -3913,7 +3911,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="94" t="s">
+      <c r="G19" s="102" t="s">
         <v>111</v>
       </c>
       <c r="H19" s="27"/>
@@ -3941,7 +3939,7 @@
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="95"/>
+      <c r="G20" s="103"/>
       <c r="H20" s="27"/>
       <c r="I20" s="32" t="s">
         <v>128</v>
@@ -3967,7 +3965,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="95"/>
+      <c r="G21" s="103"/>
       <c r="H21" s="27"/>
       <c r="I21" s="32" t="s">
         <v>136</v>
@@ -3993,7 +3991,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="96"/>
+      <c r="G22" s="104"/>
       <c r="H22" s="27"/>
       <c r="I22" s="32" t="s">
         <v>137</v>
@@ -4019,11 +4017,11 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="99" t="s">
+      <c r="G23" s="107" t="s">
         <v>72</v>
       </c>
       <c r="H23" s="27"/>
-      <c r="I23" s="101" t="s">
+      <c r="I23" s="109" t="s">
         <v>128</v>
       </c>
       <c r="J23" s="27"/>
@@ -4047,9 +4045,9 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="100"/>
+      <c r="G24" s="108"/>
       <c r="H24" s="27"/>
-      <c r="I24" s="91"/>
+      <c r="I24" s="99"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -4127,7 +4125,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="94" t="s">
+      <c r="G27" s="102" t="s">
         <v>121</v>
       </c>
       <c r="H27" s="27"/>
@@ -4155,7 +4153,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="95"/>
+      <c r="G28" s="103"/>
       <c r="H28" s="27"/>
       <c r="I28" s="32" t="s">
         <v>128</v>
@@ -4181,7 +4179,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="96"/>
+      <c r="G29" s="104"/>
       <c r="H29" s="27"/>
       <c r="I29" s="32" t="s">
         <v>128</v>
@@ -4263,7 +4261,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="88" t="s">
+      <c r="G32" s="96" t="s">
         <v>88</v>
       </c>
       <c r="H32" s="27"/>
@@ -4291,7 +4289,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="88"/>
+      <c r="G33" s="96"/>
       <c r="H33" s="27"/>
       <c r="I33" s="32" t="s">
         <v>128</v>
@@ -4485,7 +4483,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="89" t="s">
+      <c r="G40" s="97" t="s">
         <v>97</v>
       </c>
       <c r="H40" s="27"/>
@@ -4513,7 +4511,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="90"/>
+      <c r="G41" s="98"/>
       <c r="H41" s="27"/>
       <c r="I41" s="32" t="s">
         <v>142</v>
@@ -4539,7 +4537,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="91"/>
+      <c r="G42" s="99"/>
       <c r="H42" s="27"/>
       <c r="I42" s="32" t="s">
         <v>128</v>
@@ -4565,7 +4563,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="102" t="s">
+      <c r="G43" s="89" t="s">
         <v>111</v>
       </c>
       <c r="H43" s="27"/>
@@ -4593,7 +4591,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="103"/>
+      <c r="G44" s="90"/>
       <c r="H44" s="27"/>
       <c r="I44" s="32" t="s">
         <v>143</v>
@@ -4619,7 +4617,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="103"/>
+      <c r="G45" s="90"/>
       <c r="H45" s="27"/>
       <c r="I45" s="32" t="s">
         <v>144</v>
@@ -4645,7 +4643,7 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="104"/>
+      <c r="G46" s="91"/>
       <c r="H46" s="27"/>
       <c r="I46" s="32" t="s">
         <v>145</v>
@@ -4671,7 +4669,7 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="105" t="s">
+      <c r="G47" s="92" t="s">
         <v>125</v>
       </c>
       <c r="H47" s="27"/>
@@ -4699,7 +4697,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="105"/>
+      <c r="G48" s="92"/>
       <c r="H48" s="27"/>
       <c r="I48" s="32" t="s">
         <v>146</v>
@@ -4725,7 +4723,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="105" t="s">
+      <c r="G49" s="92" t="s">
         <v>125</v>
       </c>
       <c r="H49" s="27"/>
@@ -4753,7 +4751,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="105"/>
+      <c r="G50" s="92"/>
       <c r="H50" s="27"/>
       <c r="I50" s="32" t="s">
         <v>146</v>
@@ -4779,7 +4777,7 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="106" t="s">
+      <c r="G51" s="93" t="s">
         <v>126</v>
       </c>
       <c r="H51" s="27"/>
@@ -4807,7 +4805,7 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="107"/>
+      <c r="G52" s="94"/>
       <c r="H52" s="27"/>
       <c r="I52" s="32" t="s">
         <v>147</v>
@@ -4833,7 +4831,7 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="108" t="s">
+      <c r="G53" s="95" t="s">
         <v>72</v>
       </c>
       <c r="H53" s="27"/>
@@ -4861,7 +4859,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="107"/>
+      <c r="G54" s="94"/>
       <c r="H54" s="27"/>
       <c r="I54" s="32" t="s">
         <v>148</v>
@@ -4895,11 +4893,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G40:G42"/>
     <mergeCell ref="A1:O1"/>
@@ -4910,6 +4903,11 @@
     <mergeCell ref="G6:G15"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
   </mergeCells>
   <conditionalFormatting sqref="C10">
     <cfRule type="expression" dxfId="49" priority="95" stopIfTrue="1">
@@ -5144,7 +5142,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5169,18 +5167,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="109"/>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
+      <c r="A1" s="110"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
       <c r="D1" s="67"/>
       <c r="E1" s="70"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="112"/>
       <c r="M1" s="40" t="s">
         <v>149</v>
       </c>
@@ -5235,18 +5233,18 @@
       <c r="BH1" s="41"/>
     </row>
     <row r="2" spans="1:60" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
       <c r="D2" s="68"/>
       <c r="E2" s="71"/>
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="114"/>
       <c r="M2" s="40" t="s">
         <v>151</v>
       </c>
@@ -5299,18 +5297,18 @@
       <c r="BH2" s="41"/>
     </row>
     <row r="3" spans="1:60" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
       <c r="D3" s="69"/>
       <c r="E3" s="72"/>
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="116"/>
       <c r="M3" s="40" t="s">
         <v>152</v>
       </c>
@@ -5435,7 +5433,7 @@
         <v>154</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E5" s="73" t="s">
         <v>232</v>
@@ -5473,17 +5471,17 @@
         <f>ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="117" t="s">
         <v>174</v>
       </c>
       <c r="C6" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="135">
+      <c r="D6" s="84">
         <v>3</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F6" s="78">
         <v>0.1</v>
@@ -5501,27 +5499,25 @@
       <c r="M6" s="46"/>
       <c r="N6" s="46"/>
     </row>
-    <row r="7" spans="1:60" s="8" customFormat="1" ht="45">
+    <row r="7" spans="1:60" s="8" customFormat="1" ht="60">
       <c r="A7" s="45">
         <f t="shared" ref="A7:A32" si="0">ROW()-5</f>
         <v>2</v>
       </c>
-      <c r="B7" s="117"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="135">
+      <c r="D7" s="84">
         <v>2</v>
       </c>
       <c r="E7" s="74" t="s">
         <v>238</v>
       </c>
       <c r="F7" s="78">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>234</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G7" s="52"/>
       <c r="H7" s="46" t="s">
         <v>229</v>
       </c>
@@ -5539,15 +5535,15 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="117"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="135">
+      <c r="D8" s="84">
         <v>3</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F8" s="78">
         <v>0.2</v>
@@ -5570,15 +5566,15 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="117"/>
+      <c r="B9" s="118"/>
       <c r="C9" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="135" t="s">
-        <v>236</v>
+      <c r="D9" s="84" t="s">
+        <v>239</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F9" s="78">
         <v>1</v>
@@ -5601,7 +5597,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="117"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="51" t="s">
         <v>166</v>
       </c>
@@ -5626,7 +5622,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="117"/>
+      <c r="B11" s="118"/>
       <c r="C11" s="52" t="s">
         <v>167</v>
       </c>
@@ -5653,7 +5649,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="117"/>
+      <c r="B12" s="118"/>
       <c r="C12" s="52" t="s">
         <v>168</v>
       </c>
@@ -5680,7 +5676,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="117"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="52" t="s">
         <v>169</v>
       </c>
@@ -5709,7 +5705,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="117"/>
+      <c r="B14" s="118"/>
       <c r="C14" s="51" t="s">
         <v>172</v>
       </c>
@@ -5736,7 +5732,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="118"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="51" t="s">
         <v>173</v>
       </c>
@@ -5763,7 +5759,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="123" t="s">
         <v>175</v>
       </c>
       <c r="C16" s="51" t="s">
@@ -5792,7 +5788,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="122"/>
+      <c r="B17" s="123"/>
       <c r="C17" s="51" t="s">
         <v>177</v>
       </c>
@@ -5821,7 +5817,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="123"/>
+      <c r="B18" s="124"/>
       <c r="C18" s="51" t="s">
         <v>178</v>
       </c>
@@ -5875,7 +5871,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="125" t="s">
         <v>180</v>
       </c>
       <c r="C20" s="51" t="s">
@@ -5904,7 +5900,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B21" s="124"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="51" t="s">
         <v>115</v>
       </c>
@@ -5931,7 +5927,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B22" s="124"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="51" t="s">
         <v>127</v>
       </c>
@@ -5958,7 +5954,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B23" s="124"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="51" t="s">
         <v>116</v>
       </c>
@@ -5985,7 +5981,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B24" s="124"/>
+      <c r="B24" s="125"/>
       <c r="C24" s="51" t="s">
         <v>181</v>
       </c>
@@ -6012,7 +6008,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B25" s="124"/>
+      <c r="B25" s="125"/>
       <c r="C25" s="51" t="s">
         <v>142</v>
       </c>
@@ -6039,7 +6035,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B26" s="125"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="51" t="s">
         <v>182</v>
       </c>
@@ -6066,7 +6062,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B27" s="119" t="s">
+      <c r="B27" s="120" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="51" t="s">
@@ -6095,7 +6091,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B28" s="120"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="51" t="s">
         <v>184</v>
       </c>
@@ -6122,7 +6118,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B29" s="120"/>
+      <c r="B29" s="121"/>
       <c r="C29" s="51" t="s">
         <v>108</v>
       </c>
@@ -6151,7 +6147,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B30" s="120"/>
+      <c r="B30" s="121"/>
       <c r="C30" s="51" t="s">
         <v>109</v>
       </c>
@@ -6180,7 +6176,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B31" s="120"/>
+      <c r="B31" s="121"/>
       <c r="C31" s="51" t="s">
         <v>170</v>
       </c>
@@ -6207,7 +6203,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B32" s="121"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="51" t="s">
         <v>75</v>
       </c>
@@ -6892,31 +6888,31 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="54" customFormat="1" ht="14.25">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="127" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="127" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="129" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
     </row>
     <row r="5" spans="1:15" s="54" customFormat="1" ht="14.25">
-      <c r="A5" s="127"/>
-      <c r="B5" s="127"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="55" t="s">
         <v>191</v>
       </c>
@@ -7316,41 +7312,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="130" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="131" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
     </row>
     <row r="4" spans="1:7" s="54" customFormat="1" ht="14.25">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="127" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="127" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
     </row>
     <row r="5" spans="1:7" s="54" customFormat="1" ht="14.25">
-      <c r="A5" s="127"/>
-      <c r="B5" s="127"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="55" t="s">
         <v>213</v>
       </c>
@@ -7587,16 +7583,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="130" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
     </row>
     <row r="2" spans="1:9">
       <c r="D2" s="53" t="s">
@@ -7607,31 +7603,31 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="127" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132" t="s">
+      <c r="D4" s="133"/>
+      <c r="E4" s="133" t="s">
         <v>222</v>
       </c>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132" t="s">
+      <c r="F4" s="133"/>
+      <c r="G4" s="133" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="132"/>
-      <c r="I4" s="133" t="s">
+      <c r="H4" s="133"/>
+      <c r="I4" s="134" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="54" customFormat="1" ht="14.25">
-      <c r="A5" s="127"/>
-      <c r="B5" s="127"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="55" t="s">
         <v>224</v>
       </c>
@@ -7650,7 +7646,7 @@
       <c r="H5" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="I5" s="134"/>
+      <c r="I5" s="135"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="59">

--- a/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
+++ b/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tandat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.CRM\1_Tai lieu phan tich_Yeu cau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6915" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trợ giúp" sheetId="7" r:id="rId1"/>
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="249">
   <si>
     <t>STT</t>
   </si>
@@ -1149,6 +1149,13 @@
     <t>CRMF0011_Ver1
 CRMT00000</t>
   </si>
+  <si>
+    <t>CRMF2080_Ver4
+CRMP20803</t>
+  </si>
+  <si>
+    <t>CRMF2061_Ver1</t>
+  </si>
 </sst>
 </file>
 
@@ -1158,7 +1165,7 @@
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1346,6 +1353,11 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1590,7 +1602,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1793,6 +1805,12 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1945,9 +1963,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3131,15 +3146,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25">
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="2:8" ht="14.25">
       <c r="B2" s="15"/>
@@ -3336,10 +3351,10 @@
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75">
-      <c r="E26" s="87" t="s">
+      <c r="E26" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="87" t="s">
+      <c r="F26" s="89" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="13" t="s">
@@ -3350,16 +3365,16 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75">
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
       <c r="G27" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="2:8" ht="15.75">
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
       <c r="G28" s="13" t="s">
         <v>28</v>
       </c>
@@ -3424,8 +3439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -3444,23 +3459,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="97"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1">
       <c r="A2" s="23" t="s">
@@ -3551,7 +3566,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="93" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="27"/>
@@ -3579,7 +3594,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="100"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="27"/>
       <c r="I5" s="32" t="s">
         <v>130</v>
@@ -3605,7 +3620,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="93" t="s">
         <v>110</v>
       </c>
       <c r="H6" s="27"/>
@@ -3633,7 +3648,7 @@
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="99"/>
+      <c r="G7" s="101"/>
       <c r="H7" s="27"/>
       <c r="I7" s="32" t="s">
         <v>128</v>
@@ -3659,7 +3674,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="99"/>
+      <c r="G8" s="101"/>
       <c r="H8" s="27"/>
       <c r="I8" s="32" t="s">
         <v>128</v>
@@ -3685,7 +3700,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="99"/>
+      <c r="G9" s="101"/>
       <c r="H9" s="27"/>
       <c r="I9" s="32" t="s">
         <v>128</v>
@@ -3711,7 +3726,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="99"/>
+      <c r="G10" s="101"/>
       <c r="H10" s="27"/>
       <c r="I10" s="32" t="s">
         <v>131</v>
@@ -3737,7 +3752,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="99"/>
+      <c r="G11" s="101"/>
       <c r="H11" s="27"/>
       <c r="I11" s="32" t="s">
         <v>128</v>
@@ -3763,7 +3778,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="99"/>
+      <c r="G12" s="101"/>
       <c r="H12" s="27"/>
       <c r="I12" s="32" t="s">
         <v>128</v>
@@ -3789,7 +3804,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="99"/>
+      <c r="G13" s="101"/>
       <c r="H13" s="27"/>
       <c r="I13" s="32" t="s">
         <v>128</v>
@@ -3815,7 +3830,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="99"/>
+      <c r="G14" s="101"/>
       <c r="H14" s="27"/>
       <c r="I14" s="32" t="s">
         <v>128</v>
@@ -3841,7 +3856,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="100"/>
+      <c r="G15" s="102"/>
       <c r="H15" s="27"/>
       <c r="I15" s="32" t="s">
         <v>132</v>
@@ -3867,7 +3882,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="91" t="s">
+      <c r="G16" s="93" t="s">
         <v>119</v>
       </c>
       <c r="H16" s="27"/>
@@ -3895,7 +3910,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="99"/>
+      <c r="G17" s="101"/>
       <c r="H17" s="27"/>
       <c r="I17" s="32" t="s">
         <v>134</v>
@@ -3921,7 +3936,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="100"/>
+      <c r="G18" s="102"/>
       <c r="H18" s="27"/>
       <c r="I18" s="32" t="s">
         <v>135</v>
@@ -3947,7 +3962,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="96" t="s">
+      <c r="G19" s="98" t="s">
         <v>111</v>
       </c>
       <c r="H19" s="27"/>
@@ -3975,7 +3990,7 @@
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="97"/>
+      <c r="G20" s="99"/>
       <c r="H20" s="27"/>
       <c r="I20" s="32" t="s">
         <v>128</v>
@@ -4001,7 +4016,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="97"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="27"/>
       <c r="I21" s="32" t="s">
         <v>136</v>
@@ -4027,7 +4042,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="98"/>
+      <c r="G22" s="100"/>
       <c r="H22" s="27"/>
       <c r="I22" s="32" t="s">
         <v>137</v>
@@ -4053,11 +4068,11 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="101" t="s">
+      <c r="G23" s="103" t="s">
         <v>72</v>
       </c>
       <c r="H23" s="27"/>
-      <c r="I23" s="103" t="s">
+      <c r="I23" s="105" t="s">
         <v>128</v>
       </c>
       <c r="J23" s="27"/>
@@ -4081,9 +4096,9 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="102"/>
+      <c r="G24" s="104"/>
       <c r="H24" s="27"/>
-      <c r="I24" s="93"/>
+      <c r="I24" s="95"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -4161,7 +4176,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="96" t="s">
+      <c r="G27" s="98" t="s">
         <v>121</v>
       </c>
       <c r="H27" s="27"/>
@@ -4189,7 +4204,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="97"/>
+      <c r="G28" s="99"/>
       <c r="H28" s="27"/>
       <c r="I28" s="32" t="s">
         <v>128</v>
@@ -4215,7 +4230,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="98"/>
+      <c r="G29" s="100"/>
       <c r="H29" s="27"/>
       <c r="I29" s="32" t="s">
         <v>128</v>
@@ -4297,7 +4312,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="90" t="s">
+      <c r="G32" s="92" t="s">
         <v>88</v>
       </c>
       <c r="H32" s="27"/>
@@ -4325,7 +4340,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="90"/>
+      <c r="G33" s="92"/>
       <c r="H33" s="27"/>
       <c r="I33" s="32" t="s">
         <v>128</v>
@@ -4519,7 +4534,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="91" t="s">
+      <c r="G40" s="93" t="s">
         <v>97</v>
       </c>
       <c r="H40" s="27"/>
@@ -4547,7 +4562,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="92"/>
+      <c r="G41" s="94"/>
       <c r="H41" s="27"/>
       <c r="I41" s="32" t="s">
         <v>142</v>
@@ -4573,7 +4588,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="93"/>
+      <c r="G42" s="95"/>
       <c r="H42" s="27"/>
       <c r="I42" s="32" t="s">
         <v>128</v>
@@ -4599,7 +4614,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="104" t="s">
+      <c r="G43" s="106" t="s">
         <v>111</v>
       </c>
       <c r="H43" s="27"/>
@@ -4627,7 +4642,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="105"/>
+      <c r="G44" s="107"/>
       <c r="H44" s="27"/>
       <c r="I44" s="32" t="s">
         <v>143</v>
@@ -4653,7 +4668,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="105"/>
+      <c r="G45" s="107"/>
       <c r="H45" s="27"/>
       <c r="I45" s="32" t="s">
         <v>144</v>
@@ -4679,7 +4694,7 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="106"/>
+      <c r="G46" s="108"/>
       <c r="H46" s="27"/>
       <c r="I46" s="32" t="s">
         <v>145</v>
@@ -4705,7 +4720,7 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="107" t="s">
+      <c r="G47" s="109" t="s">
         <v>125</v>
       </c>
       <c r="H47" s="27"/>
@@ -4733,7 +4748,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="107"/>
+      <c r="G48" s="109"/>
       <c r="H48" s="27"/>
       <c r="I48" s="32" t="s">
         <v>146</v>
@@ -4759,7 +4774,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="107" t="s">
+      <c r="G49" s="109" t="s">
         <v>125</v>
       </c>
       <c r="H49" s="27"/>
@@ -4787,7 +4802,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="107"/>
+      <c r="G50" s="109"/>
       <c r="H50" s="27"/>
       <c r="I50" s="32" t="s">
         <v>146</v>
@@ -4813,7 +4828,7 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="108" t="s">
+      <c r="G51" s="110" t="s">
         <v>126</v>
       </c>
       <c r="H51" s="27"/>
@@ -4841,7 +4856,7 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="109"/>
+      <c r="G52" s="111"/>
       <c r="H52" s="27"/>
       <c r="I52" s="32" t="s">
         <v>147</v>
@@ -4867,7 +4882,7 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="110" t="s">
+      <c r="G53" s="112" t="s">
         <v>72</v>
       </c>
       <c r="H53" s="27"/>
@@ -4895,7 +4910,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="109"/>
+      <c r="G54" s="111"/>
       <c r="H54" s="27"/>
       <c r="I54" s="32" t="s">
         <v>148</v>
@@ -5178,7 +5193,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5204,21 +5219,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="111"/>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="A1" s="113"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
       <c r="D1" s="67"/>
       <c r="E1" s="70"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="113"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="115"/>
       <c r="P1" s="40" t="s">
         <v>149</v>
       </c>
@@ -5273,21 +5288,21 @@
       <c r="BK1" s="41"/>
     </row>
     <row r="2" spans="1:63" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="68"/>
       <c r="E2" s="71"/>
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="115"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
       <c r="P2" s="40" t="s">
         <v>151</v>
       </c>
@@ -5340,21 +5355,21 @@
       <c r="BK2" s="41"/>
     </row>
     <row r="3" spans="1:63" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
       <c r="D3" s="69"/>
       <c r="E3" s="72"/>
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="117"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="119"/>
       <c r="P3" s="40" t="s">
         <v>152</v>
       </c>
@@ -5529,7 +5544,7 @@
         <f>ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="120" t="s">
         <v>174</v>
       </c>
       <c r="C6" s="52" t="s">
@@ -5554,7 +5569,7 @@
       <c r="J6" s="46">
         <v>3</v>
       </c>
-      <c r="K6" s="137">
+      <c r="K6" s="86">
         <v>1</v>
       </c>
       <c r="L6" s="52" t="s">
@@ -5573,7 +5588,7 @@
         <f t="shared" ref="A7:A32" si="0">ROW()-5</f>
         <v>2</v>
       </c>
-      <c r="B7" s="119"/>
+      <c r="B7" s="121"/>
       <c r="C7" s="52" t="s">
         <v>129</v>
       </c>
@@ -5596,7 +5611,7 @@
       <c r="J7" s="46">
         <v>2</v>
       </c>
-      <c r="K7" s="137">
+      <c r="K7" s="86">
         <v>1</v>
       </c>
       <c r="L7" s="52" t="s">
@@ -5615,7 +5630,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="119"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="52" t="s">
         <v>130</v>
       </c>
@@ -5638,7 +5653,7 @@
       <c r="J8" s="46">
         <v>3</v>
       </c>
-      <c r="K8" s="137">
+      <c r="K8" s="86">
         <v>1</v>
       </c>
       <c r="L8" s="52" t="s">
@@ -5657,7 +5672,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="119"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="52" t="s">
         <v>165</v>
       </c>
@@ -5680,7 +5695,7 @@
       <c r="J9" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="K9" s="137">
+      <c r="K9" s="86">
         <v>1</v>
       </c>
       <c r="L9" s="52" t="s">
@@ -5699,7 +5714,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="119"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="51" t="s">
         <v>166</v>
       </c>
@@ -5727,7 +5742,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="119"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="52" t="s">
         <v>167</v>
       </c>
@@ -5759,7 +5774,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="52" t="s">
         <v>168</v>
       </c>
@@ -5791,7 +5806,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="119"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="52" t="s">
         <v>169</v>
       </c>
@@ -5808,8 +5823,12 @@
         <v>230</v>
       </c>
       <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
+      <c r="K13" s="86">
+        <v>1</v>
+      </c>
+      <c r="L13" s="87" t="s">
+        <v>247</v>
+      </c>
       <c r="M13" s="46"/>
       <c r="N13" s="46">
         <v>4</v>
@@ -5825,7 +5844,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="119"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="51" t="s">
         <v>172</v>
       </c>
@@ -5857,7 +5876,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="120"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="51" t="s">
         <v>173</v>
       </c>
@@ -5873,9 +5892,13 @@
       <c r="I15" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="J15" s="46"/>
+      <c r="J15" s="46">
+        <v>24</v>
+      </c>
       <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
+      <c r="L15" s="46" t="s">
+        <v>248</v>
+      </c>
       <c r="M15" s="46"/>
       <c r="N15" s="46">
         <v>4</v>
@@ -5889,7 +5912,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="126" t="s">
         <v>175</v>
       </c>
       <c r="C16" s="51" t="s">
@@ -5923,7 +5946,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="52" t="s">
         <v>177</v>
       </c>
@@ -5957,7 +5980,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="52" t="s">
         <v>178</v>
       </c>
@@ -6019,7 +6042,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="128" t="s">
         <v>180</v>
       </c>
       <c r="C20" s="52" t="s">
@@ -6053,7 +6076,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B21" s="126"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="52" t="s">
         <v>115</v>
       </c>
@@ -6085,7 +6108,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B22" s="126"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="52" t="s">
         <v>127</v>
       </c>
@@ -6117,7 +6140,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B23" s="126"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="52" t="s">
         <v>116</v>
       </c>
@@ -6149,7 +6172,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B24" s="126"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="52" t="s">
         <v>181</v>
       </c>
@@ -6181,7 +6204,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B25" s="126"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="52" t="s">
         <v>142</v>
       </c>
@@ -6213,7 +6236,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B26" s="127"/>
+      <c r="B26" s="129"/>
       <c r="C26" s="52" t="s">
         <v>182</v>
       </c>
@@ -6245,7 +6268,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="123" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="52" t="s">
@@ -6279,7 +6302,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B28" s="122"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="51" t="s">
         <v>184</v>
       </c>
@@ -6311,7 +6334,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B29" s="122"/>
+      <c r="B29" s="124"/>
       <c r="C29" s="51" t="s">
         <v>108</v>
       </c>
@@ -6345,7 +6368,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B30" s="122"/>
+      <c r="B30" s="124"/>
       <c r="C30" s="51" t="s">
         <v>109</v>
       </c>
@@ -6379,7 +6402,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B31" s="122"/>
+      <c r="B31" s="124"/>
       <c r="C31" s="51" t="s">
         <v>170</v>
       </c>
@@ -6411,7 +6434,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B32" s="123"/>
+      <c r="B32" s="125"/>
       <c r="C32" s="51" t="s">
         <v>75</v>
       </c>
@@ -7101,31 +7124,31 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="54" customFormat="1" ht="14.25">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="130" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
     </row>
     <row r="5" spans="1:15" s="54" customFormat="1" ht="14.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="129"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="131"/>
       <c r="C5" s="55" t="s">
         <v>191</v>
       </c>
@@ -7525,41 +7548,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="133" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="134" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
     </row>
     <row r="4" spans="1:7" s="54" customFormat="1" ht="14.25">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="130" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="132" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
     </row>
     <row r="5" spans="1:7" s="54" customFormat="1" ht="14.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="129"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="131"/>
       <c r="C5" s="55" t="s">
         <v>213</v>
       </c>
@@ -7796,16 +7819,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="133" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9">
       <c r="D2" s="53" t="s">
@@ -7816,31 +7839,31 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="130" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134" t="s">
+      <c r="D4" s="136"/>
+      <c r="E4" s="136" t="s">
         <v>222</v>
       </c>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134" t="s">
+      <c r="F4" s="136"/>
+      <c r="G4" s="136" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="134"/>
-      <c r="I4" s="135" t="s">
+      <c r="H4" s="136"/>
+      <c r="I4" s="137" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="54" customFormat="1" ht="14.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="129"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="131"/>
       <c r="C5" s="55" t="s">
         <v>224</v>
       </c>
@@ -7859,7 +7882,7 @@
       <c r="H5" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="I5" s="136"/>
+      <c r="I5" s="138"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="59">

--- a/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
+++ b/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="251">
   <si>
     <t>STT</t>
   </si>
@@ -1154,7 +1154,14 @@
 CRMP20803</t>
   </si>
   <si>
-    <t>CRMF2061_Ver1</t>
+    <t xml:space="preserve">CRMF2061_Ver1
+</t>
+  </si>
+  <si>
+    <t>CRMF2082_Ver8</t>
+  </si>
+  <si>
+    <t>CRMF2082_Ver9</t>
   </si>
 </sst>
 </file>
@@ -3439,8 +3446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:F46"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A23" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -5193,7 +5200,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5790,9 +5797,15 @@
       <c r="I12" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
+      <c r="J12" s="46">
+        <v>24</v>
+      </c>
+      <c r="K12" s="86">
+        <v>1</v>
+      </c>
+      <c r="L12" s="46" t="s">
+        <v>250</v>
+      </c>
       <c r="M12" s="46"/>
       <c r="N12" s="46">
         <v>4</v>
@@ -5860,9 +5873,15 @@
       <c r="I14" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
+      <c r="J14" s="46">
+        <v>24</v>
+      </c>
+      <c r="K14" s="86">
+        <v>1</v>
+      </c>
+      <c r="L14" s="46" t="s">
+        <v>249</v>
+      </c>
       <c r="M14" s="46"/>
       <c r="N14" s="46">
         <v>8</v>
@@ -5871,7 +5890,7 @@
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
     </row>
-    <row r="15" spans="1:63" s="8" customFormat="1" ht="15">
+    <row r="15" spans="1:63" s="8" customFormat="1" ht="30">
       <c r="A15" s="62">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5895,8 +5914,10 @@
       <c r="J15" s="46">
         <v>24</v>
       </c>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46" t="s">
+      <c r="K15" s="86">
+        <v>1</v>
+      </c>
+      <c r="L15" s="52" t="s">
         <v>248</v>
       </c>
       <c r="M15" s="46"/>

--- a/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
+++ b/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trợ giúp" sheetId="7" r:id="rId1"/>
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="253">
   <si>
     <t>STT</t>
   </si>
@@ -1162,6 +1162,12 @@
   </si>
   <si>
     <t>CRMF2082_Ver9</t>
+  </si>
+  <si>
+    <t>SOF2000_Ver9</t>
+  </si>
+  <si>
+    <t>25;26;27</t>
   </si>
 </sst>
 </file>
@@ -1609,7 +1615,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1675,9 +1681,6 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1753,12 +1756,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1818,6 +1815,13 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1830,6 +1834,27 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1863,6 +1888,15 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1871,27 +1905,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2768,7 +2781,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3446,8 +3459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A23" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -3466,23 +3479,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="97"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="104"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1">
       <c r="A2" s="23" t="s">
@@ -3549,7 +3562,7 @@
         <v>117</v>
       </c>
       <c r="H3" s="27"/>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J3" s="27"/>
@@ -3567,17 +3580,17 @@
       <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="87" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="100" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="27"/>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="31" t="s">
         <v>129</v>
       </c>
       <c r="J4" s="27"/>
@@ -3595,15 +3608,15 @@
       <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="87" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="102"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="27"/>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="31" t="s">
         <v>130</v>
       </c>
       <c r="J5" s="27"/>
@@ -3621,17 +3634,17 @@
       <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="87" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="100" t="s">
         <v>110</v>
       </c>
       <c r="H6" s="27"/>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J6" s="27"/>
@@ -3649,15 +3662,15 @@
       <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="87" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="101"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="27"/>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J7" s="27"/>
@@ -3675,15 +3688,15 @@
       <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="87" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="101"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="27"/>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J8" s="27"/>
@@ -3701,15 +3714,15 @@
       <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="87" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="101"/>
+      <c r="G9" s="108"/>
       <c r="H9" s="27"/>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J9" s="27"/>
@@ -3733,9 +3746,9 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="101"/>
+      <c r="G10" s="108"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="31" t="s">
         <v>131</v>
       </c>
       <c r="J10" s="27"/>
@@ -3753,15 +3766,15 @@
       <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="87" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="101"/>
+      <c r="G11" s="108"/>
       <c r="H11" s="27"/>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J11" s="27"/>
@@ -3779,15 +3792,15 @@
       <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="87" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="101"/>
+      <c r="G12" s="108"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J12" s="27"/>
@@ -3811,9 +3824,9 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="101"/>
+      <c r="G13" s="108"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J13" s="27"/>
@@ -3837,9 +3850,9 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="101"/>
+      <c r="G14" s="108"/>
       <c r="H14" s="27"/>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J14" s="27"/>
@@ -3857,15 +3870,15 @@
       <c r="B15" s="6">
         <v>29</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="87" t="s">
         <v>84</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="102"/>
+      <c r="G15" s="109"/>
       <c r="H15" s="27"/>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="31" t="s">
         <v>132</v>
       </c>
       <c r="J15" s="27"/>
@@ -3883,17 +3896,17 @@
       <c r="B16" s="6">
         <v>11</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="87" t="s">
         <v>66</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="93" t="s">
+      <c r="G16" s="100" t="s">
         <v>119</v>
       </c>
       <c r="H16" s="27"/>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="31" t="s">
         <v>133</v>
       </c>
       <c r="J16" s="27"/>
@@ -3911,15 +3924,15 @@
       <c r="B17" s="6">
         <v>17</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="87" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="101"/>
+      <c r="G17" s="108"/>
       <c r="H17" s="27"/>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="31" t="s">
         <v>134</v>
       </c>
       <c r="J17" s="27"/>
@@ -3937,15 +3950,15 @@
       <c r="B18" s="6">
         <v>22</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="87" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="102"/>
+      <c r="G18" s="109"/>
       <c r="H18" s="27"/>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="31" t="s">
         <v>135</v>
       </c>
       <c r="J18" s="27"/>
@@ -3969,11 +3982,11 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="98" t="s">
+      <c r="G19" s="105" t="s">
         <v>111</v>
       </c>
       <c r="H19" s="27"/>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J19" s="27"/>
@@ -3997,9 +4010,9 @@
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="99"/>
+      <c r="G20" s="106"/>
       <c r="H20" s="27"/>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J20" s="27"/>
@@ -4023,9 +4036,9 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="99"/>
+      <c r="G21" s="106"/>
       <c r="H21" s="27"/>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="31" t="s">
         <v>136</v>
       </c>
       <c r="J21" s="27"/>
@@ -4049,9 +4062,9 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="100"/>
+      <c r="G22" s="107"/>
       <c r="H22" s="27"/>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="31" t="s">
         <v>137</v>
       </c>
       <c r="J22" s="27"/>
@@ -4075,11 +4088,11 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="103" t="s">
+      <c r="G23" s="113" t="s">
         <v>72</v>
       </c>
       <c r="H23" s="27"/>
-      <c r="I23" s="105" t="s">
+      <c r="I23" s="115" t="s">
         <v>128</v>
       </c>
       <c r="J23" s="27"/>
@@ -4103,9 +4116,9 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="104"/>
+      <c r="G24" s="114"/>
       <c r="H24" s="27"/>
-      <c r="I24" s="95"/>
+      <c r="I24" s="102"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -4131,7 +4144,7 @@
         <v>120</v>
       </c>
       <c r="H25" s="27"/>
-      <c r="I25" s="32" t="s">
+      <c r="I25" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J25" s="27"/>
@@ -4149,17 +4162,17 @@
       <c r="B26" s="6">
         <v>23</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="87" t="s">
         <v>79</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="35" t="s">
         <v>112</v>
       </c>
       <c r="H26" s="27"/>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="31" t="s">
         <v>138</v>
       </c>
       <c r="J26" s="27"/>
@@ -4177,17 +4190,17 @@
       <c r="B27" s="6">
         <v>24</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="98" t="s">
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="110" t="s">
         <v>121</v>
       </c>
       <c r="H27" s="27"/>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J27" s="27"/>
@@ -4205,15 +4218,15 @@
       <c r="B28" s="6">
         <v>25</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="99"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="111"/>
       <c r="H28" s="27"/>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J28" s="27"/>
@@ -4231,15 +4244,15 @@
       <c r="B29" s="6">
         <v>26</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="100"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="112"/>
       <c r="H29" s="27"/>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J29" s="27"/>
@@ -4267,7 +4280,7 @@
         <v>113</v>
       </c>
       <c r="H30" s="27"/>
-      <c r="I30" s="32" t="s">
+      <c r="I30" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J30" s="27"/>
@@ -4291,11 +4304,11 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="31" t="s">
         <v>122</v>
       </c>
       <c r="H31" s="27"/>
-      <c r="I31" s="32" t="s">
+      <c r="I31" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J31" s="27"/>
@@ -4313,17 +4326,17 @@
       <c r="B32" s="6">
         <v>33</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="32" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="92" t="s">
+      <c r="G32" s="99" t="s">
         <v>88</v>
       </c>
       <c r="H32" s="27"/>
-      <c r="I32" s="32" t="s">
+      <c r="I32" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J32" s="27"/>
@@ -4341,15 +4354,15 @@
       <c r="B33" s="6">
         <v>34</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="32" t="s">
         <v>86</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="92"/>
+      <c r="G33" s="99"/>
       <c r="H33" s="27"/>
-      <c r="I33" s="32" t="s">
+      <c r="I33" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J33" s="27"/>
@@ -4373,11 +4386,11 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="33" t="s">
         <v>123</v>
       </c>
       <c r="H34" s="27"/>
-      <c r="I34" s="32" t="s">
+      <c r="I34" s="31" t="s">
         <v>139</v>
       </c>
       <c r="J34" s="27"/>
@@ -4395,17 +4408,17 @@
       <c r="B35" s="6">
         <v>39</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="34" t="s">
         <v>89</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="31" t="s">
         <v>124</v>
       </c>
       <c r="H35" s="27"/>
-      <c r="I35" s="32" t="s">
+      <c r="I35" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J35" s="27"/>
@@ -4423,17 +4436,17 @@
       <c r="B36" s="6">
         <v>40</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="36" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="39" t="s">
+      <c r="G36" s="38" t="s">
         <v>115</v>
       </c>
       <c r="H36" s="27"/>
-      <c r="I36" s="32" t="s">
+      <c r="I36" s="31" t="s">
         <v>140</v>
       </c>
       <c r="J36" s="27"/>
@@ -4457,11 +4470,11 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="38" t="s">
         <v>127</v>
       </c>
       <c r="H37" s="27"/>
-      <c r="I37" s="32" t="s">
+      <c r="I37" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J37" s="27"/>
@@ -4485,11 +4498,11 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="31" t="s">
         <v>116</v>
       </c>
       <c r="H38" s="27"/>
-      <c r="I38" s="32" t="s">
+      <c r="I38" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J38" s="27"/>
@@ -4512,12 +4525,12 @@
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="38"/>
+      <c r="F39" s="37"/>
       <c r="G39" s="28" t="s">
         <v>113</v>
       </c>
       <c r="H39" s="27"/>
-      <c r="I39" s="32" t="s">
+      <c r="I39" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J39" s="27"/>
@@ -4541,11 +4554,11 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="93" t="s">
+      <c r="G40" s="100" t="s">
         <v>97</v>
       </c>
       <c r="H40" s="27"/>
-      <c r="I40" s="32" t="s">
+      <c r="I40" s="31" t="s">
         <v>141</v>
       </c>
       <c r="J40" s="27"/>
@@ -4569,9 +4582,9 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="94"/>
+      <c r="G41" s="101"/>
       <c r="H41" s="27"/>
-      <c r="I41" s="32" t="s">
+      <c r="I41" s="31" t="s">
         <v>142</v>
       </c>
       <c r="J41" s="27"/>
@@ -4595,9 +4608,9 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="95"/>
+      <c r="G42" s="102"/>
       <c r="H42" s="27"/>
-      <c r="I42" s="32" t="s">
+      <c r="I42" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J42" s="27"/>
@@ -4621,11 +4634,11 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="106" t="s">
+      <c r="G43" s="92" t="s">
         <v>111</v>
       </c>
       <c r="H43" s="27"/>
-      <c r="I43" s="32" t="s">
+      <c r="I43" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J43" s="27"/>
@@ -4649,9 +4662,9 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="107"/>
+      <c r="G44" s="93"/>
       <c r="H44" s="27"/>
-      <c r="I44" s="32" t="s">
+      <c r="I44" s="31" t="s">
         <v>143</v>
       </c>
       <c r="J44" s="27"/>
@@ -4675,9 +4688,9 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="107"/>
+      <c r="G45" s="93"/>
       <c r="H45" s="27"/>
-      <c r="I45" s="32" t="s">
+      <c r="I45" s="31" t="s">
         <v>144</v>
       </c>
       <c r="J45" s="27"/>
@@ -4701,9 +4714,9 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="108"/>
+      <c r="G46" s="94"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="32" t="s">
+      <c r="I46" s="31" t="s">
         <v>145</v>
       </c>
       <c r="J46" s="27"/>
@@ -4727,11 +4740,11 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="109" t="s">
+      <c r="G47" s="95" t="s">
         <v>125</v>
       </c>
       <c r="H47" s="27"/>
-      <c r="I47" s="32" t="s">
+      <c r="I47" s="31" t="s">
         <v>146</v>
       </c>
       <c r="J47" s="27"/>
@@ -4755,9 +4768,9 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="109"/>
+      <c r="G48" s="95"/>
       <c r="H48" s="27"/>
-      <c r="I48" s="32" t="s">
+      <c r="I48" s="31" t="s">
         <v>146</v>
       </c>
       <c r="J48" s="27"/>
@@ -4781,11 +4794,11 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="109" t="s">
+      <c r="G49" s="95" t="s">
         <v>125</v>
       </c>
       <c r="H49" s="27"/>
-      <c r="I49" s="32" t="s">
+      <c r="I49" s="31" t="s">
         <v>146</v>
       </c>
       <c r="J49" s="27"/>
@@ -4809,9 +4822,9 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="109"/>
+      <c r="G50" s="95"/>
       <c r="H50" s="27"/>
-      <c r="I50" s="32" t="s">
+      <c r="I50" s="31" t="s">
         <v>146</v>
       </c>
       <c r="J50" s="27"/>
@@ -4835,11 +4848,11 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="110" t="s">
+      <c r="G51" s="96" t="s">
         <v>126</v>
       </c>
       <c r="H51" s="27"/>
-      <c r="I51" s="32" t="s">
+      <c r="I51" s="31" t="s">
         <v>147</v>
       </c>
       <c r="J51" s="27"/>
@@ -4863,9 +4876,9 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="111"/>
+      <c r="G52" s="97"/>
       <c r="H52" s="27"/>
-      <c r="I52" s="32" t="s">
+      <c r="I52" s="31" t="s">
         <v>147</v>
       </c>
       <c r="J52" s="27"/>
@@ -4889,11 +4902,11 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="112" t="s">
+      <c r="G53" s="98" t="s">
         <v>72</v>
       </c>
       <c r="H53" s="27"/>
-      <c r="I53" s="32" t="s">
+      <c r="I53" s="31" t="s">
         <v>148</v>
       </c>
       <c r="J53" s="27"/>
@@ -4917,9 +4930,9 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="111"/>
+      <c r="G54" s="97"/>
       <c r="H54" s="27"/>
-      <c r="I54" s="32" t="s">
+      <c r="I54" s="31" t="s">
         <v>148</v>
       </c>
       <c r="J54" s="27"/>
@@ -4951,11 +4964,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G40:G42"/>
     <mergeCell ref="A1:O1"/>
@@ -4966,6 +4974,11 @@
     <mergeCell ref="G6:G15"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
   </mergeCells>
   <conditionalFormatting sqref="C10">
     <cfRule type="expression" dxfId="49" priority="95" stopIfTrue="1">
@@ -5196,1333 +5209,1337 @@
   </sheetPr>
   <dimension ref="A1:BK144"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="43" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" style="77" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="43" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" style="43" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="43" customWidth="1"/>
-    <col min="9" max="11" width="17.42578125" style="43" customWidth="1"/>
-    <col min="12" max="12" width="36.140625" style="43" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" style="43" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="23" style="43" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" style="43" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="43" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="28" style="43" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" style="74" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="42" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" style="42" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="42" customWidth="1"/>
+    <col min="9" max="11" width="17.42578125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="36.140625" style="42" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" style="42" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="42" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" style="42" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="42" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="28" style="42" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="19.5703125" style="8" customWidth="1"/>
     <col min="19" max="63" width="9.140625" style="8"/>
-    <col min="64" max="16384" width="9.140625" style="43"/>
+    <col min="64" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="113"/>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="40" t="s">
+    <row r="1" spans="1:63" s="41" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="116"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="41"/>
-      <c r="BA1" s="41"/>
-      <c r="BB1" s="41"/>
-      <c r="BC1" s="41"/>
-      <c r="BD1" s="41"/>
-      <c r="BE1" s="41"/>
-      <c r="BF1" s="41"/>
-      <c r="BG1" s="41"/>
-      <c r="BH1" s="41"/>
-      <c r="BI1" s="41"/>
-      <c r="BJ1" s="41"/>
-      <c r="BK1" s="41"/>
-    </row>
-    <row r="2" spans="1:63" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="40" t="s">
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="40"/>
+      <c r="BE1" s="40"/>
+      <c r="BF1" s="40"/>
+      <c r="BG1" s="40"/>
+      <c r="BH1" s="40"/>
+      <c r="BI1" s="40"/>
+      <c r="BJ1" s="40"/>
+      <c r="BK1" s="40"/>
+    </row>
+    <row r="2" spans="1:63" s="41" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="41"/>
-      <c r="BB2" s="41"/>
-      <c r="BC2" s="41"/>
-      <c r="BD2" s="41"/>
-      <c r="BE2" s="41"/>
-      <c r="BF2" s="41"/>
-      <c r="BG2" s="41"/>
-      <c r="BH2" s="41"/>
-      <c r="BI2" s="41"/>
-      <c r="BJ2" s="41"/>
-      <c r="BK2" s="41"/>
-    </row>
-    <row r="3" spans="1:63" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="40" t="s">
+      <c r="Q2" s="39"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
+      <c r="BB2" s="40"/>
+      <c r="BC2" s="40"/>
+      <c r="BD2" s="40"/>
+      <c r="BE2" s="40"/>
+      <c r="BF2" s="40"/>
+      <c r="BG2" s="40"/>
+      <c r="BH2" s="40"/>
+      <c r="BI2" s="40"/>
+      <c r="BJ2" s="40"/>
+      <c r="BK2" s="40"/>
+    </row>
+    <row r="3" spans="1:63" s="41" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="41"/>
-      <c r="BD3" s="41"/>
-      <c r="BE3" s="41"/>
-      <c r="BF3" s="41"/>
-      <c r="BG3" s="41"/>
-      <c r="BH3" s="41"/>
-      <c r="BI3" s="41"/>
-      <c r="BJ3" s="41"/>
-      <c r="BK3" s="41"/>
-    </row>
-    <row r="4" spans="1:63" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="41"/>
-      <c r="BJ4" s="41"/>
-      <c r="BK4" s="41"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40"/>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40"/>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40"/>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="40"/>
+    </row>
+    <row r="4" spans="1:63" s="41" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="40"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="40"/>
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="40"/>
+      <c r="BC4" s="40"/>
+      <c r="BD4" s="40"/>
+      <c r="BE4" s="40"/>
+      <c r="BF4" s="40"/>
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="40"/>
+      <c r="BI4" s="40"/>
+      <c r="BJ4" s="40"/>
+      <c r="BK4" s="40"/>
     </row>
     <row r="5" spans="1:63" ht="52.5" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="M5" s="44" t="s">
+      <c r="M5" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="N5" s="44" t="s">
+      <c r="N5" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="O5" s="44" t="s">
+      <c r="O5" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="Q5" s="44" t="s">
+      <c r="Q5" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:63" s="8" customFormat="1" ht="60">
-      <c r="A6" s="62">
+      <c r="A6" s="61">
         <f>ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="123" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="81">
         <v>3</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="75">
         <v>0.1</v>
       </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="46" t="s">
+      <c r="G6" s="75"/>
+      <c r="H6" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="45">
         <v>3</v>
       </c>
-      <c r="K6" s="86">
+      <c r="K6" s="83">
         <v>1</v>
       </c>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="M6" s="63"/>
-      <c r="N6" s="46">
+      <c r="M6" s="62"/>
+      <c r="N6" s="45">
         <v>8</v>
       </c>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
     </row>
     <row r="7" spans="1:63" s="8" customFormat="1" ht="60">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <f t="shared" ref="A7:A32" si="0">ROW()-5</f>
         <v>2</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="52" t="s">
+      <c r="B7" s="124"/>
+      <c r="C7" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7" s="81">
         <v>2</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="75">
         <v>1</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="46" t="s">
+      <c r="G7" s="51"/>
+      <c r="H7" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="45">
         <v>2</v>
       </c>
-      <c r="K7" s="86">
+      <c r="K7" s="83">
         <v>1</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="M7" s="63"/>
-      <c r="N7" s="46">
+      <c r="M7" s="62"/>
+      <c r="N7" s="45">
         <v>8</v>
       </c>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-    </row>
-    <row r="8" spans="1:63" s="8" customFormat="1" ht="60">
-      <c r="A8" s="62">
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+    </row>
+    <row r="8" spans="1:63" s="8" customFormat="1" ht="120">
+      <c r="A8" s="61">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="52" t="s">
+      <c r="B8" s="124"/>
+      <c r="C8" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="84">
+      <c r="D8" s="81">
         <v>3</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="75">
         <v>0.2</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="46" t="s">
+      <c r="G8" s="75"/>
+      <c r="H8" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="45">
         <v>3</v>
       </c>
-      <c r="K8" s="86">
+      <c r="K8" s="83">
         <v>1</v>
       </c>
-      <c r="L8" s="52" t="s">
+      <c r="L8" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="46">
+      <c r="M8" s="62"/>
+      <c r="N8" s="45">
         <v>8</v>
       </c>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-    </row>
-    <row r="9" spans="1:63" s="8" customFormat="1" ht="90">
-      <c r="A9" s="62">
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+    </row>
+    <row r="9" spans="1:63" s="8" customFormat="1" ht="150">
+      <c r="A9" s="61">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="52" t="s">
+      <c r="B9" s="124"/>
+      <c r="C9" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="81" t="s">
         <v>239</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="75">
         <v>1</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="46" t="s">
+      <c r="G9" s="51"/>
+      <c r="H9" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="K9" s="86">
+      <c r="K9" s="83">
         <v>1</v>
       </c>
-      <c r="L9" s="52" t="s">
+      <c r="L9" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46">
+      <c r="M9" s="45"/>
+      <c r="N9" s="45">
         <v>10</v>
       </c>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
     </row>
     <row r="10" spans="1:63" s="8" customFormat="1" ht="15" hidden="1">
-      <c r="A10" s="45">
+      <c r="A10" s="44">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="121"/>
-      <c r="C10" s="51" t="s">
+      <c r="B10" s="124"/>
+      <c r="C10" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="46" t="s">
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
     </row>
     <row r="11" spans="1:63" s="8" customFormat="1" ht="15">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="52" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="78">
+      <c r="D11" s="51"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="75">
         <v>0</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="46" t="s">
+      <c r="G11" s="51"/>
+      <c r="H11" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46">
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45">
         <v>4</v>
       </c>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
     </row>
     <row r="12" spans="1:63" s="8" customFormat="1" ht="30">
-      <c r="A12" s="45">
+      <c r="A12" s="44">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="52" t="s">
+      <c r="B12" s="124"/>
+      <c r="C12" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="78">
+      <c r="D12" s="51"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="75">
         <v>0</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="46" t="s">
+      <c r="G12" s="51"/>
+      <c r="H12" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="45">
         <v>24</v>
       </c>
-      <c r="K12" s="86">
+      <c r="K12" s="83">
         <v>1</v>
       </c>
-      <c r="L12" s="46" t="s">
+      <c r="L12" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46">
+      <c r="M12" s="45"/>
+      <c r="N12" s="45">
         <v>4</v>
       </c>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
     </row>
     <row r="13" spans="1:63" s="8" customFormat="1" ht="45">
-      <c r="A13" s="62">
+      <c r="A13" s="61">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="52" t="s">
+      <c r="B13" s="124"/>
+      <c r="C13" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="78">
+      <c r="D13" s="51"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="75">
         <v>0</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="46" t="s">
+      <c r="G13" s="51"/>
+      <c r="H13" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="86">
+      <c r="J13" s="45"/>
+      <c r="K13" s="83">
         <v>1</v>
       </c>
-      <c r="L13" s="87" t="s">
+      <c r="L13" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46">
+      <c r="M13" s="45"/>
+      <c r="N13" s="45">
         <v>4</v>
       </c>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="52" t="s">
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="51" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:63" s="8" customFormat="1" ht="45">
-      <c r="A14" s="45">
+      <c r="A14" s="44">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="51" t="s">
+      <c r="B14" s="124"/>
+      <c r="C14" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="79">
+      <c r="D14" s="50"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="76">
         <v>0</v>
       </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="46" t="s">
+      <c r="G14" s="50"/>
+      <c r="H14" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="45">
         <v>24</v>
       </c>
-      <c r="K14" s="86">
+      <c r="K14" s="83">
         <v>1</v>
       </c>
-      <c r="L14" s="46" t="s">
+      <c r="L14" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46">
+      <c r="M14" s="45"/>
+      <c r="N14" s="45">
         <v>8</v>
       </c>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
     </row>
     <row r="15" spans="1:63" s="8" customFormat="1" ht="30">
-      <c r="A15" s="62">
+      <c r="A15" s="61">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="51" t="s">
+      <c r="B15" s="125"/>
+      <c r="C15" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="79">
+      <c r="D15" s="50"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="76">
         <v>0</v>
       </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="46" t="s">
+      <c r="G15" s="50"/>
+      <c r="H15" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="45">
         <v>24</v>
       </c>
-      <c r="K15" s="86">
+      <c r="K15" s="83">
         <v>1</v>
       </c>
-      <c r="L15" s="52" t="s">
+      <c r="L15" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46">
+      <c r="M15" s="45"/>
+      <c r="N15" s="45">
         <v>4</v>
       </c>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
     </row>
     <row r="16" spans="1:63" s="8" customFormat="1" ht="30">
-      <c r="A16" s="62">
+      <c r="A16" s="61">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="79">
+      <c r="D16" s="50"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="76">
         <v>0</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="46" t="s">
+      <c r="G16" s="50"/>
+      <c r="H16" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46">
+      <c r="J16" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45">
         <v>8</v>
       </c>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
     </row>
     <row r="17" spans="1:17" s="8" customFormat="1" ht="75">
-      <c r="A17" s="45">
+      <c r="A17" s="44">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="126"/>
-      <c r="C17" s="52" t="s">
+      <c r="B17" s="129"/>
+      <c r="C17" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="79">
+      <c r="D17" s="50"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="76">
         <v>0</v>
       </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="46" t="s">
+      <c r="G17" s="50"/>
+      <c r="H17" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46">
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45">
         <v>2</v>
       </c>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="52" t="s">
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="51" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="8" customFormat="1" ht="15">
-      <c r="A18" s="62">
+      <c r="A18" s="61">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="52" t="s">
+      <c r="B18" s="130"/>
+      <c r="C18" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="79">
+      <c r="D18" s="50"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="76">
         <v>0</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="46" t="s">
+      <c r="G18" s="50"/>
+      <c r="H18" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46">
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45">
         <v>8</v>
       </c>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
     </row>
     <row r="19" spans="1:17" s="8" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A19" s="45">
+      <c r="A19" s="44">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="46" t="s">
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
     </row>
     <row r="20" spans="1:17" s="8" customFormat="1" ht="30">
-      <c r="A20" s="45">
+      <c r="A20" s="44">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="131" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="79">
+      <c r="D20" s="50"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="76">
         <v>0</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="46" t="s">
+      <c r="G20" s="50"/>
+      <c r="H20" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46">
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45">
         <v>1</v>
       </c>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="52"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="51"/>
     </row>
     <row r="21" spans="1:17" s="8" customFormat="1" ht="30">
-      <c r="A21" s="45">
+      <c r="A21" s="44">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B21" s="128"/>
-      <c r="C21" s="52" t="s">
+      <c r="B21" s="131"/>
+      <c r="C21" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="79">
+      <c r="D21" s="50"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="76">
         <v>0</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="46" t="s">
+      <c r="G21" s="50"/>
+      <c r="H21" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="I21" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46">
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45">
         <v>2</v>
       </c>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
     </row>
     <row r="22" spans="1:17" s="8" customFormat="1" ht="30">
-      <c r="A22" s="45">
+      <c r="A22" s="44">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B22" s="128"/>
-      <c r="C22" s="52" t="s">
+      <c r="B22" s="131"/>
+      <c r="C22" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="79">
+      <c r="D22" s="50"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="76">
         <v>0</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="46" t="s">
+      <c r="G22" s="50"/>
+      <c r="H22" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="46">
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="45">
         <v>8</v>
       </c>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
     </row>
     <row r="23" spans="1:17" s="8" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A23" s="45">
+      <c r="A23" s="44">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B23" s="128"/>
-      <c r="C23" s="52" t="s">
+      <c r="B23" s="131"/>
+      <c r="C23" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="79">
+      <c r="D23" s="50"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="76">
         <v>0</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="46" t="s">
+      <c r="G23" s="50"/>
+      <c r="H23" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I23" s="46" t="s">
+      <c r="I23" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46">
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45">
         <v>4</v>
       </c>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
     </row>
     <row r="24" spans="1:17" s="8" customFormat="1" ht="15">
-      <c r="A24" s="62">
+      <c r="A24" s="61">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B24" s="128"/>
-      <c r="C24" s="52" t="s">
+      <c r="B24" s="131"/>
+      <c r="C24" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="79">
+      <c r="D24" s="50"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="76">
         <v>0</v>
       </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="46" t="s">
+      <c r="G24" s="50"/>
+      <c r="H24" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46">
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45">
         <v>8</v>
       </c>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
     </row>
     <row r="25" spans="1:17" s="8" customFormat="1" ht="30">
-      <c r="A25" s="45">
+      <c r="A25" s="44">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B25" s="128"/>
-      <c r="C25" s="52" t="s">
+      <c r="B25" s="131"/>
+      <c r="C25" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="79">
+      <c r="D25" s="50"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="76">
         <v>0</v>
       </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="46" t="s">
+      <c r="G25" s="50"/>
+      <c r="H25" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I25" s="46" t="s">
+      <c r="I25" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46">
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45">
         <v>6</v>
       </c>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
     </row>
     <row r="26" spans="1:17" s="8" customFormat="1" ht="30">
-      <c r="A26" s="45">
+      <c r="A26" s="44">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B26" s="129"/>
-      <c r="C26" s="52" t="s">
+      <c r="B26" s="132"/>
+      <c r="C26" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="79">
+      <c r="D26" s="50"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="76">
         <v>0</v>
       </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="46" t="s">
+      <c r="G26" s="50"/>
+      <c r="H26" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I26" s="46" t="s">
+      <c r="I26" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45">
         <v>1</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
     </row>
     <row r="27" spans="1:17" s="8" customFormat="1" ht="60">
-      <c r="A27" s="45">
+      <c r="A27" s="44">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="79">
+      <c r="D27" s="50"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="76">
         <v>0</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="46" t="s">
+      <c r="G27" s="50"/>
+      <c r="H27" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46">
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45">
         <v>8</v>
       </c>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
     </row>
     <row r="28" spans="1:17" s="8" customFormat="1" ht="30">
-      <c r="A28" s="45">
+      <c r="A28" s="44">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B28" s="124"/>
-      <c r="C28" s="51" t="s">
+      <c r="B28" s="127"/>
+      <c r="C28" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="79">
+      <c r="D28" s="50"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="76">
         <v>0</v>
       </c>
-      <c r="G28" s="51"/>
-      <c r="H28" s="46" t="s">
+      <c r="G28" s="50"/>
+      <c r="H28" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I28" s="46" t="s">
+      <c r="I28" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46">
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45">
         <v>8</v>
       </c>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="52"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="51"/>
     </row>
     <row r="29" spans="1:17" s="8" customFormat="1" ht="30">
-      <c r="A29" s="62">
+      <c r="A29" s="61">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B29" s="124"/>
-      <c r="C29" s="51" t="s">
+      <c r="B29" s="127"/>
+      <c r="C29" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="79">
+      <c r="D29" s="50"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="76">
         <v>0</v>
       </c>
-      <c r="G29" s="51"/>
-      <c r="H29" s="46" t="s">
+      <c r="G29" s="50"/>
+      <c r="H29" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I29" s="46" t="s">
+      <c r="I29" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46">
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45">
         <v>8</v>
       </c>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="61" t="s">
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="60" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="8" customFormat="1" ht="30">
-      <c r="A30" s="45">
+      <c r="A30" s="44">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="51" t="s">
+      <c r="B30" s="127"/>
+      <c r="C30" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="79">
+      <c r="D30" s="50"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="76">
         <v>0</v>
       </c>
-      <c r="G30" s="51"/>
-      <c r="H30" s="46" t="s">
+      <c r="G30" s="50"/>
+      <c r="H30" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I30" s="46" t="s">
+      <c r="I30" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46">
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45">
         <v>8</v>
       </c>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="60" t="s">
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="59" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="8" customFormat="1" ht="45">
-      <c r="A31" s="45">
+      <c r="A31" s="44">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B31" s="124"/>
-      <c r="C31" s="51" t="s">
+      <c r="B31" s="127"/>
+      <c r="C31" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="79">
+      <c r="D31" s="50"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="76">
         <v>0</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="46" t="s">
+      <c r="G31" s="50"/>
+      <c r="H31" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I31" s="46" t="s">
+      <c r="I31" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46">
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45">
         <v>8</v>
       </c>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="61"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="60"/>
     </row>
     <row r="32" spans="1:17" s="8" customFormat="1" ht="30">
-      <c r="A32" s="62">
+      <c r="A32" s="61">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B32" s="125"/>
-      <c r="C32" s="51" t="s">
+      <c r="B32" s="128"/>
+      <c r="C32" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="79">
+      <c r="D32" s="50"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="76">
         <v>0</v>
       </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="46" t="s">
+      <c r="G32" s="50"/>
+      <c r="H32" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="I32" s="46" t="s">
+      <c r="I32" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46">
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45">
         <v>8</v>
       </c>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="60"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="59"/>
     </row>
     <row r="33" spans="3:16" s="8" customFormat="1">
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="N33" s="48">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="N33" s="47">
         <f>SUM(N6:N32)</f>
         <v>154</v>
       </c>
-      <c r="O33" s="48">
+      <c r="O33" s="47">
         <f>SUM(O6:O32)</f>
         <v>0</v>
       </c>
-      <c r="P33" s="48">
+      <c r="P33" s="47">
         <f>SUM(P6:P32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:16" s="8" customFormat="1">
-      <c r="M34" s="49" t="s">
+      <c r="M34" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="N34" s="48">
+      <c r="N34" s="47">
         <f>N33+O33+P33</f>
         <v>154</v>
       </c>
-      <c r="O34" s="48" t="s">
+      <c r="O34" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="P34" s="48"/>
+      <c r="P34" s="47"/>
     </row>
     <row r="35" spans="3:16" s="8" customFormat="1">
-      <c r="N35" s="50">
+      <c r="N35" s="49">
         <f>N34/8/20</f>
         <v>0.96250000000000002</v>
       </c>
-      <c r="O35" s="48" t="s">
+      <c r="O35" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="P35" s="48"/>
+      <c r="P35" s="47"/>
     </row>
     <row r="36" spans="3:16" s="8" customFormat="1">
       <c r="N36" s="8">
@@ -6543,324 +6560,324 @@
       </c>
     </row>
     <row r="39" spans="3:16" s="8" customFormat="1">
-      <c r="E39" s="76"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
+      <c r="E39" s="73"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
     </row>
     <row r="40" spans="3:16" s="8" customFormat="1">
-      <c r="E40" s="76"/>
+      <c r="E40" s="73"/>
     </row>
     <row r="41" spans="3:16" s="8" customFormat="1">
-      <c r="E41" s="76"/>
+      <c r="E41" s="73"/>
     </row>
     <row r="42" spans="3:16" s="8" customFormat="1">
-      <c r="E42" s="76"/>
+      <c r="E42" s="73"/>
     </row>
     <row r="43" spans="3:16" s="8" customFormat="1">
-      <c r="E43" s="76"/>
+      <c r="E43" s="73"/>
     </row>
     <row r="44" spans="3:16" s="8" customFormat="1">
-      <c r="E44" s="76"/>
+      <c r="E44" s="73"/>
     </row>
     <row r="45" spans="3:16" s="8" customFormat="1">
-      <c r="E45" s="76"/>
+      <c r="E45" s="73"/>
     </row>
     <row r="46" spans="3:16" s="8" customFormat="1">
-      <c r="E46" s="76"/>
+      <c r="E46" s="73"/>
     </row>
     <row r="47" spans="3:16" s="8" customFormat="1">
-      <c r="E47" s="76"/>
+      <c r="E47" s="73"/>
     </row>
     <row r="48" spans="3:16" s="8" customFormat="1">
-      <c r="E48" s="76"/>
+      <c r="E48" s="73"/>
     </row>
     <row r="49" spans="5:5" s="8" customFormat="1">
-      <c r="E49" s="76"/>
+      <c r="E49" s="73"/>
     </row>
     <row r="50" spans="5:5" s="8" customFormat="1">
-      <c r="E50" s="76"/>
+      <c r="E50" s="73"/>
     </row>
     <row r="51" spans="5:5" s="8" customFormat="1">
-      <c r="E51" s="76"/>
+      <c r="E51" s="73"/>
     </row>
     <row r="52" spans="5:5" s="8" customFormat="1">
-      <c r="E52" s="76"/>
+      <c r="E52" s="73"/>
     </row>
     <row r="53" spans="5:5" s="8" customFormat="1">
-      <c r="E53" s="76"/>
+      <c r="E53" s="73"/>
     </row>
     <row r="54" spans="5:5" s="8" customFormat="1">
-      <c r="E54" s="76"/>
+      <c r="E54" s="73"/>
     </row>
     <row r="55" spans="5:5" s="8" customFormat="1">
-      <c r="E55" s="76"/>
+      <c r="E55" s="73"/>
     </row>
     <row r="56" spans="5:5" s="8" customFormat="1">
-      <c r="E56" s="76"/>
+      <c r="E56" s="73"/>
     </row>
     <row r="57" spans="5:5" s="8" customFormat="1">
-      <c r="E57" s="76"/>
+      <c r="E57" s="73"/>
     </row>
     <row r="58" spans="5:5" s="8" customFormat="1">
-      <c r="E58" s="76"/>
+      <c r="E58" s="73"/>
     </row>
     <row r="59" spans="5:5" s="8" customFormat="1">
-      <c r="E59" s="76"/>
+      <c r="E59" s="73"/>
     </row>
     <row r="60" spans="5:5" s="8" customFormat="1">
-      <c r="E60" s="76"/>
+      <c r="E60" s="73"/>
     </row>
     <row r="61" spans="5:5" s="8" customFormat="1">
-      <c r="E61" s="76"/>
+      <c r="E61" s="73"/>
     </row>
     <row r="62" spans="5:5" s="8" customFormat="1">
-      <c r="E62" s="76"/>
+      <c r="E62" s="73"/>
     </row>
     <row r="63" spans="5:5" s="8" customFormat="1">
-      <c r="E63" s="76"/>
+      <c r="E63" s="73"/>
     </row>
     <row r="64" spans="5:5" s="8" customFormat="1">
-      <c r="E64" s="76"/>
+      <c r="E64" s="73"/>
     </row>
     <row r="65" spans="5:5" s="8" customFormat="1">
-      <c r="E65" s="76"/>
+      <c r="E65" s="73"/>
     </row>
     <row r="66" spans="5:5" s="8" customFormat="1">
-      <c r="E66" s="76"/>
+      <c r="E66" s="73"/>
     </row>
     <row r="67" spans="5:5" s="8" customFormat="1">
-      <c r="E67" s="76"/>
+      <c r="E67" s="73"/>
     </row>
     <row r="68" spans="5:5" s="8" customFormat="1">
-      <c r="E68" s="76"/>
+      <c r="E68" s="73"/>
     </row>
     <row r="69" spans="5:5" s="8" customFormat="1">
-      <c r="E69" s="76"/>
+      <c r="E69" s="73"/>
     </row>
     <row r="70" spans="5:5" s="8" customFormat="1">
-      <c r="E70" s="76"/>
+      <c r="E70" s="73"/>
     </row>
     <row r="71" spans="5:5" s="8" customFormat="1">
-      <c r="E71" s="76"/>
+      <c r="E71" s="73"/>
     </row>
     <row r="72" spans="5:5" s="8" customFormat="1">
-      <c r="E72" s="76"/>
+      <c r="E72" s="73"/>
     </row>
     <row r="73" spans="5:5" s="8" customFormat="1">
-      <c r="E73" s="76"/>
+      <c r="E73" s="73"/>
     </row>
     <row r="74" spans="5:5" s="8" customFormat="1">
-      <c r="E74" s="76"/>
+      <c r="E74" s="73"/>
     </row>
     <row r="75" spans="5:5" s="8" customFormat="1">
-      <c r="E75" s="76"/>
+      <c r="E75" s="73"/>
     </row>
     <row r="76" spans="5:5" s="8" customFormat="1">
-      <c r="E76" s="76"/>
+      <c r="E76" s="73"/>
     </row>
     <row r="77" spans="5:5" s="8" customFormat="1">
-      <c r="E77" s="76"/>
+      <c r="E77" s="73"/>
     </row>
     <row r="78" spans="5:5" s="8" customFormat="1">
-      <c r="E78" s="76"/>
+      <c r="E78" s="73"/>
     </row>
     <row r="79" spans="5:5" s="8" customFormat="1">
-      <c r="E79" s="76"/>
+      <c r="E79" s="73"/>
     </row>
     <row r="80" spans="5:5" s="8" customFormat="1">
-      <c r="E80" s="76"/>
+      <c r="E80" s="73"/>
     </row>
     <row r="81" spans="5:5" s="8" customFormat="1">
-      <c r="E81" s="76"/>
+      <c r="E81" s="73"/>
     </row>
     <row r="82" spans="5:5" s="8" customFormat="1">
-      <c r="E82" s="76"/>
+      <c r="E82" s="73"/>
     </row>
     <row r="83" spans="5:5" s="8" customFormat="1">
-      <c r="E83" s="76"/>
+      <c r="E83" s="73"/>
     </row>
     <row r="84" spans="5:5" s="8" customFormat="1">
-      <c r="E84" s="76"/>
+      <c r="E84" s="73"/>
     </row>
     <row r="85" spans="5:5" s="8" customFormat="1">
-      <c r="E85" s="76"/>
+      <c r="E85" s="73"/>
     </row>
     <row r="86" spans="5:5" s="8" customFormat="1">
-      <c r="E86" s="76"/>
+      <c r="E86" s="73"/>
     </row>
     <row r="87" spans="5:5" s="8" customFormat="1">
-      <c r="E87" s="76"/>
+      <c r="E87" s="73"/>
     </row>
     <row r="88" spans="5:5" s="8" customFormat="1">
-      <c r="E88" s="76"/>
+      <c r="E88" s="73"/>
     </row>
     <row r="89" spans="5:5" s="8" customFormat="1">
-      <c r="E89" s="76"/>
+      <c r="E89" s="73"/>
     </row>
     <row r="90" spans="5:5" s="8" customFormat="1">
-      <c r="E90" s="76"/>
+      <c r="E90" s="73"/>
     </row>
     <row r="91" spans="5:5" s="8" customFormat="1">
-      <c r="E91" s="76"/>
+      <c r="E91" s="73"/>
     </row>
     <row r="92" spans="5:5" s="8" customFormat="1">
-      <c r="E92" s="76"/>
+      <c r="E92" s="73"/>
     </row>
     <row r="93" spans="5:5" s="8" customFormat="1">
-      <c r="E93" s="76"/>
+      <c r="E93" s="73"/>
     </row>
     <row r="94" spans="5:5" s="8" customFormat="1">
-      <c r="E94" s="76"/>
+      <c r="E94" s="73"/>
     </row>
     <row r="95" spans="5:5" s="8" customFormat="1">
-      <c r="E95" s="76"/>
+      <c r="E95" s="73"/>
     </row>
     <row r="96" spans="5:5" s="8" customFormat="1">
-      <c r="E96" s="76"/>
+      <c r="E96" s="73"/>
     </row>
     <row r="97" spans="5:5" s="8" customFormat="1">
-      <c r="E97" s="76"/>
+      <c r="E97" s="73"/>
     </row>
     <row r="98" spans="5:5" s="8" customFormat="1">
-      <c r="E98" s="76"/>
+      <c r="E98" s="73"/>
     </row>
     <row r="99" spans="5:5" s="8" customFormat="1">
-      <c r="E99" s="76"/>
+      <c r="E99" s="73"/>
     </row>
     <row r="100" spans="5:5" s="8" customFormat="1">
-      <c r="E100" s="76"/>
+      <c r="E100" s="73"/>
     </row>
     <row r="101" spans="5:5" s="8" customFormat="1">
-      <c r="E101" s="76"/>
+      <c r="E101" s="73"/>
     </row>
     <row r="102" spans="5:5" s="8" customFormat="1">
-      <c r="E102" s="76"/>
+      <c r="E102" s="73"/>
     </row>
     <row r="103" spans="5:5" s="8" customFormat="1">
-      <c r="E103" s="76"/>
+      <c r="E103" s="73"/>
     </row>
     <row r="104" spans="5:5" s="8" customFormat="1">
-      <c r="E104" s="76"/>
+      <c r="E104" s="73"/>
     </row>
     <row r="105" spans="5:5" s="8" customFormat="1">
-      <c r="E105" s="76"/>
+      <c r="E105" s="73"/>
     </row>
     <row r="106" spans="5:5" s="8" customFormat="1">
-      <c r="E106" s="76"/>
+      <c r="E106" s="73"/>
     </row>
     <row r="107" spans="5:5" s="8" customFormat="1">
-      <c r="E107" s="76"/>
+      <c r="E107" s="73"/>
     </row>
     <row r="108" spans="5:5" s="8" customFormat="1">
-      <c r="E108" s="76"/>
+      <c r="E108" s="73"/>
     </row>
     <row r="109" spans="5:5" s="8" customFormat="1">
-      <c r="E109" s="76"/>
+      <c r="E109" s="73"/>
     </row>
     <row r="110" spans="5:5" s="8" customFormat="1">
-      <c r="E110" s="76"/>
+      <c r="E110" s="73"/>
     </row>
     <row r="111" spans="5:5" s="8" customFormat="1">
-      <c r="E111" s="76"/>
+      <c r="E111" s="73"/>
     </row>
     <row r="112" spans="5:5" s="8" customFormat="1">
-      <c r="E112" s="76"/>
+      <c r="E112" s="73"/>
     </row>
     <row r="113" spans="5:5" s="8" customFormat="1">
-      <c r="E113" s="76"/>
+      <c r="E113" s="73"/>
     </row>
     <row r="114" spans="5:5" s="8" customFormat="1">
-      <c r="E114" s="76"/>
+      <c r="E114" s="73"/>
     </row>
     <row r="115" spans="5:5" s="8" customFormat="1">
-      <c r="E115" s="76"/>
+      <c r="E115" s="73"/>
     </row>
     <row r="116" spans="5:5" s="8" customFormat="1">
-      <c r="E116" s="76"/>
+      <c r="E116" s="73"/>
     </row>
     <row r="117" spans="5:5" s="8" customFormat="1">
-      <c r="E117" s="76"/>
+      <c r="E117" s="73"/>
     </row>
     <row r="118" spans="5:5" s="8" customFormat="1">
-      <c r="E118" s="76"/>
+      <c r="E118" s="73"/>
     </row>
     <row r="119" spans="5:5" s="8" customFormat="1">
-      <c r="E119" s="76"/>
+      <c r="E119" s="73"/>
     </row>
     <row r="120" spans="5:5" s="8" customFormat="1">
-      <c r="E120" s="76"/>
+      <c r="E120" s="73"/>
     </row>
     <row r="121" spans="5:5" s="8" customFormat="1">
-      <c r="E121" s="76"/>
+      <c r="E121" s="73"/>
     </row>
     <row r="122" spans="5:5" s="8" customFormat="1">
-      <c r="E122" s="76"/>
+      <c r="E122" s="73"/>
     </row>
     <row r="123" spans="5:5" s="8" customFormat="1">
-      <c r="E123" s="76"/>
+      <c r="E123" s="73"/>
     </row>
     <row r="124" spans="5:5" s="8" customFormat="1">
-      <c r="E124" s="76"/>
+      <c r="E124" s="73"/>
     </row>
     <row r="125" spans="5:5" s="8" customFormat="1">
-      <c r="E125" s="76"/>
+      <c r="E125" s="73"/>
     </row>
     <row r="126" spans="5:5" s="8" customFormat="1">
-      <c r="E126" s="76"/>
+      <c r="E126" s="73"/>
     </row>
     <row r="127" spans="5:5" s="8" customFormat="1">
-      <c r="E127" s="76"/>
+      <c r="E127" s="73"/>
     </row>
     <row r="128" spans="5:5" s="8" customFormat="1">
-      <c r="E128" s="76"/>
+      <c r="E128" s="73"/>
     </row>
     <row r="129" spans="5:5" s="8" customFormat="1">
-      <c r="E129" s="76"/>
+      <c r="E129" s="73"/>
     </row>
     <row r="130" spans="5:5" s="8" customFormat="1">
-      <c r="E130" s="76"/>
+      <c r="E130" s="73"/>
     </row>
     <row r="131" spans="5:5" s="8" customFormat="1">
-      <c r="E131" s="76"/>
+      <c r="E131" s="73"/>
     </row>
     <row r="132" spans="5:5" s="8" customFormat="1">
-      <c r="E132" s="76"/>
+      <c r="E132" s="73"/>
     </row>
     <row r="133" spans="5:5" s="8" customFormat="1">
-      <c r="E133" s="76"/>
+      <c r="E133" s="73"/>
     </row>
     <row r="134" spans="5:5" s="8" customFormat="1">
-      <c r="E134" s="76"/>
+      <c r="E134" s="73"/>
     </row>
     <row r="135" spans="5:5" s="8" customFormat="1">
-      <c r="E135" s="76"/>
+      <c r="E135" s="73"/>
     </row>
     <row r="136" spans="5:5" s="8" customFormat="1">
-      <c r="E136" s="76"/>
+      <c r="E136" s="73"/>
     </row>
     <row r="137" spans="5:5" s="8" customFormat="1">
-      <c r="E137" s="76"/>
+      <c r="E137" s="73"/>
     </row>
     <row r="138" spans="5:5" s="8" customFormat="1">
-      <c r="E138" s="76"/>
+      <c r="E138" s="73"/>
     </row>
     <row r="139" spans="5:5" s="8" customFormat="1">
-      <c r="E139" s="76"/>
+      <c r="E139" s="73"/>
     </row>
     <row r="140" spans="5:5" s="8" customFormat="1">
-      <c r="E140" s="76"/>
+      <c r="E140" s="73"/>
     </row>
     <row r="141" spans="5:5" s="8" customFormat="1">
-      <c r="E141" s="76"/>
+      <c r="E141" s="73"/>
     </row>
     <row r="142" spans="5:5" s="8" customFormat="1">
-      <c r="E142" s="76"/>
+      <c r="E142" s="73"/>
     </row>
     <row r="143" spans="5:5" s="8" customFormat="1">
-      <c r="E143" s="76"/>
+      <c r="E143" s="73"/>
     </row>
     <row r="144" spans="5:5" s="8" customFormat="1">
-      <c r="E144" s="76"/>
+      <c r="E144" s="73"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:Q38">
@@ -7124,418 +7141,418 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="53" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="53" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="53"/>
-    <col min="15" max="15" width="13.28515625" style="53" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="1" width="5.42578125" style="52" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="52" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="52"/>
+    <col min="15" max="15" width="13.28515625" style="52" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="53" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="52" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="54" customFormat="1" ht="14.25">
-      <c r="A4" s="130" t="s">
+    <row r="4" spans="1:15" s="53" customFormat="1" ht="14.25">
+      <c r="A4" s="133" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-    </row>
-    <row r="5" spans="1:15" s="54" customFormat="1" ht="14.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="55" t="s">
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+    </row>
+    <row r="5" spans="1:15" s="53" customFormat="1" ht="14.25">
+      <c r="A5" s="134"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="N5" s="55" t="s">
+      <c r="N5" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="O5" s="55" t="s">
+      <c r="O5" s="54" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="56">
+      <c r="A6" s="55">
         <v>1</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55">
         <f t="shared" ref="O7:O14" si="0">SUM(C7:N7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56">
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="56">
+      <c r="A9" s="55">
         <v>2</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56">
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56">
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="56">
+      <c r="A12" s="55">
         <v>3</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56">
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56">
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="58" customFormat="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57" t="s">
+    <row r="15" spans="1:15" s="57" customFormat="1">
+      <c r="A15" s="55"/>
+      <c r="B15" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="55"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="55">
         <f>SUM(C7,C10,C13)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="55">
         <f t="shared" ref="D16:O17" si="1">SUM(D7,D10,D13)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="56">
+      <c r="L16" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="56">
+      <c r="M16" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="56">
+      <c r="N16" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="56">
+      <c r="O16" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="55">
         <f>SUM(C8,C11,C14)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="56">
+      <c r="H17" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="56">
+      <c r="I17" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="56">
+      <c r="J17" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="56">
+      <c r="K17" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="56">
+      <c r="L17" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17" s="56">
+      <c r="M17" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N17" s="56">
+      <c r="N17" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="56">
+      <c r="O17" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7561,247 +7578,247 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="53" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="53" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="53"/>
-    <col min="7" max="7" width="28.85546875" style="53" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="1" width="5.42578125" style="52" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="52" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="52"/>
+    <col min="7" max="7" width="28.85546875" style="52" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="136" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="137" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-    </row>
-    <row r="4" spans="1:7" s="54" customFormat="1" ht="14.25">
-      <c r="A4" s="130" t="s">
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+    </row>
+    <row r="4" spans="1:7" s="53" customFormat="1" ht="14.25">
+      <c r="A4" s="133" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="135" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-    </row>
-    <row r="5" spans="1:7" s="54" customFormat="1" ht="14.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="55" t="s">
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+    </row>
+    <row r="5" spans="1:7" s="53" customFormat="1" ht="14.25">
+      <c r="A5" s="134"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="54" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="56">
+      <c r="A6" s="55">
         <v>1</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55">
         <f>SUM(C7:F7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56">
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55">
         <f>SUM(C8:F8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="56">
+      <c r="A9" s="55">
         <v>2</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56">
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55">
         <f>SUM(C10:F10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56">
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55">
         <f>SUM(C11:F11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="56">
+      <c r="A12" s="55">
         <v>3</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56">
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55">
         <f>SUM(C13:F13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56">
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55">
         <f>SUM(C14:F14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="58" customFormat="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57" t="s">
+    <row r="15" spans="1:7" s="57" customFormat="1">
+      <c r="A15" s="55"/>
+      <c r="B15" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="55"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="55">
         <f>SUM(C7,C10,C13)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="55">
         <f t="shared" ref="D16:G17" si="0">SUM(D7,D10,D13)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="55">
         <f>SUM(C8,C11,C14)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7827,159 +7844,159 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="53" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="53" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="53"/>
-    <col min="5" max="5" width="10.5703125" style="53" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="53"/>
-    <col min="7" max="7" width="11.5703125" style="53" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="53"/>
-    <col min="9" max="9" width="13.28515625" style="53" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="1" width="5.42578125" style="52" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="52" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="52"/>
+    <col min="5" max="5" width="10.5703125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="52"/>
+    <col min="7" max="7" width="11.5703125" style="52" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="52"/>
+    <col min="9" max="9" width="13.28515625" style="52" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="136" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="52" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="130" t="s">
+    <row r="4" spans="1:9" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="133" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="133" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136" t="s">
+      <c r="D4" s="139"/>
+      <c r="E4" s="139" t="s">
         <v>222</v>
       </c>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136" t="s">
+      <c r="F4" s="139"/>
+      <c r="G4" s="139" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="136"/>
-      <c r="I4" s="137" t="s">
+      <c r="H4" s="139"/>
+      <c r="I4" s="140" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="54" customFormat="1" ht="14.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="55" t="s">
+    <row r="5" spans="1:9" s="53" customFormat="1" ht="14.25">
+      <c r="A5" s="134"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="I5" s="138"/>
+      <c r="I5" s="141"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="59">
+      <c r="A6" s="58">
         <v>1</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="59">
+      <c r="A7" s="58">
         <v>2</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="59">
+      <c r="A8" s="58">
         <v>3</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-    </row>
-    <row r="9" spans="1:9" s="58" customFormat="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+    </row>
+    <row r="9" spans="1:9" s="57" customFormat="1">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="56">
         <f>SUM(C6:C8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="56">
         <f t="shared" ref="D9:H9" si="0">SUM(D6:D8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="56"/>
+      <c r="I9" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
+++ b/2018/CRM/SOF.QP.03.F01_Yeu cau chinh sua phan mem_SOF.xlsx
@@ -1615,7 +1615,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1690,20 +1690,11 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1815,13 +1806,26 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1861,9 +1865,6 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1888,6 +1889,102 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1897,92 +1994,11 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3166,15 +3182,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
     </row>
     <row r="2" spans="2:8" ht="14.25">
       <c r="B2" s="15"/>
@@ -3371,10 +3387,10 @@
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75">
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="89" t="s">
+      <c r="F26" s="91" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="13" t="s">
@@ -3385,16 +3401,16 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75">
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
       <c r="G27" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="2:8" ht="15.75">
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
       <c r="G28" s="13" t="s">
         <v>28</v>
       </c>
@@ -3459,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:G29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -3479,23 +3495,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="105"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1">
       <c r="A2" s="23" t="s">
@@ -3580,13 +3596,13 @@
       <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="83" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="100" t="s">
+      <c r="G4" s="102" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="27"/>
@@ -3608,13 +3624,13 @@
       <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="83" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="109"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="27"/>
       <c r="I5" s="31" t="s">
         <v>130</v>
@@ -3634,13 +3650,13 @@
       <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="83" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="100" t="s">
+      <c r="G6" s="102" t="s">
         <v>110</v>
       </c>
       <c r="H6" s="27"/>
@@ -3662,13 +3678,13 @@
       <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="83" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="108"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="27"/>
       <c r="I7" s="31" t="s">
         <v>128</v>
@@ -3688,13 +3704,13 @@
       <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="83" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="108"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="27"/>
       <c r="I8" s="31" t="s">
         <v>128</v>
@@ -3714,13 +3730,13 @@
       <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="83" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="108"/>
+      <c r="G9" s="109"/>
       <c r="H9" s="27"/>
       <c r="I9" s="31" t="s">
         <v>128</v>
@@ -3746,7 +3762,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="108"/>
+      <c r="G10" s="109"/>
       <c r="H10" s="27"/>
       <c r="I10" s="31" t="s">
         <v>131</v>
@@ -3766,13 +3782,13 @@
       <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="83" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="108"/>
+      <c r="G11" s="109"/>
       <c r="H11" s="27"/>
       <c r="I11" s="31" t="s">
         <v>128</v>
@@ -3792,13 +3808,13 @@
       <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="83" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="108"/>
+      <c r="G12" s="109"/>
       <c r="H12" s="27"/>
       <c r="I12" s="31" t="s">
         <v>128</v>
@@ -3824,7 +3840,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="108"/>
+      <c r="G13" s="109"/>
       <c r="H13" s="27"/>
       <c r="I13" s="31" t="s">
         <v>128</v>
@@ -3850,7 +3866,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="108"/>
+      <c r="G14" s="109"/>
       <c r="H14" s="27"/>
       <c r="I14" s="31" t="s">
         <v>128</v>
@@ -3870,13 +3886,13 @@
       <c r="B15" s="6">
         <v>29</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="83" t="s">
         <v>84</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="109"/>
+      <c r="G15" s="110"/>
       <c r="H15" s="27"/>
       <c r="I15" s="31" t="s">
         <v>132</v>
@@ -3896,13 +3912,13 @@
       <c r="B16" s="6">
         <v>11</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="83" t="s">
         <v>66</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="100" t="s">
+      <c r="G16" s="102" t="s">
         <v>119</v>
       </c>
       <c r="H16" s="27"/>
@@ -3924,13 +3940,13 @@
       <c r="B17" s="6">
         <v>17</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="83" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="108"/>
+      <c r="G17" s="109"/>
       <c r="H17" s="27"/>
       <c r="I17" s="31" t="s">
         <v>134</v>
@@ -3950,13 +3966,13 @@
       <c r="B18" s="6">
         <v>22</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="83" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="109"/>
+      <c r="G18" s="110"/>
       <c r="H18" s="27"/>
       <c r="I18" s="31" t="s">
         <v>135</v>
@@ -3982,7 +3998,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="105" t="s">
+      <c r="G19" s="106" t="s">
         <v>111</v>
       </c>
       <c r="H19" s="27"/>
@@ -4010,7 +4026,7 @@
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="106"/>
+      <c r="G20" s="107"/>
       <c r="H20" s="27"/>
       <c r="I20" s="31" t="s">
         <v>128</v>
@@ -4036,7 +4052,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="106"/>
+      <c r="G21" s="107"/>
       <c r="H21" s="27"/>
       <c r="I21" s="31" t="s">
         <v>136</v>
@@ -4062,7 +4078,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="107"/>
+      <c r="G22" s="108"/>
       <c r="H22" s="27"/>
       <c r="I22" s="31" t="s">
         <v>137</v>
@@ -4088,11 +4104,11 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="113" t="s">
+      <c r="G23" s="114" t="s">
         <v>72</v>
       </c>
       <c r="H23" s="27"/>
-      <c r="I23" s="115" t="s">
+      <c r="I23" s="116" t="s">
         <v>128</v>
       </c>
       <c r="J23" s="27"/>
@@ -4116,9 +4132,9 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="114"/>
+      <c r="G24" s="115"/>
       <c r="H24" s="27"/>
-      <c r="I24" s="102"/>
+      <c r="I24" s="103"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -4162,13 +4178,13 @@
       <c r="B26" s="6">
         <v>23</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="C26" s="83" t="s">
         <v>79</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="34" t="s">
         <v>112</v>
       </c>
       <c r="H26" s="27"/>
@@ -4190,13 +4206,13 @@
       <c r="B27" s="6">
         <v>24</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="110" t="s">
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="111" t="s">
         <v>121</v>
       </c>
       <c r="H27" s="27"/>
@@ -4218,13 +4234,13 @@
       <c r="B28" s="6">
         <v>25</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="111"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="112"/>
       <c r="H28" s="27"/>
       <c r="I28" s="31" t="s">
         <v>128</v>
@@ -4244,13 +4260,13 @@
       <c r="B29" s="6">
         <v>26</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="112"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="113"/>
       <c r="H29" s="27"/>
       <c r="I29" s="31" t="s">
         <v>128</v>
@@ -4332,7 +4348,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="99" t="s">
+      <c r="G32" s="101" t="s">
         <v>88</v>
       </c>
       <c r="H32" s="27"/>
@@ -4360,7 +4376,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="99"/>
+      <c r="G33" s="101"/>
       <c r="H33" s="27"/>
       <c r="I33" s="31" t="s">
         <v>128</v>
@@ -4408,13 +4424,13 @@
       <c r="B35" s="6">
         <v>39</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="31" t="s">
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="147" t="s">
         <v>124</v>
       </c>
       <c r="H35" s="27"/>
@@ -4436,13 +4452,13 @@
       <c r="B36" s="6">
         <v>40</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="38" t="s">
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="87" t="s">
         <v>115</v>
       </c>
       <c r="H36" s="27"/>
@@ -4464,13 +4480,13 @@
       <c r="B37" s="6">
         <v>41</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="38" t="s">
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="87" t="s">
         <v>127</v>
       </c>
       <c r="H37" s="27"/>
@@ -4492,13 +4508,13 @@
       <c r="B38" s="6">
         <v>42</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="31" t="s">
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="89" t="s">
         <v>116</v>
       </c>
       <c r="H38" s="27"/>
@@ -4525,7 +4541,7 @@
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="37"/>
+      <c r="F39" s="35"/>
       <c r="G39" s="28" t="s">
         <v>113</v>
       </c>
@@ -4548,13 +4564,13 @@
       <c r="B40" s="6">
         <v>45</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="100" t="s">
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="143" t="s">
         <v>97</v>
       </c>
       <c r="H40" s="27"/>
@@ -4576,13 +4592,13 @@
       <c r="B41" s="6">
         <v>46</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="101"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="144"/>
       <c r="H41" s="27"/>
       <c r="I41" s="31" t="s">
         <v>142</v>
@@ -4602,13 +4618,13 @@
       <c r="B42" s="6">
         <v>47</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="102"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="145"/>
       <c r="H42" s="27"/>
       <c r="I42" s="31" t="s">
         <v>128</v>
@@ -4634,7 +4650,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="92" t="s">
+      <c r="G43" s="94" t="s">
         <v>111</v>
       </c>
       <c r="H43" s="27"/>
@@ -4662,7 +4678,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="93"/>
+      <c r="G44" s="95"/>
       <c r="H44" s="27"/>
       <c r="I44" s="31" t="s">
         <v>143</v>
@@ -4688,7 +4704,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="93"/>
+      <c r="G45" s="95"/>
       <c r="H45" s="27"/>
       <c r="I45" s="31" t="s">
         <v>144</v>
@@ -4714,7 +4730,7 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="94"/>
+      <c r="G46" s="96"/>
       <c r="H46" s="27"/>
       <c r="I46" s="31" t="s">
         <v>145</v>
@@ -4740,7 +4756,7 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="95" t="s">
+      <c r="G47" s="97" t="s">
         <v>125</v>
       </c>
       <c r="H47" s="27"/>
@@ -4768,7 +4784,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="95"/>
+      <c r="G48" s="97"/>
       <c r="H48" s="27"/>
       <c r="I48" s="31" t="s">
         <v>146</v>
@@ -4794,7 +4810,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="95" t="s">
+      <c r="G49" s="97" t="s">
         <v>125</v>
       </c>
       <c r="H49" s="27"/>
@@ -4822,7 +4838,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="95"/>
+      <c r="G50" s="97"/>
       <c r="H50" s="27"/>
       <c r="I50" s="31" t="s">
         <v>146</v>
@@ -4848,7 +4864,7 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="96" t="s">
+      <c r="G51" s="98" t="s">
         <v>126</v>
       </c>
       <c r="H51" s="27"/>
@@ -4876,7 +4892,7 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="97"/>
+      <c r="G52" s="99"/>
       <c r="H52" s="27"/>
       <c r="I52" s="31" t="s">
         <v>147</v>
@@ -4902,7 +4918,7 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="98" t="s">
+      <c r="G53" s="100" t="s">
         <v>72</v>
       </c>
       <c r="H53" s="27"/>
@@ -4930,7 +4946,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="97"/>
+      <c r="G54" s="99"/>
       <c r="H54" s="27"/>
       <c r="I54" s="31" t="s">
         <v>148</v>
@@ -5218,1328 +5234,1328 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" style="74" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="42" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" style="42" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="42" customWidth="1"/>
-    <col min="9" max="11" width="17.42578125" style="42" customWidth="1"/>
-    <col min="12" max="12" width="36.140625" style="42" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" style="42" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="23" style="42" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" style="42" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="42" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="28" style="42" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="39" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" style="71" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="39" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" style="39" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="39" customWidth="1"/>
+    <col min="9" max="11" width="17.42578125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="36.140625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" style="39" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="39" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" style="39" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="39" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="28" style="39" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="19.5703125" style="8" customWidth="1"/>
     <col min="19" max="63" width="9.140625" style="8"/>
-    <col min="64" max="16384" width="9.140625" style="42"/>
+    <col min="64" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="41" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="116"/>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="39" t="s">
+    <row r="1" spans="1:63" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40"/>
-      <c r="BD1" s="40"/>
-      <c r="BE1" s="40"/>
-      <c r="BF1" s="40"/>
-      <c r="BG1" s="40"/>
-      <c r="BH1" s="40"/>
-      <c r="BI1" s="40"/>
-      <c r="BJ1" s="40"/>
-      <c r="BK1" s="40"/>
-    </row>
-    <row r="2" spans="1:63" s="41" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="39" t="s">
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+    </row>
+    <row r="2" spans="1:63" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="40"/>
-      <c r="BE2" s="40"/>
-      <c r="BF2" s="40"/>
-      <c r="BG2" s="40"/>
-      <c r="BH2" s="40"/>
-      <c r="BI2" s="40"/>
-      <c r="BJ2" s="40"/>
-      <c r="BK2" s="40"/>
-    </row>
-    <row r="3" spans="1:63" s="41" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="116"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="39" t="s">
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="37"/>
+    </row>
+    <row r="3" spans="1:63" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="40"/>
-      <c r="AT3" s="40"/>
-      <c r="AU3" s="40"/>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40"/>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="40"/>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40"/>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="40"/>
-    </row>
-    <row r="4" spans="1:63" s="41" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40"/>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="40"/>
-      <c r="BI4" s="40"/>
-      <c r="BJ4" s="40"/>
-      <c r="BK4" s="40"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="37"/>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="37"/>
+      <c r="AX3" s="37"/>
+      <c r="AY3" s="37"/>
+      <c r="AZ3" s="37"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="37"/>
+      <c r="BE3" s="37"/>
+      <c r="BF3" s="37"/>
+      <c r="BG3" s="37"/>
+      <c r="BH3" s="37"/>
+      <c r="BI3" s="37"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="37"/>
+    </row>
+    <row r="4" spans="1:63" s="38" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="37"/>
+      <c r="AU4" s="37"/>
+      <c r="AV4" s="37"/>
+      <c r="AW4" s="37"/>
+      <c r="AX4" s="37"/>
+      <c r="AY4" s="37"/>
+      <c r="AZ4" s="37"/>
+      <c r="BA4" s="37"/>
+      <c r="BB4" s="37"/>
+      <c r="BC4" s="37"/>
+      <c r="BD4" s="37"/>
+      <c r="BE4" s="37"/>
+      <c r="BF4" s="37"/>
+      <c r="BG4" s="37"/>
+      <c r="BH4" s="37"/>
+      <c r="BI4" s="37"/>
+      <c r="BJ4" s="37"/>
+      <c r="BK4" s="37"/>
     </row>
     <row r="5" spans="1:63" ht="52.5" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="O5" s="43" t="s">
+      <c r="O5" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="Q5" s="43" t="s">
+      <c r="Q5" s="40" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:63" s="8" customFormat="1" ht="60">
-      <c r="A6" s="61">
+      <c r="A6" s="58">
         <f>ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="78">
         <v>3</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F6" s="72">
         <v>0.1</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="45" t="s">
+      <c r="G6" s="72"/>
+      <c r="H6" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="42">
         <v>3</v>
       </c>
-      <c r="K6" s="83">
+      <c r="K6" s="80">
         <v>1</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="M6" s="62"/>
-      <c r="N6" s="45">
+      <c r="M6" s="59"/>
+      <c r="N6" s="42">
         <v>8</v>
       </c>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:63" s="8" customFormat="1" ht="60">
-      <c r="A7" s="44">
+      <c r="A7" s="41">
         <f t="shared" ref="A7:A32" si="0">ROW()-5</f>
         <v>2</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="51" t="s">
+      <c r="B7" s="125"/>
+      <c r="C7" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="78">
         <v>2</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="75">
+      <c r="F7" s="72">
         <v>1</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="48"/>
+      <c r="H7" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="42">
         <v>2</v>
       </c>
-      <c r="K7" s="83">
+      <c r="K7" s="80">
         <v>1</v>
       </c>
-      <c r="L7" s="51" t="s">
+      <c r="L7" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="M7" s="62"/>
-      <c r="N7" s="45">
+      <c r="M7" s="59"/>
+      <c r="N7" s="42">
         <v>8</v>
       </c>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-    </row>
-    <row r="8" spans="1:63" s="8" customFormat="1" ht="120">
-      <c r="A8" s="61">
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+    </row>
+    <row r="8" spans="1:63" s="8" customFormat="1" ht="60">
+      <c r="A8" s="58">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="51" t="s">
+      <c r="B8" s="125"/>
+      <c r="C8" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="78">
         <v>3</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="F8" s="75">
+      <c r="F8" s="72">
         <v>0.2</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="45" t="s">
+      <c r="G8" s="72"/>
+      <c r="H8" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="42">
         <v>3</v>
       </c>
-      <c r="K8" s="83">
+      <c r="K8" s="80">
         <v>1</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="L8" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="45">
+      <c r="M8" s="59"/>
+      <c r="N8" s="42">
         <v>8</v>
       </c>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-    </row>
-    <row r="9" spans="1:63" s="8" customFormat="1" ht="150">
-      <c r="A9" s="61">
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+    </row>
+    <row r="9" spans="1:63" s="8" customFormat="1" ht="90">
+      <c r="A9" s="58">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="51" t="s">
+      <c r="B9" s="125"/>
+      <c r="C9" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="72">
         <v>1</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="45" t="s">
+      <c r="G9" s="48"/>
+      <c r="H9" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="K9" s="83">
+      <c r="K9" s="80">
         <v>1</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45">
+      <c r="M9" s="42"/>
+      <c r="N9" s="42">
         <v>10</v>
       </c>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
     </row>
     <row r="10" spans="1:63" s="8" customFormat="1" ht="15" hidden="1">
-      <c r="A10" s="44">
+      <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="50" t="s">
+      <c r="B10" s="125"/>
+      <c r="C10" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="45" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
     </row>
     <row r="11" spans="1:63" s="8" customFormat="1" ht="15">
-      <c r="A11" s="44">
+      <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="51" t="s">
+      <c r="B11" s="125"/>
+      <c r="C11" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="75">
+      <c r="D11" s="48"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="72">
         <v>0</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="45" t="s">
+      <c r="G11" s="48"/>
+      <c r="H11" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45">
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42">
         <v>4</v>
       </c>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
     </row>
     <row r="12" spans="1:63" s="8" customFormat="1" ht="30">
-      <c r="A12" s="44">
+      <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="124"/>
-      <c r="C12" s="51" t="s">
+      <c r="B12" s="125"/>
+      <c r="C12" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="75">
+      <c r="D12" s="48"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="72">
         <v>0</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="45" t="s">
+      <c r="G12" s="48"/>
+      <c r="H12" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="42">
         <v>24</v>
       </c>
-      <c r="K12" s="83">
+      <c r="K12" s="80">
         <v>1</v>
       </c>
-      <c r="L12" s="45" t="s">
+      <c r="L12" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45">
+      <c r="M12" s="42"/>
+      <c r="N12" s="42">
         <v>4</v>
       </c>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
     </row>
     <row r="13" spans="1:63" s="8" customFormat="1" ht="45">
-      <c r="A13" s="61">
+      <c r="A13" s="58">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="124"/>
-      <c r="C13" s="51" t="s">
+      <c r="B13" s="125"/>
+      <c r="C13" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="75">
+      <c r="D13" s="48"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="72">
         <v>0</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="45" t="s">
+      <c r="G13" s="48"/>
+      <c r="H13" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="83">
+      <c r="J13" s="42"/>
+      <c r="K13" s="80">
         <v>1</v>
       </c>
-      <c r="L13" s="84" t="s">
+      <c r="L13" s="81" t="s">
         <v>247</v>
       </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45">
+      <c r="M13" s="42"/>
+      <c r="N13" s="42">
         <v>4</v>
       </c>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="51" t="s">
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="48" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:63" s="8" customFormat="1" ht="45">
-      <c r="A14" s="44">
+      <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="125"/>
+      <c r="C14" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="76">
+      <c r="D14" s="47"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="73">
         <v>0</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="45" t="s">
+      <c r="G14" s="47"/>
+      <c r="H14" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="42">
         <v>24</v>
       </c>
-      <c r="K14" s="83">
+      <c r="K14" s="80">
         <v>1</v>
       </c>
-      <c r="L14" s="45" t="s">
+      <c r="L14" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45">
+      <c r="M14" s="42"/>
+      <c r="N14" s="42">
         <v>8</v>
       </c>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
     </row>
     <row r="15" spans="1:63" s="8" customFormat="1" ht="30">
-      <c r="A15" s="61">
+      <c r="A15" s="58">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="50" t="s">
+      <c r="B15" s="126"/>
+      <c r="C15" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="76">
+      <c r="D15" s="47"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="73">
         <v>0</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="45" t="s">
+      <c r="G15" s="47"/>
+      <c r="H15" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J15" s="45">
+      <c r="J15" s="42">
         <v>24</v>
       </c>
-      <c r="K15" s="83">
+      <c r="K15" s="80">
         <v>1</v>
       </c>
-      <c r="L15" s="51" t="s">
+      <c r="L15" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45">
+      <c r="M15" s="42"/>
+      <c r="N15" s="42">
         <v>4</v>
       </c>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
     </row>
     <row r="16" spans="1:63" s="8" customFormat="1" ht="30">
-      <c r="A16" s="61">
+      <c r="A16" s="58">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="130" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="76">
+      <c r="D16" s="47"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="73">
         <v>0</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="45" t="s">
+      <c r="G16" s="47"/>
+      <c r="H16" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45" t="s">
+      <c r="K16" s="42"/>
+      <c r="L16" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45">
+      <c r="M16" s="42"/>
+      <c r="N16" s="42">
         <v>8</v>
       </c>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
     </row>
     <row r="17" spans="1:17" s="8" customFormat="1" ht="75">
-      <c r="A17" s="44">
+      <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="51" t="s">
+      <c r="B17" s="130"/>
+      <c r="C17" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="76">
+      <c r="D17" s="47"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="73">
         <v>0</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="45" t="s">
+      <c r="G17" s="47"/>
+      <c r="H17" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45">
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42">
         <v>2</v>
       </c>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="51" t="s">
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="48" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="8" customFormat="1" ht="15">
-      <c r="A18" s="61">
+      <c r="A18" s="58">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="130"/>
-      <c r="C18" s="51" t="s">
+      <c r="B18" s="131"/>
+      <c r="C18" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="76">
+      <c r="D18" s="47"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="73">
         <v>0</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="45" t="s">
+      <c r="G18" s="47"/>
+      <c r="H18" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45">
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42">
         <v>8</v>
       </c>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
     </row>
     <row r="19" spans="1:17" s="8" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A19" s="44">
+      <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="45" t="s">
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="I19" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
     </row>
     <row r="20" spans="1:17" s="8" customFormat="1" ht="30">
-      <c r="A20" s="44">
+      <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="132" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="76">
+      <c r="D20" s="47"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="73">
         <v>0</v>
       </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="45" t="s">
+      <c r="G20" s="47"/>
+      <c r="H20" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45">
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42">
         <v>1</v>
       </c>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="51"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="48"/>
     </row>
     <row r="21" spans="1:17" s="8" customFormat="1" ht="30">
-      <c r="A21" s="44">
+      <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="51" t="s">
+      <c r="B21" s="132"/>
+      <c r="C21" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="76">
+      <c r="D21" s="47"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="73">
         <v>0</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="45" t="s">
+      <c r="G21" s="47"/>
+      <c r="H21" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45">
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42">
         <v>2</v>
       </c>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
     </row>
     <row r="22" spans="1:17" s="8" customFormat="1" ht="30">
-      <c r="A22" s="44">
+      <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B22" s="131"/>
-      <c r="C22" s="51" t="s">
+      <c r="B22" s="132"/>
+      <c r="C22" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="76">
+      <c r="D22" s="47"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="73">
         <v>0</v>
       </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="45" t="s">
+      <c r="G22" s="47"/>
+      <c r="H22" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="45">
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="42">
         <v>8</v>
       </c>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
     </row>
     <row r="23" spans="1:17" s="8" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A23" s="44">
+      <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B23" s="131"/>
-      <c r="C23" s="51" t="s">
+      <c r="B23" s="132"/>
+      <c r="C23" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="76">
+      <c r="D23" s="47"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="73">
         <v>0</v>
       </c>
-      <c r="G23" s="50"/>
-      <c r="H23" s="45" t="s">
+      <c r="G23" s="47"/>
+      <c r="H23" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45">
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42">
         <v>4</v>
       </c>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
     </row>
     <row r="24" spans="1:17" s="8" customFormat="1" ht="15">
-      <c r="A24" s="61">
+      <c r="A24" s="58">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B24" s="131"/>
-      <c r="C24" s="51" t="s">
+      <c r="B24" s="132"/>
+      <c r="C24" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="76">
+      <c r="D24" s="47"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="73">
         <v>0</v>
       </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="45" t="s">
+      <c r="G24" s="47"/>
+      <c r="H24" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I24" s="45" t="s">
+      <c r="I24" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45">
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42">
         <v>8</v>
       </c>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
     </row>
     <row r="25" spans="1:17" s="8" customFormat="1" ht="30">
-      <c r="A25" s="44">
+      <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B25" s="131"/>
-      <c r="C25" s="51" t="s">
+      <c r="B25" s="132"/>
+      <c r="C25" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="76">
+      <c r="D25" s="47"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="73">
         <v>0</v>
       </c>
-      <c r="G25" s="50"/>
-      <c r="H25" s="45" t="s">
+      <c r="G25" s="47"/>
+      <c r="H25" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45">
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42">
         <v>6</v>
       </c>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
     </row>
     <row r="26" spans="1:17" s="8" customFormat="1" ht="30">
-      <c r="A26" s="44">
+      <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B26" s="132"/>
-      <c r="C26" s="51" t="s">
+      <c r="B26" s="133"/>
+      <c r="C26" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="76">
+      <c r="D26" s="47"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="73">
         <v>0</v>
       </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="45" t="s">
+      <c r="G26" s="47"/>
+      <c r="H26" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45">
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42">
         <v>1</v>
       </c>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
     </row>
     <row r="27" spans="1:17" s="8" customFormat="1" ht="60">
-      <c r="A27" s="44">
+      <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B27" s="126" t="s">
+      <c r="B27" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="76">
+      <c r="D27" s="47"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="73">
         <v>0</v>
       </c>
-      <c r="G27" s="50"/>
-      <c r="H27" s="45" t="s">
+      <c r="G27" s="47"/>
+      <c r="H27" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45">
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42">
         <v>8</v>
       </c>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
     </row>
     <row r="28" spans="1:17" s="8" customFormat="1" ht="30">
-      <c r="A28" s="44">
+      <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B28" s="127"/>
-      <c r="C28" s="50" t="s">
+      <c r="B28" s="128"/>
+      <c r="C28" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="76">
+      <c r="D28" s="47"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="73">
         <v>0</v>
       </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="45" t="s">
+      <c r="G28" s="47"/>
+      <c r="H28" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I28" s="45" t="s">
+      <c r="I28" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45">
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42">
         <v>8</v>
       </c>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="51"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="48"/>
     </row>
     <row r="29" spans="1:17" s="8" customFormat="1" ht="30">
-      <c r="A29" s="61">
+      <c r="A29" s="58">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B29" s="127"/>
-      <c r="C29" s="50" t="s">
+      <c r="B29" s="128"/>
+      <c r="C29" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="76">
+      <c r="D29" s="47"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="73">
         <v>0</v>
       </c>
-      <c r="G29" s="50"/>
-      <c r="H29" s="45" t="s">
+      <c r="G29" s="47"/>
+      <c r="H29" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45">
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42">
         <v>8</v>
       </c>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="60" t="s">
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="57" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="8" customFormat="1" ht="30">
-      <c r="A30" s="44">
+      <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B30" s="127"/>
-      <c r="C30" s="50" t="s">
+      <c r="B30" s="128"/>
+      <c r="C30" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="76">
+      <c r="D30" s="47"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="73">
         <v>0</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="45" t="s">
+      <c r="G30" s="47"/>
+      <c r="H30" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45">
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42">
         <v>8</v>
       </c>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="59" t="s">
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="8" customFormat="1" ht="45">
-      <c r="A31" s="44">
+      <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B31" s="127"/>
-      <c r="C31" s="50" t="s">
+      <c r="B31" s="128"/>
+      <c r="C31" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="76">
+      <c r="D31" s="47"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="73">
         <v>0</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="45" t="s">
+      <c r="G31" s="47"/>
+      <c r="H31" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45">
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42">
         <v>8</v>
       </c>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="60"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="57"/>
     </row>
     <row r="32" spans="1:17" s="8" customFormat="1" ht="30">
-      <c r="A32" s="61">
+      <c r="A32" s="58">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B32" s="128"/>
-      <c r="C32" s="50" t="s">
+      <c r="B32" s="129"/>
+      <c r="C32" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="76">
+      <c r="D32" s="47"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="73">
         <v>0</v>
       </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="45" t="s">
+      <c r="G32" s="47"/>
+      <c r="H32" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I32" s="45" t="s">
+      <c r="I32" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45">
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42">
         <v>8</v>
       </c>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="59"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="56"/>
     </row>
     <row r="33" spans="3:16" s="8" customFormat="1">
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="N33" s="47">
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="N33" s="44">
         <f>SUM(N6:N32)</f>
         <v>154</v>
       </c>
-      <c r="O33" s="47">
+      <c r="O33" s="44">
         <f>SUM(O6:O32)</f>
         <v>0</v>
       </c>
-      <c r="P33" s="47">
+      <c r="P33" s="44">
         <f>SUM(P6:P32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:16" s="8" customFormat="1">
-      <c r="M34" s="48" t="s">
+      <c r="M34" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="N34" s="47">
+      <c r="N34" s="44">
         <f>N33+O33+P33</f>
         <v>154</v>
       </c>
-      <c r="O34" s="47" t="s">
+      <c r="O34" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="P34" s="47"/>
+      <c r="P34" s="44"/>
     </row>
     <row r="35" spans="3:16" s="8" customFormat="1">
-      <c r="N35" s="49">
+      <c r="N35" s="46">
         <f>N34/8/20</f>
         <v>0.96250000000000002</v>
       </c>
-      <c r="O35" s="47" t="s">
+      <c r="O35" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="P35" s="47"/>
+      <c r="P35" s="44"/>
     </row>
     <row r="36" spans="3:16" s="8" customFormat="1">
       <c r="N36" s="8">
@@ -6560,324 +6576,324 @@
       </c>
     </row>
     <row r="39" spans="3:16" s="8" customFormat="1">
-      <c r="E39" s="73"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
+      <c r="E39" s="70"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
     </row>
     <row r="40" spans="3:16" s="8" customFormat="1">
-      <c r="E40" s="73"/>
+      <c r="E40" s="70"/>
     </row>
     <row r="41" spans="3:16" s="8" customFormat="1">
-      <c r="E41" s="73"/>
+      <c r="E41" s="70"/>
     </row>
     <row r="42" spans="3:16" s="8" customFormat="1">
-      <c r="E42" s="73"/>
+      <c r="E42" s="70"/>
     </row>
     <row r="43" spans="3:16" s="8" customFormat="1">
-      <c r="E43" s="73"/>
+      <c r="E43" s="70"/>
     </row>
     <row r="44" spans="3:16" s="8" customFormat="1">
-      <c r="E44" s="73"/>
+      <c r="E44" s="70"/>
     </row>
     <row r="45" spans="3:16" s="8" customFormat="1">
-      <c r="E45" s="73"/>
+      <c r="E45" s="70"/>
     </row>
     <row r="46" spans="3:16" s="8" customFormat="1">
-      <c r="E46" s="73"/>
+      <c r="E46" s="70"/>
     </row>
     <row r="47" spans="3:16" s="8" customFormat="1">
-      <c r="E47" s="73"/>
+      <c r="E47" s="70"/>
     </row>
     <row r="48" spans="3:16" s="8" customFormat="1">
-      <c r="E48" s="73"/>
+      <c r="E48" s="70"/>
     </row>
     <row r="49" spans="5:5" s="8" customFormat="1">
-      <c r="E49" s="73"/>
+      <c r="E49" s="70"/>
     </row>
     <row r="50" spans="5:5" s="8" customFormat="1">
-      <c r="E50" s="73"/>
+      <c r="E50" s="70"/>
     </row>
     <row r="51" spans="5:5" s="8" customFormat="1">
-      <c r="E51" s="73"/>
+      <c r="E51" s="70"/>
     </row>
     <row r="52" spans="5:5" s="8" customFormat="1">
-      <c r="E52" s="73"/>
+      <c r="E52" s="70"/>
     </row>
     <row r="53" spans="5:5" s="8" customFormat="1">
-      <c r="E53" s="73"/>
+      <c r="E53" s="70"/>
     </row>
     <row r="54" spans="5:5" s="8" customFormat="1">
-      <c r="E54" s="73"/>
+      <c r="E54" s="70"/>
     </row>
     <row r="55" spans="5:5" s="8" customFormat="1">
-      <c r="E55" s="73"/>
+      <c r="E55" s="70"/>
     </row>
     <row r="56" spans="5:5" s="8" customFormat="1">
-      <c r="E56" s="73"/>
+      <c r="E56" s="70"/>
     </row>
     <row r="57" spans="5:5" s="8" customFormat="1">
-      <c r="E57" s="73"/>
+      <c r="E57" s="70"/>
     </row>
     <row r="58" spans="5:5" s="8" customFormat="1">
-      <c r="E58" s="73"/>
+      <c r="E58" s="70"/>
     </row>
     <row r="59" spans="5:5" s="8" customFormat="1">
-      <c r="E59" s="73"/>
+      <c r="E59" s="70"/>
     </row>
     <row r="60" spans="5:5" s="8" customFormat="1">
-      <c r="E60" s="73"/>
+      <c r="E60" s="70"/>
     </row>
     <row r="61" spans="5:5" s="8" customFormat="1">
-      <c r="E61" s="73"/>
+      <c r="E61" s="70"/>
     </row>
     <row r="62" spans="5:5" s="8" customFormat="1">
-      <c r="E62" s="73"/>
+      <c r="E62" s="70"/>
     </row>
     <row r="63" spans="5:5" s="8" customFormat="1">
-      <c r="E63" s="73"/>
+      <c r="E63" s="70"/>
     </row>
     <row r="64" spans="5:5" s="8" customFormat="1">
-      <c r="E64" s="73"/>
+      <c r="E64" s="70"/>
     </row>
     <row r="65" spans="5:5" s="8" customFormat="1">
-      <c r="E65" s="73"/>
+      <c r="E65" s="70"/>
     </row>
     <row r="66" spans="5:5" s="8" customFormat="1">
-      <c r="E66" s="73"/>
+      <c r="E66" s="70"/>
     </row>
     <row r="67" spans="5:5" s="8" customFormat="1">
-      <c r="E67" s="73"/>
+      <c r="E67" s="70"/>
     </row>
     <row r="68" spans="5:5" s="8" customFormat="1">
-      <c r="E68" s="73"/>
+      <c r="E68" s="70"/>
     </row>
     <row r="69" spans="5:5" s="8" customFormat="1">
-      <c r="E69" s="73"/>
+      <c r="E69" s="70"/>
     </row>
     <row r="70" spans="5:5" s="8" customFormat="1">
-      <c r="E70" s="73"/>
+      <c r="E70" s="70"/>
     </row>
     <row r="71" spans="5:5" s="8" customFormat="1">
-      <c r="E71" s="73"/>
+      <c r="E71" s="70"/>
     </row>
     <row r="72" spans="5:5" s="8" customFormat="1">
-      <c r="E72" s="73"/>
+      <c r="E72" s="70"/>
     </row>
     <row r="73" spans="5:5" s="8" customFormat="1">
-      <c r="E73" s="73"/>
+      <c r="E73" s="70"/>
     </row>
     <row r="74" spans="5:5" s="8" customFormat="1">
-      <c r="E74" s="73"/>
+      <c r="E74" s="70"/>
     </row>
     <row r="75" spans="5:5" s="8" customFormat="1">
-      <c r="E75" s="73"/>
+      <c r="E75" s="70"/>
     </row>
     <row r="76" spans="5:5" s="8" customFormat="1">
-      <c r="E76" s="73"/>
+      <c r="E76" s="70"/>
     </row>
     <row r="77" spans="5:5" s="8" customFormat="1">
-      <c r="E77" s="73"/>
+      <c r="E77" s="70"/>
     </row>
     <row r="78" spans="5:5" s="8" customFormat="1">
-      <c r="E78" s="73"/>
+      <c r="E78" s="70"/>
     </row>
     <row r="79" spans="5:5" s="8" customFormat="1">
-      <c r="E79" s="73"/>
+      <c r="E79" s="70"/>
     </row>
     <row r="80" spans="5:5" s="8" customFormat="1">
-      <c r="E80" s="73"/>
+      <c r="E80" s="70"/>
     </row>
     <row r="81" spans="5:5" s="8" customFormat="1">
-      <c r="E81" s="73"/>
+      <c r="E81" s="70"/>
     </row>
     <row r="82" spans="5:5" s="8" customFormat="1">
-      <c r="E82" s="73"/>
+      <c r="E82" s="70"/>
     </row>
     <row r="83" spans="5:5" s="8" customFormat="1">
-      <c r="E83" s="73"/>
+      <c r="E83" s="70"/>
     </row>
     <row r="84" spans="5:5" s="8" customFormat="1">
-      <c r="E84" s="73"/>
+      <c r="E84" s="70"/>
     </row>
     <row r="85" spans="5:5" s="8" customFormat="1">
-      <c r="E85" s="73"/>
+      <c r="E85" s="70"/>
     </row>
     <row r="86" spans="5:5" s="8" customFormat="1">
-      <c r="E86" s="73"/>
+      <c r="E86" s="70"/>
     </row>
     <row r="87" spans="5:5" s="8" customFormat="1">
-      <c r="E87" s="73"/>
+      <c r="E87" s="70"/>
     </row>
     <row r="88" spans="5:5" s="8" customFormat="1">
-      <c r="E88" s="73"/>
+      <c r="E88" s="70"/>
     </row>
     <row r="89" spans="5:5" s="8" customFormat="1">
-      <c r="E89" s="73"/>
+      <c r="E89" s="70"/>
     </row>
     <row r="90" spans="5:5" s="8" customFormat="1">
-      <c r="E90" s="73"/>
+      <c r="E90" s="70"/>
     </row>
     <row r="91" spans="5:5" s="8" customFormat="1">
-      <c r="E91" s="73"/>
+      <c r="E91" s="70"/>
     </row>
     <row r="92" spans="5:5" s="8" customFormat="1">
-      <c r="E92" s="73"/>
+      <c r="E92" s="70"/>
     </row>
     <row r="93" spans="5:5" s="8" customFormat="1">
-      <c r="E93" s="73"/>
+      <c r="E93" s="70"/>
     </row>
     <row r="94" spans="5:5" s="8" customFormat="1">
-      <c r="E94" s="73"/>
+      <c r="E94" s="70"/>
     </row>
     <row r="95" spans="5:5" s="8" customFormat="1">
-      <c r="E95" s="73"/>
+      <c r="E95" s="70"/>
     </row>
     <row r="96" spans="5:5" s="8" customFormat="1">
-      <c r="E96" s="73"/>
+      <c r="E96" s="70"/>
     </row>
     <row r="97" spans="5:5" s="8" customFormat="1">
-      <c r="E97" s="73"/>
+      <c r="E97" s="70"/>
     </row>
     <row r="98" spans="5:5" s="8" customFormat="1">
-      <c r="E98" s="73"/>
+      <c r="E98" s="70"/>
     </row>
     <row r="99" spans="5:5" s="8" customFormat="1">
-      <c r="E99" s="73"/>
+      <c r="E99" s="70"/>
     </row>
     <row r="100" spans="5:5" s="8" customFormat="1">
-      <c r="E100" s="73"/>
+      <c r="E100" s="70"/>
     </row>
     <row r="101" spans="5:5" s="8" customFormat="1">
-      <c r="E101" s="73"/>
+      <c r="E101" s="70"/>
     </row>
     <row r="102" spans="5:5" s="8" customFormat="1">
-      <c r="E102" s="73"/>
+      <c r="E102" s="70"/>
     </row>
     <row r="103" spans="5:5" s="8" customFormat="1">
-      <c r="E103" s="73"/>
+      <c r="E103" s="70"/>
     </row>
     <row r="104" spans="5:5" s="8" customFormat="1">
-      <c r="E104" s="73"/>
+      <c r="E104" s="70"/>
     </row>
     <row r="105" spans="5:5" s="8" customFormat="1">
-      <c r="E105" s="73"/>
+      <c r="E105" s="70"/>
     </row>
     <row r="106" spans="5:5" s="8" customFormat="1">
-      <c r="E106" s="73"/>
+      <c r="E106" s="70"/>
     </row>
     <row r="107" spans="5:5" s="8" customFormat="1">
-      <c r="E107" s="73"/>
+      <c r="E107" s="70"/>
     </row>
     <row r="108" spans="5:5" s="8" customFormat="1">
-      <c r="E108" s="73"/>
+      <c r="E108" s="70"/>
     </row>
     <row r="109" spans="5:5" s="8" customFormat="1">
-      <c r="E109" s="73"/>
+      <c r="E109" s="70"/>
     </row>
     <row r="110" spans="5:5" s="8" customFormat="1">
-      <c r="E110" s="73"/>
+      <c r="E110" s="70"/>
     </row>
     <row r="111" spans="5:5" s="8" customFormat="1">
-      <c r="E111" s="73"/>
+      <c r="E111" s="70"/>
     </row>
     <row r="112" spans="5:5" s="8" customFormat="1">
-      <c r="E112" s="73"/>
+      <c r="E112" s="70"/>
     </row>
     <row r="113" spans="5:5" s="8" customFormat="1">
-      <c r="E113" s="73"/>
+      <c r="E113" s="70"/>
     </row>
     <row r="114" spans="5:5" s="8" customFormat="1">
-      <c r="E114" s="73"/>
+      <c r="E114" s="70"/>
     </row>
     <row r="115" spans="5:5" s="8" customFormat="1">
-      <c r="E115" s="73"/>
+      <c r="E115" s="70"/>
     </row>
     <row r="116" spans="5:5" s="8" customFormat="1">
-      <c r="E116" s="73"/>
+      <c r="E116" s="70"/>
     </row>
     <row r="117" spans="5:5" s="8" customFormat="1">
-      <c r="E117" s="73"/>
+      <c r="E117" s="70"/>
     </row>
     <row r="118" spans="5:5" s="8" customFormat="1">
-      <c r="E118" s="73"/>
+      <c r="E118" s="70"/>
     </row>
     <row r="119" spans="5:5" s="8" customFormat="1">
-      <c r="E119" s="73"/>
+      <c r="E119" s="70"/>
     </row>
     <row r="120" spans="5:5" s="8" customFormat="1">
-      <c r="E120" s="73"/>
+      <c r="E120" s="70"/>
     </row>
     <row r="121" spans="5:5" s="8" customFormat="1">
-      <c r="E121" s="73"/>
+      <c r="E121" s="70"/>
     </row>
     <row r="122" spans="5:5" s="8" customFormat="1">
-      <c r="E122" s="73"/>
+      <c r="E122" s="70"/>
     </row>
     <row r="123" spans="5:5" s="8" customFormat="1">
-      <c r="E123" s="73"/>
+      <c r="E123" s="70"/>
     </row>
     <row r="124" spans="5:5" s="8" customFormat="1">
-      <c r="E124" s="73"/>
+      <c r="E124" s="70"/>
     </row>
     <row r="125" spans="5:5" s="8" customFormat="1">
-      <c r="E125" s="73"/>
+      <c r="E125" s="70"/>
     </row>
     <row r="126" spans="5:5" s="8" customFormat="1">
-      <c r="E126" s="73"/>
+      <c r="E126" s="70"/>
     </row>
     <row r="127" spans="5:5" s="8" customFormat="1">
-      <c r="E127" s="73"/>
+      <c r="E127" s="70"/>
     </row>
     <row r="128" spans="5:5" s="8" customFormat="1">
-      <c r="E128" s="73"/>
+      <c r="E128" s="70"/>
     </row>
     <row r="129" spans="5:5" s="8" customFormat="1">
-      <c r="E129" s="73"/>
+      <c r="E129" s="70"/>
     </row>
     <row r="130" spans="5:5" s="8" customFormat="1">
-      <c r="E130" s="73"/>
+      <c r="E130" s="70"/>
     </row>
     <row r="131" spans="5:5" s="8" customFormat="1">
-      <c r="E131" s="73"/>
+      <c r="E131" s="70"/>
     </row>
     <row r="132" spans="5:5" s="8" customFormat="1">
-      <c r="E132" s="73"/>
+      <c r="E132" s="70"/>
     </row>
     <row r="133" spans="5:5" s="8" customFormat="1">
-      <c r="E133" s="73"/>
+      <c r="E133" s="70"/>
     </row>
     <row r="134" spans="5:5" s="8" customFormat="1">
-      <c r="E134" s="73"/>
+      <c r="E134" s="70"/>
     </row>
     <row r="135" spans="5:5" s="8" customFormat="1">
-      <c r="E135" s="73"/>
+      <c r="E135" s="70"/>
     </row>
     <row r="136" spans="5:5" s="8" customFormat="1">
-      <c r="E136" s="73"/>
+      <c r="E136" s="70"/>
     </row>
     <row r="137" spans="5:5" s="8" customFormat="1">
-      <c r="E137" s="73"/>
+      <c r="E137" s="70"/>
     </row>
     <row r="138" spans="5:5" s="8" customFormat="1">
-      <c r="E138" s="73"/>
+      <c r="E138" s="70"/>
     </row>
     <row r="139" spans="5:5" s="8" customFormat="1">
-      <c r="E139" s="73"/>
+      <c r="E139" s="70"/>
     </row>
     <row r="140" spans="5:5" s="8" customFormat="1">
-      <c r="E140" s="73"/>
+      <c r="E140" s="70"/>
     </row>
     <row r="141" spans="5:5" s="8" customFormat="1">
-      <c r="E141" s="73"/>
+      <c r="E141" s="70"/>
     </row>
     <row r="142" spans="5:5" s="8" customFormat="1">
-      <c r="E142" s="73"/>
+      <c r="E142" s="70"/>
     </row>
     <row r="143" spans="5:5" s="8" customFormat="1">
-      <c r="E143" s="73"/>
+      <c r="E143" s="70"/>
     </row>
     <row r="144" spans="5:5" s="8" customFormat="1">
-      <c r="E144" s="73"/>
+      <c r="E144" s="70"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:Q38">
@@ -7141,418 +7157,418 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="52" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="52" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="52"/>
-    <col min="15" max="15" width="13.28515625" style="52" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" width="5.42578125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="49" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="49"/>
+    <col min="15" max="15" width="13.28515625" style="49" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="50" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="49" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="53" customFormat="1" ht="14.25">
-      <c r="A4" s="133" t="s">
+    <row r="4" spans="1:15" s="50" customFormat="1" ht="14.25">
+      <c r="A4" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="134" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="136" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-    </row>
-    <row r="5" spans="1:15" s="53" customFormat="1" ht="14.25">
-      <c r="A5" s="134"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="54" t="s">
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+    </row>
+    <row r="5" spans="1:15" s="50" customFormat="1" ht="14.25">
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="N5" s="54" t="s">
+      <c r="N5" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="O5" s="54" t="s">
+      <c r="O5" s="51" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="55">
+      <c r="A6" s="52">
         <v>1</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52">
         <f t="shared" ref="O7:O14" si="0">SUM(C7:N7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55">
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>2</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55">
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="55">
+      <c r="A12" s="52">
         <v>3</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55">
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="57" customFormat="1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56" t="s">
+    <row r="15" spans="1:15" s="54" customFormat="1">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="55"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="52"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="52">
         <f>SUM(C7,C10,C13)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="52">
         <f t="shared" ref="D16:O17" si="1">SUM(D7,D10,D13)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="55">
+      <c r="J16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="55">
+      <c r="K16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="55">
+      <c r="M16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="55">
+      <c r="N16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="55">
+      <c r="O16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="52">
         <f>SUM(C8,C11,C14)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="55">
+      <c r="L17" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17" s="55">
+      <c r="M17" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N17" s="55">
+      <c r="N17" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="55">
+      <c r="O17" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7578,247 +7594,247 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="52" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="52" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="52"/>
-    <col min="7" max="7" width="28.85546875" style="52" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" width="5.42578125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="49" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="49"/>
+    <col min="7" max="7" width="28.85546875" style="49" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="137" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="138" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-    </row>
-    <row r="4" spans="1:7" s="53" customFormat="1" ht="14.25">
-      <c r="A4" s="133" t="s">
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+    </row>
+    <row r="4" spans="1:7" s="50" customFormat="1" ht="14.25">
+      <c r="A4" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="134" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="136" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-    </row>
-    <row r="5" spans="1:7" s="53" customFormat="1" ht="14.25">
-      <c r="A5" s="134"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="54" t="s">
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+    </row>
+    <row r="5" spans="1:7" s="50" customFormat="1" ht="14.25">
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="51" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="55">
+      <c r="A6" s="52">
         <v>1</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52">
         <f>SUM(C7:F7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55">
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52">
         <f>SUM(C8:F8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="55">
+      <c r="A9" s="52">
         <v>2</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52">
         <f>SUM(C10:F10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55">
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52">
         <f>SUM(C11:F11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="55">
+      <c r="A12" s="52">
         <v>3</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52">
         <f>SUM(C13:F13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55">
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52">
         <f>SUM(C14:F14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="57" customFormat="1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56" t="s">
+    <row r="15" spans="1:7" s="54" customFormat="1">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="55"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="52">
         <f>SUM(C7,C10,C13)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="52">
         <f t="shared" ref="D16:G17" si="0">SUM(D7,D10,D13)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="52">
         <f>SUM(C8,C11,C14)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7844,159 +7860,159 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="52" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="52" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="52" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="52"/>
-    <col min="5" max="5" width="10.5703125" style="52" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="52"/>
-    <col min="7" max="7" width="11.5703125" style="52" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="52"/>
-    <col min="9" max="9" width="13.28515625" style="52" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" width="5.42578125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="49"/>
+    <col min="5" max="5" width="10.5703125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="49"/>
+    <col min="7" max="7" width="11.5703125" style="49" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="49"/>
+    <col min="9" max="9" width="13.28515625" style="49" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="49" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="133" t="s">
+    <row r="4" spans="1:9" s="50" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="139" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139" t="s">
+      <c r="D4" s="140"/>
+      <c r="E4" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139" t="s">
+      <c r="F4" s="140"/>
+      <c r="G4" s="140" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140" t="s">
+      <c r="H4" s="140"/>
+      <c r="I4" s="141" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="53" customFormat="1" ht="14.25">
-      <c r="A5" s="134"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="54" t="s">
+    <row r="5" spans="1:9" s="50" customFormat="1" ht="14.25">
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="I5" s="141"/>
+      <c r="I5" s="142"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="58">
+      <c r="A6" s="55">
         <v>1</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="58">
+      <c r="A7" s="55">
         <v>2</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="58">
+      <c r="A8" s="55">
         <v>3</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-    </row>
-    <row r="9" spans="1:9" s="57" customFormat="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" s="54" customFormat="1">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="53">
         <f>SUM(C6:C8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="53">
         <f t="shared" ref="D9:H9" si="0">SUM(D6:D8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="55"/>
+      <c r="I9" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="7">
